--- a/한투_금상_작업중.xlsx
+++ b/한투_금상_작업중.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\BOS\TF금융상품\이정수\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SettleNetTF\HankookFI\HankookFI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1. Client" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="385">
   <si>
     <t xml:space="preserve"> - SCCMainForm - FormCreate - gvMenuList(MenuItem)에 SUMENU_TBL의 메뉴 리스트를 집어 넣는다.(EXCEPT_DEPT_CODE 만 제외하고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -804,76 +804,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유광진</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>송신 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신처명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서서식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:24:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터로드_계좌_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조성은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234-5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융상품 현금매수 확인서 외화RP 신규매수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔고확인서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔고증명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP수익금계산서 RP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융상품 현금매수 확인서 외화RP 매도신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원천징수영수증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP출금예정내역서 RP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기필;유광진;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in@dr.com;yk@dr.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>인기필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남은행_계좌_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gvInsCompCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상품코드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMENU_INS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_INS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gvInsTypeStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 변수, 함수 PAS 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그대로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. gf_ExecSBP2801_TDC 함수 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. data 전송 부분 없어도 되지 않나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCSECTP_TBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. RunTran에서 8801 TR 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황선아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이순애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678-12-1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행_계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터로드_기관_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터로드_계좌_1_12_1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터로드_계좌_1_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999999-99-9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 2</t>
+  </si>
+  <si>
+    <t>담당자 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in@dr.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유광진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234-5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk@dr.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999-9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js@naver.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 3</t>
+  </si>
+  <si>
+    <t>인기필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유광진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이정수</t>
-  </si>
-  <si>
-    <t>송신 매니저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전송구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신처명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서서식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:24:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99999999-98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터로드_계좌_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -881,71 +1160,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>원천징수영수증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678-12-1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터로드_계좌_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터로드_계좌_1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234-5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔고증명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔고증명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔고증명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>975023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:27:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남은행_계좌_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js@naver.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>975023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP수익금계산서 RP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원천징수영수증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999999-99-9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터로드_기관_9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0000-0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이재성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인기필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in@dr.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조성은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99999999-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터로드_계좌_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유광진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uk@dr.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황선아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이정수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이선애</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234-5678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAX</t>
+    <t>9999-9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융상품 현금매수 확인서 외화RP 매도신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기필;유광진;이정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in@dr.com;yk@dr.com;js@naver.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77777777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행_계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd@god.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -953,15 +1324,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E-mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인기필;유광진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔고확인서</t>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:13:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77777777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행_계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -969,237 +1356,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이정수;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터로드_계좌1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>js@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd@god.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>975023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234-5678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP수익금계산서 RP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융상품 현금매수 확인서 외화RP 매도신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원천징수영수증</t>
-  </si>
-  <si>
-    <t>원천징수영수증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000-0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP출금예정내역서 RP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전송구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1개, 2개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같을 때, 다를 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAX, E-MAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인기필;유광진;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>js@naver.com;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in@dr.com;yk@dr.com;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 계좌의 - 1개의 수신처, N개의 보고서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이정수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:27:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:24:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:31:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:03:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999-9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인기필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인기필, 유광진</t>
-  </si>
-  <si>
-    <t>데이터로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남은행_계좌1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남은행_계좌_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gvInsCompCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상품코드 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUMENU_INS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_INS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gvInsTypeStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌 변수, 함수 PAS 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그대로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. gf_ExecSBP2801_TDC 함수 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. data 전송 부분 없어도 되지 않나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCSECTP_TBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. RunTran에서 8801 TR 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,14 +1548,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1314,6 +1609,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -1574,36 +1875,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1625,12 +1898,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1828,173 +2127,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3463,11 +3762,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
@@ -3477,13 +3776,13 @@
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A3" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -3496,14 +3795,14 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A4" s="73"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3514,14 +3813,14 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A5" s="73"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -3532,14 +3831,14 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="I5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A6" s="73"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -3550,16 +3849,16 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="I6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A7" s="73"/>
       <c r="B7" s="6" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -3568,38 +3867,38 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3607,25 +3906,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -3633,72 +3932,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="B20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="B22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="B23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.6">
       <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
@@ -3709,27 +4008,27 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="B38" s="10" t="s">
         <v>42</v>
       </c>
@@ -3740,27 +4039,27 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.6">
       <c r="B44" s="10" t="s">
         <v>44</v>
       </c>
@@ -3771,9 +4070,9 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +4093,7 @@
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
@@ -3802,12 +4101,12 @@
     <col min="15" max="15" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
       <c r="O1" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -3815,19 +4114,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>48</v>
       </c>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3835,12 +4134,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
       <c r="O6" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A7" s="26" t="s">
         <v>50</v>
       </c>
@@ -3848,7 +4147,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A8" s="27" t="s">
         <v>51</v>
       </c>
@@ -3856,7 +4155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -3864,13 +4163,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A10" s="27"/>
       <c r="O10" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A11" s="26" t="s">
         <v>53</v>
       </c>
@@ -3878,7 +4177,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A12" s="27" t="s">
         <v>54</v>
       </c>
@@ -3886,7 +4185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A13" s="27" t="s">
         <v>55</v>
       </c>
@@ -3894,12 +4193,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
       <c r="O14" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
         <v>56</v>
       </c>
@@ -3907,7 +4206,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A16" s="13" t="s">
         <v>57</v>
       </c>
@@ -3915,7 +4214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A17" s="13" t="s">
         <v>58</v>
       </c>
@@ -3923,7 +4222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A18" s="13" t="s">
         <v>59</v>
       </c>
@@ -3931,7 +4230,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A19" s="13" t="s">
         <v>60</v>
       </c>
@@ -3939,7 +4238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A20" s="13" t="s">
         <v>61</v>
       </c>
@@ -3947,12 +4246,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
       <c r="O21" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
         <v>108</v>
       </c>
@@ -3960,7 +4259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -3968,7 +4267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3976,7 +4275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -3984,7 +4283,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A26" s="16" t="s">
         <v>112</v>
       </c>
@@ -4000,7 +4299,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>114</v>
       </c>
@@ -4016,7 +4315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
         <v>115</v>
       </c>
@@ -4032,7 +4331,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
         <v>113</v>
       </c>
@@ -4048,7 +4347,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -4064,7 +4363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -4080,7 +4379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
         <v>118</v>
       </c>
@@ -4096,7 +4395,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="6" t="s">
         <v>120</v>
       </c>
@@ -4112,7 +4411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="6" t="s">
         <v>119</v>
       </c>
@@ -4128,7 +4427,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="17" t="s">
         <v>121</v>
       </c>
@@ -4136,7 +4435,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="17" t="s">
         <v>122</v>
       </c>
@@ -4144,13 +4443,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="17"/>
       <c r="O37" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="17" t="s">
         <v>140</v>
       </c>
@@ -4158,32 +4457,32 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="17"/>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
       <c r="O39" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="85" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="B40" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="87"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="76"/>
       <c r="O40" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
       <c r="B41" s="18" t="s">
         <v>124</v>
       </c>
@@ -4203,7 +4502,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
       <c r="B42" s="20" t="s">
         <v>125</v>
       </c>
@@ -4221,7 +4520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
       <c r="B43" s="20" t="s">
         <v>125</v>
       </c>
@@ -4239,7 +4538,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
       <c r="B44" s="20" t="s">
         <v>125</v>
       </c>
@@ -4257,7 +4556,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
       <c r="B45" s="20" t="s">
         <v>150</v>
       </c>
@@ -4277,7 +4576,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
       <c r="B46" s="23" t="s">
         <v>125</v>
       </c>
@@ -4297,22 +4596,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
       <c r="O47" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="88" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="B48" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="88"/>
+      <c r="C48" s="77"/>
       <c r="D48" s="35"/>
       <c r="O48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B49" s="31" t="s">
         <v>133</v>
       </c>
@@ -4321,7 +4620,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B50" s="30" t="s">
         <v>141</v>
       </c>
@@ -4329,7 +4628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B51" s="30" t="s">
         <v>154</v>
       </c>
@@ -4337,7 +4636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B52" s="30" t="s">
         <v>155</v>
       </c>
@@ -4345,7 +4644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B53" s="29" t="s">
         <v>144</v>
       </c>
@@ -4353,7 +4652,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B54" s="30" t="s">
         <v>142</v>
       </c>
@@ -4361,33 +4660,33 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B55" s="32" t="s">
         <v>139</v>
       </c>
       <c r="C55" s="30"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -4412,7 +4711,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="1.75" style="36" customWidth="1"/>
     <col min="2" max="3" width="17.625" style="36" customWidth="1"/>
@@ -4422,17 +4721,17 @@
     <col min="7" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="98" t="s">
+    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B2" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B3" s="39" t="s">
         <v>161</v>
       </c>
@@ -4449,8 +4748,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B4" s="90" t="s">
         <v>172</v>
       </c>
       <c r="C4" s="44" t="s">
@@ -4464,9 +4763,9 @@
       </c>
       <c r="F4" s="55"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="102"/>
-      <c r="C5" s="104" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B5" s="91"/>
+      <c r="C5" s="93" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="44" t="s">
@@ -4475,16 +4774,16 @@
       <c r="E5" s="44"/>
       <c r="F5" s="55"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="103"/>
-      <c r="C6" s="105"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B6" s="92"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="44" t="s">
         <v>159</v>
       </c>
       <c r="E6" s="44"/>
       <c r="F6" s="55"/>
     </row>
-    <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="33.75" x14ac:dyDescent="0.6">
       <c r="B7" s="42" t="s">
         <v>171</v>
       </c>
@@ -4497,7 +4796,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="55"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B8" s="45" t="s">
         <v>168</v>
       </c>
@@ -4510,20 +4809,20 @@
       <c r="E8" s="46"/>
       <c r="F8" s="50"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="94" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B10" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="90" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="40" t="s">
         <v>173</v>
       </c>
@@ -4534,8 +4833,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="92" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B12" s="81" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="48" t="s">
@@ -4551,8 +4850,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="92"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B13" s="81"/>
       <c r="C13" s="48" t="s">
         <v>175</v>
       </c>
@@ -4569,8 +4868,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="93"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B14" s="82"/>
       <c r="C14" s="49" t="s">
         <v>174</v>
       </c>
@@ -4584,40 +4883,40 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B16" s="54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B17" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B18" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B19" s="54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B20" s="54"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B21" s="54" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B22" s="54" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B23" s="54" t="s">
         <v>186</v>
       </c>
@@ -4645,68 +4944,68 @@
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
@@ -4726,79 +5025,79 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4821,7 +5120,7 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4832,643 +5131,1029 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="76" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="64" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.625" style="64" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.875" style="36" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.5" style="36" customWidth="1"/>
-    <col min="18" max="18" width="2.625" style="64" customWidth="1"/>
-    <col min="19" max="19" width="17.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.75" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="9" style="113"/>
+    <col min="2" max="2" width="9.25" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="108" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.25" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="68" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.625" style="63" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" style="36" customWidth="1"/>
+    <col min="21" max="21" width="2.625" style="63" customWidth="1"/>
     <col min="22" max="22" width="41.25" style="36" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A1" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="97"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="37"/>
+      <c r="V1" s="54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="113" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="62"/>
+      <c r="L2" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" s="64"/>
+      <c r="O2" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A3" s="113" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="65">
+        <v>975001</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="36">
+        <v>975001</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="O3" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="T3" t="s">
+        <v>282</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A4" s="113" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="36">
+        <v>975023</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="O4" s="106"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="T4" t="s">
+        <v>285</v>
+      </c>
+      <c r="V4" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A5" s="113" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="36">
+        <v>123456</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="O5" s="106"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A6" s="113" t="s">
+        <v>350</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O6" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="P6" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q6" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="R6" s="104"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="104"/>
+      <c r="V6" s="36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A7" s="113" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="R7" s="104"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="104"/>
+      <c r="V7" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A8" s="113" t="s">
+        <v>352</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="O8" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="P8" s="102" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q8" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="R8" s="104"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="104"/>
+      <c r="V8" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A9" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="O9" s="101"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="R9" s="104"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="104"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A10" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" s="111"/>
+      <c r="I10" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="O10" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="T10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A11" s="113" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A12" s="113" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="O12" s="71"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A13" s="113" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="O13" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="P13" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="T13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A14" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="O14" s="100"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="81" t="s">
+      <c r="R14" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="T14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A15" s="113" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="H15" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="O15" s="100"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="T15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A16" s="113" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="O16" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="P16" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="R16" s="104"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="104"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A17" s="113" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="O17" s="101"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="R17" s="104"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="104"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A18" s="113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="111" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="O18" s="105" t="s">
+        <v>275</v>
+      </c>
+      <c r="P18" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q18" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="R18" s="104"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="104"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A19" s="113" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="H19" s="111" t="s">
+        <v>313</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="O19" s="105"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="R19" s="104"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="104"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A20" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="111" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="R20" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="107" t="s">
+      <c r="S20" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T20" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="107" t="s">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A21" s="113" t="s">
+        <v>365</v>
+      </c>
+      <c r="H21" s="112"/>
+      <c r="I21" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T21" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A22" s="113" t="s">
+        <v>366</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="G22" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="111" t="s">
+        <v>313</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="S22" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A23" s="113" t="s">
+        <v>367</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A24" s="113" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="H24" s="112" t="s">
+        <v>324</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T24" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A25" s="113" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" s="112"/>
+      <c r="I25" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="T25" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A26" s="113" t="s">
+        <v>370</v>
+      </c>
+      <c r="H26" s="112"/>
+      <c r="I26" s="67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A27" s="113" t="s">
+        <v>371</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="108" t="s">
+        <v>284</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A28" s="113" t="s">
+        <v>372</v>
+      </c>
+      <c r="I28" s="67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A29" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A30" s="113" t="s">
+        <v>374</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="H30" s="108" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A31" s="113" t="s">
+        <v>375</v>
+      </c>
+      <c r="I31" s="67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A32" s="113" t="s">
+        <v>376</v>
+      </c>
+      <c r="I32" s="67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A33" s="113" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" s="111" t="s">
+        <v>331</v>
+      </c>
+      <c r="I33" s="67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A34" s="113" t="s">
+        <v>378</v>
+      </c>
+      <c r="I34" s="67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A35" s="113" t="s">
+        <v>379</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A36" s="113" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="H36" s="109" t="s">
+        <v>335</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A37" s="113" t="s">
+        <v>381</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="H37" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="108"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="107" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="108"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="115" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="114" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="L9" s="106"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="106" t="s">
-        <v>213</v>
-      </c>
-      <c r="O9" s="106"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="S9" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="T9" s="106"/>
-      <c r="V9" s="54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="M10" s="65"/>
-      <c r="N10" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="T10" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="U10" s="63"/>
-      <c r="V10" s="62" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="70">
-        <v>975001</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="G11" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="I11" s="75"/>
-      <c r="K11" s="36">
-        <v>975001</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="N11" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="O11" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="P11" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="T11" t="s">
-        <v>231</v>
-      </c>
-      <c r="V11" s="36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="H12" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="K12" s="36">
-        <v>975023</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="N12" s="112"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="T12" t="s">
-        <v>236</v>
-      </c>
-      <c r="V12" s="36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E13" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="K13" s="36">
-        <v>123456</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="N13" s="112" t="s">
-        <v>233</v>
-      </c>
-      <c r="O13" s="113" t="s">
-        <v>234</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="S13" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="T13" t="s">
-        <v>252</v>
-      </c>
-      <c r="V13" s="36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="H14" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="N14" s="112"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>280</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="T14" t="s">
-        <v>254</v>
-      </c>
-      <c r="V14" s="36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="E15" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" t="s">
-        <v>276</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="N15" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="O15" s="113" t="s">
-        <v>290</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="T15" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="V15" s="36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="H16" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="I16" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="N16" s="112"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="T16" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="V16" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G17" s="79"/>
-      <c r="H17" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="I17" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="N17" s="112" t="s">
-        <v>242</v>
-      </c>
-      <c r="O17" s="113" t="s">
-        <v>288</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="S17" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="T17" s="36" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="G18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="N18" s="112"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="83" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="69" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H20" s="69" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H21" s="69" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="H22" s="69" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E23" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="H23" s="69" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E24" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H25" s="36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H26" s="69" t="s">
-        <v>261</v>
+      <c r="I37" s="67" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A38" s="113" t="s">
+        <v>382</v>
+      </c>
+      <c r="I38" s="67" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G24" r:id="rId1"/>
+    <hyperlink ref="H36" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5480,19 +6165,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/한투_금상_작업중.xlsx
+++ b/한투_금상_작업중.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SettleNetTF\HankookFI\HankookFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SettleNetTF\WorkingFI\HankookFI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1. Client" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="4-1. Delphi 송신 매니저 디자인(PPT로 대체)" sheetId="7" r:id="rId6"/>
     <sheet name="4-2. Delphi 송신 매니저 샘플 데이터" sheetId="8" r:id="rId7"/>
     <sheet name="5. SettleNet 송신 매니저 작업" sheetId="9" r:id="rId8"/>
+    <sheet name="5-1. 구조체" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="539">
   <si>
     <t xml:space="preserve"> - SCCMainForm - FormCreate - gvMenuList(MenuItem)에 SUMENU_TBL의 메뉴 리스트를 집어 넣는다.(EXCEPT_DEPT_CODE 만 제외하고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[TF]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gvInsTypeLen</t>
   </si>
   <si>
@@ -125,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[작업]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. MainFrame 상속 안함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +199,6 @@
   </si>
   <si>
     <t>-&gt; 밑에 STATUS BAR 부분임 FORMCREATE 함수 가장 밑에도 소스 추가되는 부분 있어서 작업 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 7 - FI에 추가된 Global Valuable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -966,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -978,10 +963,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_INS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1470,14 +1451,659 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 메뉴 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어갈 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[작업 한 내용]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TF 금상 생각할 내용]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확정된 사항(18.01.29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 7버전 - FI에 추가된 Global Valuable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FormCreate </t>
+  </si>
+  <si>
+    <t>전송대상 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL 2</t>
+  </si>
+  <si>
+    <t>LEVEL 3</t>
+  </si>
+  <si>
+    <t>LEVEL 4</t>
+  </si>
+  <si>
+    <t>LEVEL 5</t>
+  </si>
+  <si>
+    <t>LEVEL 6</t>
+  </si>
+  <si>
+    <t>LEVEL 7</t>
+  </si>
+  <si>
+    <t>LEVEL 8</t>
+  </si>
+  <si>
+    <t>LEVEL 9</t>
+  </si>
+  <si>
+    <t>LEVEL 10</t>
+  </si>
+  <si>
+    <t>LEVEL 11</t>
+  </si>
+  <si>
+    <t>LEVEL 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수신처 Import </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filtering 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 Import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자: 당일(YYYYMMDD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사번: 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성시간: 00:00(HH:MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호: 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 그리드 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 그리드 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송구분 선택: 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미전송 내역만: Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process 선택: 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringGrid Column 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상, 당일송신확인 그리드 디자인 말고 소스로 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장하기 전 폴더 경로 오픈하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전송대상 컬럼:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+체크 / 사번 / 생성시간 / 계좌번호 / 계좌명 /
+전송구분 / 수신처명 / 수신처 / 보고서서식 / 
+요청시간 / 완료시간 / 전송제외</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">당일송신확인 컬럼:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>체크 / 사번 / 계좌번호 / 계좌명 / 전송구분 / 수신처명 / 수신처 / 보고서서식 / 시작시간 / 완료시간 / 재전송 / Process / Page</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 Column Index는 상수로 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINK에서 종합계좌단위 별 수신처(담당자 / FAX / E-MAIL) 
+정보를 SettleNet DB로 가져온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINK에서 계좌번호 정보를 SettleNet DB로 가져온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 테이블에 INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??? IMPORT ALL ??? (미정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 테이블에 해당 계좌 정보가 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 테이블에 해당 계좌 정보가 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력 관리 테이블에 INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 계좌 DELETE 후 INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가져온 계좌 정보가 SettleNet 계좌 테이블에 
+존재 하는지 체크 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가져온 수신처 정보가 SettleNet FAX / E-mail 수신처
+테이블에 존재하는지 체크 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신처 테이블에 해당 수신처 정보가 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신처 테이블에 해당 수신처 정보가 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신처 테이블에 INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 수신처 DELETE 후 INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ 광 과장님 작업 LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALIGN / COLWIDTH 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SUUSER 테이블에서 사번 / 사용자명 가져와서 
+ComboBox 셋팅 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호 테이블에서 종합계좌단위 계좌번호 / 계좌명
+가져와서 ComboBox 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 대상 리스트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  end;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AccNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MediaNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReportID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReportName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PSStringList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PSStringAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    StartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SendDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SendFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CancFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ErrMsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GridRowIdx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ReportIdx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RIdxSeqNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> string; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TStringList; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 추신 추가시 해당 내역 저장</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boolean; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PS 전체입력</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송 여부</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integer; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CurTotSeqNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송 선택 여부</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Display되는 Grid의 Row Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송될 동일 레포트 Idx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송된 동일 레포트 Idx</t>
+  </si>
+  <si>
+    <t>팩스 전송 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 전송 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미등록 전송 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    MediaName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 수신처 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 수신처 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WorkNo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> string;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateDataTime</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 생성시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    AccName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 계좌명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CurTotSeqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송 선택 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    EndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송 완료 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송 시작 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ExceptFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> boolean; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송 제외 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    CurTotSeqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> string;        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> String;        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TStringList;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MailAddr        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PSStringList    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AttFileList     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TList;         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Attach File List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SubjectData     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mail 제목</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MailBodyData    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mail 본문</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SendFlag        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boolean;       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXPORT여부    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ErrMsg          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Selected        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GridRowIdx      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integer;       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SendDate        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ExportFlag      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보고서 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보고서 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송 후 취소 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    CancFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    CurTotSeqNo    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    MailName         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최종 전송 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mail 수신처 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mail 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조체, 리스트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TSndFaxTlx = record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pTSndFaxTlx = ^TSndFaxTlx;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pTSndMail = ^TSndMail;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSndMail = record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssignCode로 '전체' 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaskEdit '당일' 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaskEdit '00:00' 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox  'Checked' 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton '전체' 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILTERING 조건에 맞게 QUERY해서 가져오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1571,8 +2197,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,8 +2258,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1934,6 +2589,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1943,7 +2651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1974,15 +2682,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2163,6 +2865,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2229,63 +2958,36 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2293,6 +2995,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3760,324 +4537,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I46"/>
+  <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="73" t="s">
+      <c r="I2" s="117" t="s">
+        <v>384</v>
+      </c>
+      <c r="J2" s="117"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="116" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="80"/>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="80"/>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J5" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="80"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J6" s="116" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="80"/>
+      <c r="C7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A4" s="73"/>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="73"/>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>249</v>
       </c>
-      <c r="I5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A6" s="73"/>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A7" s="73"/>
-      <c r="B7" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="I7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A17" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="C26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B38" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B44" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A46" t="s">
-        <v>260</v>
-      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A7"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4093,7 +5018,7 @@
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
@@ -4101,191 +5026,191 @@
     <col min="15" max="15" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="O1" s="14" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O1" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O6" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="O10" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O14" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O21" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="O6" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A9" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A10" s="27"/>
-      <c r="O10" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="O14" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A20" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="O21" s="11" t="s">
+      <c r="O24" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A22" s="3" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>108</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O25" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A23" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A25" t="s">
-        <v>111</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A26" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4295,13 +5220,13 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="O26" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="O26" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4311,13 +5236,13 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="O27" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="O27" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4327,13 +5252,13 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="O28" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="O28" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4343,13 +5268,13 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="O29" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="O29" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4359,13 +5284,13 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="O30" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="O30" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4375,13 +5300,13 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="O31" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="O31" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4391,13 +5316,13 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="O32" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="O32" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4407,13 +5332,13 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="O33" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="O33" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4423,272 +5348,272 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="O37" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A35" s="17" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="O39" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="83"/>
+      <c r="O40" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="O35" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A36" s="17" t="s">
+      <c r="C41" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="O36" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A37" s="17"/>
-      <c r="O37" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A38" s="17" t="s">
+      <c r="C42" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="19">
+        <v>3000</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="O42" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="19">
+        <v>100</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="O43" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="O44" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="19">
+        <v>21</v>
+      </c>
+      <c r="F45" s="20">
+        <v>7</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="22">
+        <v>21</v>
+      </c>
+      <c r="F46" s="23">
+        <v>7</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O47" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="84"/>
+      <c r="D48" s="33"/>
+      <c r="O48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="N49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="O38" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="78" t="s">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="28"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="O39" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="B40" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="O40" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="B41" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="B42" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="21">
-        <v>3000</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="O42" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="B43" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="21">
-        <v>100</v>
-      </c>
-      <c r="F43" s="22"/>
-      <c r="O43" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="B44" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="22"/>
-      <c r="O44" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="B45" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="21">
-        <v>21</v>
-      </c>
-      <c r="F45" s="22">
-        <v>7</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="B46" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="24">
-        <v>21</v>
-      </c>
-      <c r="F46" s="25">
-        <v>7</v>
-      </c>
-      <c r="O46" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="O47" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="B48" s="77" t="s">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="35"/>
-      <c r="O48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B49" s="31" t="s">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="N49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B50" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B51" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B52" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B53" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B54" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B55" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="30"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A59" s="3" t="s">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A60" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A63" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4711,214 +5636,214 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="36" customWidth="1"/>
-    <col min="2" max="3" width="17.625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="1.75" style="34" customWidth="1"/>
+    <col min="2" max="3" width="17.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="34" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="98"/>
+      <c r="C5" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="99"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B3" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="90" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="F11" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="88"/>
+      <c r="C13" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="89"/>
+      <c r="C14" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="91"/>
-      <c r="C5" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="92"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="2:7" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="B7" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="55"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="50"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="56" t="s">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="81"/>
-      <c r="C13" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="57" t="s">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="52"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="82"/>
-      <c r="C14" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B17" s="54" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B18" s="54" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B19" s="54" t="s">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="52" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B20" s="54"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B21" s="54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B22" s="54" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B23" s="54" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4944,71 +5869,71 @@
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.6">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5025,81 +5950,81 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A10" s="3" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A15" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A18" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5120,7 +6045,7 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5133,1021 +6058,1021 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="113"/>
-    <col min="2" max="2" width="9.25" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.25" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="63" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.375" style="36" customWidth="1"/>
-    <col min="21" max="21" width="2.625" style="63" customWidth="1"/>
-    <col min="22" max="22" width="41.25" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="79"/>
+    <col min="2" max="2" width="9.25" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="74" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.25" style="65" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="61" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.625" style="61" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="2.625" style="61" customWidth="1"/>
+    <col min="22" max="22" width="41.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="108"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="35"/>
+      <c r="V1" s="52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" s="97"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="97" t="s">
-        <v>212</v>
-      </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="37"/>
-      <c r="V1" s="54" t="s">
+      <c r="I2" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="60"/>
+      <c r="L2" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="62"/>
+      <c r="O2" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="113" t="s">
-        <v>383</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" s="110" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="44" t="s">
+      <c r="Q2" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="63">
+        <v>975001</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="D3" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="M2" s="37" t="s">
+      <c r="F3" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q2" s="97" t="s">
+      <c r="G3" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="61" t="s">
+      <c r="H3" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" s="34">
+        <v>975001</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" s="106" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="T3" t="s">
+        <v>277</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="34">
+        <v>975023</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="T4" t="s">
+        <v>280</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="34">
+        <v>123456</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="O5" s="106"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T5" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="79" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O6" s="111" t="s">
+        <v>259</v>
+      </c>
+      <c r="P6" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="R6" s="72"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="72"/>
+      <c r="V6" s="34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="111"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="R7" s="72"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="72"/>
+      <c r="V7" s="34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A3" s="113" t="s">
-        <v>384</v>
-      </c>
-      <c r="B3" s="65">
-        <v>975001</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="66" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="111" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="R8" s="72"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="72"/>
+      <c r="V8" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="O9" s="111"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="R9" s="72"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" s="77"/>
+      <c r="I10" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="O10" s="110" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="T10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="O11" s="110"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
+        <v>351</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="79" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="O13" s="104" t="s">
+        <v>271</v>
+      </c>
+      <c r="P13" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="T13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="79" t="s">
+        <v>353</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="O14" s="104"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="T14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" s="108" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="L3" s="36">
-        <v>975001</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="E15" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="O15" s="104"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="T15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="O16" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="P16" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q16" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="R16" s="72"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="72"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="O17" s="111"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="R17" s="72"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="72"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="79" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="O18" s="102" t="s">
+        <v>270</v>
+      </c>
+      <c r="P18" s="103" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q18" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="R18" s="72"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="72"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="I19" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="O19" s="102"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="R19" s="72"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="72"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="I20" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="P20" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="P3" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="T3" t="s">
-        <v>282</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A4" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="36">
-        <v>975023</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="38" t="s">
+      <c r="Q20" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="H21" s="78"/>
+      <c r="I21" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="79" t="s">
+        <v>362</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="S23" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T24" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="H25" s="78"/>
+      <c r="I25" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="T25" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="H26" s="78"/>
+      <c r="I26" s="65" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="79" t="s">
+        <v>366</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="R4" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="T4" t="s">
-        <v>285</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A5" s="113" t="s">
-        <v>349</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="108" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="L5" s="36">
-        <v>123456</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="O5" s="106"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="38" t="s">
+      <c r="I27" s="65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="79" t="s">
+        <v>368</v>
+      </c>
+      <c r="I29" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="R5" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="V5" s="36" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A6" s="113" t="s">
-        <v>350</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="O6" s="101" t="s">
-        <v>264</v>
-      </c>
-      <c r="P6" s="102" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q6" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="R6" s="104"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="104"/>
-      <c r="V6" s="36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A7" s="113" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="H7" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="I7" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="101"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="103" t="s">
-        <v>279</v>
-      </c>
-      <c r="R7" s="104"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="104"/>
-      <c r="V7" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A8" s="113" t="s">
-        <v>352</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="O8" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="P8" s="102" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="R8" s="104"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="104"/>
-      <c r="V8" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A9" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="H9" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="103" t="s">
-        <v>279</v>
-      </c>
-      <c r="R9" s="104"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="104"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A10" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="O10" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="P10" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="S10" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="T10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A11" s="113" t="s">
-        <v>355</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T11" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A12" s="113" t="s">
-        <v>356</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="O12" s="71"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T12" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A13" s="113" t="s">
-        <v>357</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="H13" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="O13" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="P13" s="96" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q13" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="S13" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="T13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A14" s="113" t="s">
-        <v>358</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="O14" s="100"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="R14" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="S14" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="T14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A15" s="113" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G15" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="H15" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>304</v>
-      </c>
-      <c r="O15" s="100"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="S15" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="T15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A16" s="113" t="s">
-        <v>360</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="I16" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="O16" s="101" t="s">
-        <v>266</v>
-      </c>
-      <c r="P16" s="102" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q16" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="R16" s="104"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="104"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A17" s="113" t="s">
-        <v>361</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="I17" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="O17" s="101"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="103" t="s">
-        <v>279</v>
-      </c>
-      <c r="R17" s="104"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="104"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A18" s="113" t="s">
-        <v>362</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G18" s="67" t="s">
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="79" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="H30" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="I30" s="65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="79" t="s">
+        <v>370</v>
+      </c>
+      <c r="I31" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="H18" s="111" t="s">
-        <v>286</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="O18" s="105" t="s">
-        <v>275</v>
-      </c>
-      <c r="P18" s="102" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q18" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="R18" s="104"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="104"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A19" s="113" t="s">
-        <v>363</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="67" t="s">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H33" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="79" t="s">
+        <v>373</v>
+      </c>
+      <c r="I34" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="H19" s="111" t="s">
-        <v>313</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="O19" s="105"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="103" t="s">
-        <v>279</v>
-      </c>
-      <c r="R19" s="104"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="104"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A20" s="113" t="s">
-        <v>364</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="H20" s="111" t="s">
-        <v>286</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="O20" s="36" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="I35" s="65" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="H36" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="I36" s="65" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="79" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="G37" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="H37" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="P20" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="S20" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T20" s="36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A21" s="113" t="s">
-        <v>365</v>
-      </c>
-      <c r="H21" s="112"/>
-      <c r="I21" s="67" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q21" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="R21" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="S21" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T21" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A22" s="113" t="s">
-        <v>366</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="G22" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="H22" s="111" t="s">
-        <v>313</v>
-      </c>
-      <c r="I22" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="S22" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T22" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A23" s="113" t="s">
-        <v>367</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>318</v>
-      </c>
-      <c r="O23" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="P23" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q23" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="R23" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="S23" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A24" s="113" t="s">
-        <v>368</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>321</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="112" t="s">
-        <v>324</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q24" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="R24" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="S24" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T24" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A25" s="113" t="s">
-        <v>369</v>
-      </c>
-      <c r="H25" s="112"/>
-      <c r="I25" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="R25" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="S25" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T25" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A26" s="113" t="s">
-        <v>370</v>
-      </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="67" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A27" s="113" t="s">
-        <v>371</v>
-      </c>
-      <c r="G27" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A28" s="113" t="s">
-        <v>372</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A29" s="113" t="s">
-        <v>373</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A30" s="113" t="s">
-        <v>374</v>
-      </c>
-      <c r="G30" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="H30" s="108" t="s">
-        <v>327</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A31" s="113" t="s">
-        <v>375</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.6">
-      <c r="A32" s="113" t="s">
-        <v>376</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A33" s="113" t="s">
+      <c r="I37" s="65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="79" t="s">
         <v>377</v>
       </c>
-      <c r="F33" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>330</v>
-      </c>
-      <c r="H33" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="I33" s="67" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A34" s="113" t="s">
-        <v>378</v>
-      </c>
-      <c r="I34" s="67" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A35" s="113" t="s">
-        <v>379</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A36" s="113" t="s">
-        <v>380</v>
-      </c>
-      <c r="D36" s="66" t="s">
+      <c r="I38" s="65" t="s">
         <v>342</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="F36" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="H36" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="I36" s="67" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A37" s="113" t="s">
-        <v>381</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="D37" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="E37" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="F37" s="65" t="s">
-        <v>344</v>
-      </c>
-      <c r="G37" s="67" t="s">
-        <v>345</v>
-      </c>
-      <c r="H37" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="I37" s="67" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A38" s="113" t="s">
-        <v>382</v>
-      </c>
-      <c r="I38" s="67" t="s">
-        <v>347</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="O13:O15"/>
     <mergeCell ref="P13:P15"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="P16:P17"/>
   </mergeCells>
@@ -6162,25 +7087,1141 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="B1:M63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.125" customWidth="1"/>
+    <col min="5" max="5" width="47.125" customWidth="1"/>
+    <col min="6" max="6" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
-        <v>258</v>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="123" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="122" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+    </row>
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="126" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="128"/>
+      <c r="C7" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+    </row>
+    <row r="8" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="128"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="129" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="128"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9" s="127"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="128"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="130" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" s="122"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="128"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="131" t="s">
+        <v>429</v>
+      </c>
+      <c r="G11" s="122"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="128"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="F12" s="127"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="128"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="130" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="122"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="128"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="127" t="s">
+        <v>424</v>
+      </c>
+      <c r="G14" s="122"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+    </row>
+    <row r="15" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="132"/>
+      <c r="C15" s="129" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+    </row>
+    <row r="16" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="132"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129" t="s">
+        <v>431</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="132"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="132"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="130" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="122"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="132"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="127" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" s="122"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="132"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="127"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="132"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="130" t="s">
+        <v>428</v>
+      </c>
+      <c r="G21" s="122"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="132"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="127" t="s">
+        <v>434</v>
+      </c>
+      <c r="G22" s="122"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="133"/>
+      <c r="C23" s="136" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+    </row>
+    <row r="24" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="D30" s="11"/>
+      <c r="E30" s="57" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="D31" s="11"/>
+      <c r="E31" s="118" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="11"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="11"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E35" s="57"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E40" s="119" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E41" s="119" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E45" s="119" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E46" s="119" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="120" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G5:G23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="138" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="E1" s="138" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="I1" s="138" t="s">
+        <v>475</v>
+      </c>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="139" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="139" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="139" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" s="139" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="139" t="s">
+        <v>471</v>
+      </c>
+      <c r="G2" s="139" t="s">
+        <v>472</v>
+      </c>
+      <c r="I2" s="139" t="s">
+        <v>473</v>
+      </c>
+      <c r="J2" s="139" t="s">
+        <v>471</v>
+      </c>
+      <c r="K2" s="139" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E8" t="s">
+        <v>524</v>
+      </c>
+      <c r="F8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F10" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F11" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F12" t="s">
+        <v>499</v>
+      </c>
+      <c r="G12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="121" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>460</v>
+      </c>
+      <c r="G13" s="121" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" t="s">
+        <v>468</v>
+      </c>
+      <c r="E14" t="s">
+        <v>502</v>
+      </c>
+      <c r="F14" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E15" t="s">
+        <v>505</v>
+      </c>
+      <c r="F15" t="s">
+        <v>497</v>
+      </c>
+      <c r="G15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C16" t="s">
+        <v>492</v>
+      </c>
+      <c r="E16" t="s">
+        <v>507</v>
+      </c>
+      <c r="F16" t="s">
+        <v>497</v>
+      </c>
+      <c r="G16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" t="s">
+        <v>491</v>
+      </c>
+      <c r="E17" t="s">
+        <v>448</v>
+      </c>
+      <c r="F17" t="s">
+        <v>457</v>
+      </c>
+      <c r="G17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
+        <v>457</v>
+      </c>
+      <c r="C18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E18" t="s">
+        <v>490</v>
+      </c>
+      <c r="F18" t="s">
+        <v>481</v>
+      </c>
+      <c r="G18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" t="s">
+        <v>494</v>
+      </c>
+      <c r="C19" t="s">
+        <v>495</v>
+      </c>
+      <c r="E19" t="s">
+        <v>516</v>
+      </c>
+      <c r="F19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G19" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>450</v>
+      </c>
+      <c r="B20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20" t="s">
+        <v>462</v>
+      </c>
+      <c r="E20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F20" t="s">
+        <v>494</v>
+      </c>
+      <c r="G20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>451</v>
+      </c>
+      <c r="B21" t="s">
+        <v>460</v>
+      </c>
+      <c r="C21" t="s">
+        <v>521</v>
+      </c>
+      <c r="E21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F21" t="s">
+        <v>510</v>
+      </c>
+      <c r="G21" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>517</v>
+      </c>
+      <c r="B22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" t="s">
+        <v>511</v>
+      </c>
+      <c r="E22" t="s">
+        <v>522</v>
+      </c>
+      <c r="F22" t="s">
+        <v>460</v>
+      </c>
+      <c r="G22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B23" t="s">
+        <v>463</v>
+      </c>
+      <c r="C23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E23" t="s">
+        <v>517</v>
+      </c>
+      <c r="F23" t="s">
+        <v>510</v>
+      </c>
+      <c r="G23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>452</v>
+      </c>
+      <c r="B24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" t="s">
+        <v>488</v>
+      </c>
+      <c r="E24" t="s">
+        <v>523</v>
+      </c>
+      <c r="F24" t="s">
+        <v>515</v>
+      </c>
+      <c r="G24" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>453</v>
+      </c>
+      <c r="B25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C25" t="s">
+        <v>489</v>
+      </c>
+      <c r="E25" t="s">
+        <v>512</v>
+      </c>
+      <c r="F25" t="s">
+        <v>497</v>
+      </c>
+      <c r="G25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>454</v>
+      </c>
+      <c r="B26" t="s">
+        <v>463</v>
+      </c>
+      <c r="C26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E26" t="s">
+        <v>513</v>
+      </c>
+      <c r="F26" t="s">
+        <v>510</v>
+      </c>
+      <c r="G26" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E27" t="s">
+        <v>514</v>
+      </c>
+      <c r="F27" t="s">
+        <v>515</v>
+      </c>
+      <c r="G27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/한투_금상_작업중.xlsx
+++ b/한투_금상_작업중.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1. Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <sheet name="4-1. Delphi 송신 매니저 디자인(PPT로 대체)" sheetId="7" r:id="rId6"/>
     <sheet name="4-2. Delphi 송신 매니저 샘플 데이터" sheetId="8" r:id="rId7"/>
     <sheet name="5. SettleNet 송신 매니저 작업" sheetId="9" r:id="rId8"/>
-    <sheet name="5-1. 구조체" sheetId="10" r:id="rId9"/>
+    <sheet name="5-1. 구조체 1개로" sheetId="10" r:id="rId9"/>
+    <sheet name="5-1. 구조체 2개로" sheetId="13" r:id="rId10"/>
+    <sheet name="5-2. 변수명" sheetId="11" r:id="rId11"/>
+    <sheet name="5-3. 함수명" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,8 +34,75 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jslee</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jslee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ACC_NO = (CASE WHEN M.PRD_NO = '' THEN M.ACC_NO
+        ELSE (CASE WHEN M.BLC_NO = '' THEN M.ACC_NO + '-' + M.PRD_NO
+          ELSE M.ACC_NO + '-' + M.PRD_NO + '-' + M.BLC_NO
+        END)
+      END) -&gt;&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>씀</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="874">
   <si>
     <t xml:space="preserve"> - SCCMainForm - FormCreate - gvMenuList(MenuItem)에 SUMENU_TBL의 메뉴 리스트를 집어 넣는다.(EXCEPT_DEPT_CODE 만 제외하고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,14 +1049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. gf_ExecSBP2801_TDC 함수 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. data 전송 부분 없어도 되지 않나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCSECTP_TBL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1522,10 +1584,6 @@
     <t>LEVEL 12</t>
   </si>
   <si>
-    <t xml:space="preserve">수신처 Import </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Filtering 초기화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1534,10 +1592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보고서 Import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일자: 당일(YYYYMMDD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,14 +1612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전송대상 그리드 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당일송신확인 그리드 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전송구분 선택: 전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1578,141 +1624,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StringGrid Column 셋팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전송대상, 당일송신확인 그리드 디자인 말고 소스로 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장하기 전 폴더 경로 오픈하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전송대상 컬럼:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-체크 / 사번 / 생성시간 / 계좌번호 / 계좌명 /
-전송구분 / 수신처명 / 수신처 / 보고서서식 / 
-요청시간 / 완료시간 / 전송제외</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">당일송신확인 컬럼:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>체크 / 사번 / 계좌번호 / 계좌명 / 전송구분 / 수신처명 / 수신처 / 보고서서식 / 시작시간 / 완료시간 / 재전송 / Process / Page</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 Column Index는 상수로 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WINK에서 종합계좌단위 별 수신처(담당자 / FAX / E-MAIL) 
-정보를 SettleNet DB로 가져온다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WINK에서 계좌번호 정보를 SettleNet DB로 가져온다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌 테이블에 INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>??? IMPORT ALL ??? (미정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌 테이블에 해당 계좌 정보가 있는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌 테이블에 해당 계좌 정보가 없는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이력 관리 테이블에 INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 계좌 DELETE 후 INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가져온 계좌 정보가 SettleNet 계좌 테이블에 
-존재 하는지 체크 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가져온 수신처 정보가 SettleNet FAX / E-mail 수신처
-테이블에 존재하는지 체크 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신처 테이블에 해당 수신처 정보가 있는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신처 테이블에 해당 수신처 정보가 없는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신처 테이블에 INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 수신처 DELETE 후 INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>→ 광 과장님 작업 LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALIGN / COLWIDTH 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1726,10 +1638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전송 대상 리스트 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  end;</t>
   </si>
   <si>
@@ -1854,23 +1762,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 수신처 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WorkNo</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2055,18 +1946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구조체, 리스트 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> TSndFaxTlx = record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  pTSndFaxTlx = ^TSndFaxTlx;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  pTSndMail = ^TSndMail;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2075,18 +1954,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AssignCode로 '전체' 셋팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaskEdit '당일' 셋팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaskEdit '00:00' 셋팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CheckBox  'Checked' 셋팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2095,7 +1962,1504 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FILTERING 조건에 맞게 QUERY해서 가져오기</t>
+    <t>전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRCheckBox_NotSnd</t>
+  </si>
+  <si>
+    <t>DRUserDblCodeCombo_Emp</t>
+  </si>
+  <si>
+    <t>DRMaskEdit_Time</t>
+  </si>
+  <si>
+    <t>DRUserDblCodeCombo_Acc</t>
+  </si>
+  <si>
+    <t>DRRadioBtn_SndType_FAX</t>
+  </si>
+  <si>
+    <t>DRRadioBtn_SntType_FAX</t>
+  </si>
+  <si>
+    <t>DRRadioBtn_Prc_Error</t>
+  </si>
+  <si>
+    <t>DRRadioBtn_Prc_Send</t>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDRMaskEdit</t>
+  </si>
+  <si>
+    <t>TDRUserDblCodeCombo</t>
+  </si>
+  <si>
+    <t>TDRCheckBox</t>
+  </si>
+  <si>
+    <t>TDRRadioButton</t>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사번 / 사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호 / 계좌명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 전송구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 전송구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 진행상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import - 수신처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDRBitBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import - ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import - 보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRBitBtn_ImportALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRBitBtn_ImportRpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRBitBtn_ImportDest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRBitBtn4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRBitBtn3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRBitBtn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이밍 안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 그리드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDRStringGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRStrGrid_Snd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 그리드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRStrGrid_Snt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - Export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 인쇄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRSpeedBtn_SndExport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRSpeedBtn_SndRefresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRSpeedBtn_SndPrint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRSpeedBtn_SntRefresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRSpeedBtn_SntPrint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDRSpeedButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 인쇄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 그리드 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_EMP_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_ACC_NO_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_ACC_NAME_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_TYPE_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_DEST_NAME_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_DEST_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_RPT_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_REQ_TIME_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_FIN_TIME_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_EXP_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_JOB_TIME_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 그리드 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - Export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRSpeedBtn_SntExport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_EMP_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_ACC_NO_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_ACC_NAME_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_TYPE_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_DEST_NAME_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_DEST_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_RPT_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_REQ_TIME_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_FIN_TIME_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_RESEND_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_PRC_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_PAGE_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Ctrl+F5 누르면 초기화되는 함수 호출하게
+- 실제 초기화 되는 부분은 자식폼에서 함수 재정의</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRBitBtn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRMaskEdit_Date1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRRadioBtn_SndType_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRRadioBtn_SndType_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRRadioBtn_SndType_None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRRadioBtn_SntType_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRRadioBtn_SntType_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRRadioBtn_Prc_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringGrid 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - StringGrid 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - StringGrid 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefSetSndStrGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefSetSntStrGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT_IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TSndFax = record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pTSndFax = ^TSndFax;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - FAX 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - E-mail 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 미등록 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - FAX 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - E-mail 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndFaxList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndMailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndNoneList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SntFaxList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SntMailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - FAX 리스트 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - FAX 리스트 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - E-mail 리스트 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - E-mail 리스트 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 미등록 리스트 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearSndFaxTlxList</t>
+  </si>
+  <si>
+    <t>ClearSndMailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearSndNoneList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearSntFaxList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearSntMailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - FAX 팝업 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - E-mail 팝업 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRPopupMenu_SndFax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRPopupMenu_SndEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDRPopupMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - FAX 팝업 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - E-mail 팝업 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRPopupMenu_SntFax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRPopupMenu_SntEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송(묶음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송(개별)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송제외 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.S 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.S 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신처정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag - 1</t>
+  </si>
+  <si>
+    <t>Tag - 2</t>
+  </si>
+  <si>
+    <t>Tag - 3</t>
+  </si>
+  <si>
+    <t>Tag - 4</t>
+  </si>
+  <si>
+    <t>Tag - 5</t>
+  </si>
+  <si>
+    <t>Tag - 6</t>
+  </si>
+  <si>
+    <t>Tag - 7</t>
+  </si>
+  <si>
+    <t>Tag - 8</t>
+  </si>
+  <si>
+    <t>Tag - 9</t>
+  </si>
+  <si>
+    <t>메시지 보기(묶음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 보기(개별)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag - 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag - 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중에 개발해도 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloval Valuable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FThreadHoldFlag 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeLoadXXX 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread 중지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefSetSndStrGrid;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefSetSntStrGrid;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefClearStrGrid(DRStrGrid_Snd);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefClearStrGrid(DRStrGrid_Snt);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 그리드 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 그리드 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 그리드 청소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 그리드 청소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SntFaxList, SntMailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndFaxList, SndMailList, SndNoneList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 FAX / EMAIL / 미등록 리스트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 FAX / EMAIL / 미등록 리스트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 소팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 주석처리 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag - 10</t>
+  </si>
+  <si>
+    <t>Tag - 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이밍 안함, 나중에 개발해도 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광과장님 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사번 ComboBox 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호 ComboBox 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_MakeEmpCombo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_MakeAccCombo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 그리드 컬럼수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 그리드 컬럼수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_COL_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_COL_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bNotSend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 그리드 소팅 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 그리드 소팅 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 전체 선택 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 미전송 내역 체크 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 전체 선택 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bSndSelected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bSntSelected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iSndSortIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrSndSortFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iSntSortIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrSntSortFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 컬럼 소팅 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 그리드 소팅 플래그 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 그리드 소팅 플래그 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택, Page 컬럼 소팅 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - Col 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - Row 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iSndRowIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - Col 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - Row 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iSntColIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iSntRowIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_QueryToSndFaxList</t>
+  </si>
+  <si>
+    <t>fn_QueryToSndNoneList</t>
+  </si>
+  <si>
+    <t>fn_QueryToSntFaxList</t>
+  </si>
+  <si>
+    <t>전송대상 - FAX 리스트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - E-mail 리스트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - E-mail 리스트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - FAX 리스트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 미등록 리스트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshListNGrid( true, true ) 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshListNGrid(Bool1, Bool2) ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 인수(Bool1): 전송대상 갱신 유무
+두번째 인수(Bool2): 당일송신확인 갱신 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 리스트 생성 - FAX / E-mail / 미등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_QueryToSntMailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_QueryToSndMailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX - fn_QueryToSndFaxList
+E-mail - fn_QueryToSndMailList
+미등록 - fn_QueryToSndNoneList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 리스트 생성 - FAX / E-mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX - fn_QueryToSntFaxList
+E-mail - fn_QueryToSntMailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 SelectAll 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sGridSelectAllYN</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 체크가 Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 디스플레이 후 전체 선택 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼 활성화 후 기본이 전체 선택임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sGridSelectAllYN = 'Y' 로 FIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - StringGrid Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - StringGrid Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndFaxTlxSelected</t>
+  </si>
+  <si>
+    <t>SntFaxTlxSelected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iSndColIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndFaxTlxColIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndFaxTlxRowIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SntFaxTlxColIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SntFaxTlxRowIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndFaxTlxSortIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SntFaxTlxSortIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndFaxTlxSortFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SntFaxTlxSortFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - '&gt;&gt; 전송대상 ~' Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRLabel_Snd</t>
+  </si>
+  <si>
+    <t>TDRLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRLabel_Snt</t>
+  </si>
+  <si>
+    <t>당일송신확인 - '&gt;&gt; 당일송신확인 ~' Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - Label 있는 패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - Label 있는 패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRPanel_SndTitle</t>
+  </si>
+  <si>
+    <t>DRPanel_SntTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDRPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplaySndList(DefSelectFlag: boolean)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplaySntList(DefSelectFlag: boolean)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplaySndList(True);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 대상 전체 선택 여부 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 대상 그리드 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 전체 선택 여부 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 그리드만 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전송대상 그리드만 보기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndOnlyViewFlag</t>
+  </si>
+  <si>
+    <t>SntOnlyViewFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 / 당일송신확인 Panel 크기조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeViewType</t>
+  </si>
+  <si>
+    <t>당일송신확인 그리드 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplaySntList(True);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 미전송 체크시 전송한 내역과 전송 제외내역은 안보이게 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 부모폼 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 미전송 체크 해제시 나오는 전송 ROW는 플래그(깃발)로 찍는다. -&gt; 맨 뒤 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 경로열기 없애고, Export 할 때 폴더 다이얼로그 한번씩 연다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EmpNo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    SendType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> string;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX or E-mail or 미등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(FAX &amp; E-mail &amp; 미등록) 전송 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX 전용 필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail 전용 필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 리스트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_QueryToSndList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 리스트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_QueryToSntList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 통합 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 통합 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SntList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 리스트 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 리스트 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearSndList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearSntList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 끝나고 안쓰는 리스트 정리 할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndMailList, SndFaxList, SntMailList, SntFaxList...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6. RealThread 살펴보기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealPushgajjaFax??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.EMP_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.JOB_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.ACC_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.ACC_NAME_KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.MEDIA_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.RCV_NAME_KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E.RCV_COMP_KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E.MAIL_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.REPORT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.VIEW_FILENAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.SUBJECT_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EmpName</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U.USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONVERT(VARCHAR(8000), R.MAIL_BODY_DATA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 전송구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_TYPE_FAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_TYPE_MAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_TYPE_NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX / E-MAIL / 미등록 전송대상 한번에 쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_TYPE = FAX: F, E-mail: E, 미등록: N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 - 컬럼 정렬 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRComboBox_SndColOrder</t>
+  </si>
+  <si>
+    <t>TDRComboBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송대상 컬럼 정렬 ComboBox 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_MakeColOrdCombo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    PrdNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    BlcNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 삼품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 잔고번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 대상 컬럼 순서를 사용자가 조정할 수 있다.
+1. 생성시간 / 계좌번호
+2. 계좌번호 / 생성시간
+3. 사번 / 생성시간 / 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.PRD_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.BLC_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ErrMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.S 테이블은 사용 안할듯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2103,7 +3467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2198,21 +3562,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2271,7 +3654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2589,59 +3972,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2651,7 +3981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2892,9 +4222,66 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2958,119 +4345,83 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4543,7 +5894,7 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -4554,18 +5905,18 @@
     <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="12" customHeight="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="117" t="s">
-        <v>384</v>
-      </c>
-      <c r="J2" s="117"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="80" t="s">
+      <c r="I2" s="99" t="s">
+        <v>382</v>
+      </c>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="98" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4580,12 +5931,12 @@
       <c r="I3" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="81" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="80"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="98"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -4598,12 +5949,12 @@
       <c r="I4" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="116">
+      <c r="J4" s="81">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
+    <row r="5" spans="2:10">
+      <c r="B5" s="98"/>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
@@ -4614,14 +5965,14 @@
         <v>11</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J5" s="116" t="s">
+        <v>379</v>
+      </c>
+      <c r="J5" s="81" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="98"/>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
@@ -4632,16 +5983,16 @@
         <v>11</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J6" s="116" t="s">
+        <v>378</v>
+      </c>
+      <c r="J6" s="81" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="80"/>
+    <row r="7" spans="2:10">
+      <c r="B7" s="98"/>
       <c r="C7" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -4652,11 +6003,11 @@
       <c r="I7" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="116" t="s">
+      <c r="J7" s="81" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
@@ -4668,12 +6019,12 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>249</v>
       </c>
@@ -4681,7 +6032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -4689,7 +6040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
         <v>242</v>
       </c>
@@ -4697,17 +6048,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="B16" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
@@ -4715,49 +6066,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9">
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9">
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9">
       <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9">
       <c r="C22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9">
       <c r="C23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9">
       <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9">
       <c r="C25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9">
       <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9">
       <c r="B28" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -4767,7 +6118,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9">
       <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
@@ -4779,7 +6130,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9">
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
@@ -4791,7 +6142,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -4801,7 +6152,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9">
       <c r="B32" s="14" t="s">
         <v>25</v>
       </c>
@@ -4813,7 +6164,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9">
       <c r="B33" s="6" t="s">
         <v>26</v>
       </c>
@@ -4825,9 +6176,9 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9">
       <c r="B34" s="6"/>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="80" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="6"/>
@@ -4837,9 +6188,9 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9">
       <c r="B35" s="6"/>
-      <c r="C35" s="115"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
@@ -4847,7 +6198,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9">
       <c r="B36" s="14" t="s">
         <v>27</v>
       </c>
@@ -4859,7 +6210,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9">
       <c r="B37" s="6" t="s">
         <v>28</v>
       </c>
@@ -4871,7 +6222,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9">
       <c r="B38" s="6" t="s">
         <v>29</v>
       </c>
@@ -4883,7 +6234,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9">
       <c r="B39" s="6" t="s">
         <v>30</v>
       </c>
@@ -4895,9 +6246,9 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9">
       <c r="B40" s="6"/>
-      <c r="C40" s="115" t="s">
+      <c r="C40" s="80" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="6"/>
@@ -4907,7 +6258,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -4917,7 +6268,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9">
       <c r="B42" s="14" t="s">
         <v>31</v>
       </c>
@@ -4929,7 +6280,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9">
       <c r="B43" s="6" t="s">
         <v>32</v>
       </c>
@@ -4941,7 +6292,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9">
       <c r="B44" s="6" t="s">
         <v>33</v>
       </c>
@@ -4953,7 +6304,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9">
       <c r="B45" s="6" t="s">
         <v>34</v>
       </c>
@@ -4965,9 +6316,9 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9">
       <c r="B46" s="6"/>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="80" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="6"/>
@@ -4977,7 +6328,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -4987,9 +6338,9 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9">
       <c r="B48" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -5010,6 +6361,2388 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1">
+      <c r="A1" s="134" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="E1" s="134" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="I1" s="134" t="s">
+        <v>445</v>
+      </c>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1">
+      <c r="A2" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>442</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>442</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="89" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F8" t="s">
+        <v>468</v>
+      </c>
+      <c r="G8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F9" t="s">
+        <v>468</v>
+      </c>
+      <c r="G9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" t="s">
+        <v>466</v>
+      </c>
+      <c r="G10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E12" t="s">
+        <v>470</v>
+      </c>
+      <c r="F12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>431</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" t="s">
+        <v>438</v>
+      </c>
+      <c r="E14" t="s">
+        <v>471</v>
+      </c>
+      <c r="F14" t="s">
+        <v>472</v>
+      </c>
+      <c r="G14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" t="s">
+        <v>461</v>
+      </c>
+      <c r="E16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>460</v>
+      </c>
+      <c r="E17" t="s">
+        <v>418</v>
+      </c>
+      <c r="F17" t="s">
+        <v>427</v>
+      </c>
+      <c r="G17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" t="s">
+        <v>494</v>
+      </c>
+      <c r="E18" t="s">
+        <v>459</v>
+      </c>
+      <c r="F18" t="s">
+        <v>450</v>
+      </c>
+      <c r="G18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C19" t="s">
+        <v>464</v>
+      </c>
+      <c r="E19" t="s">
+        <v>485</v>
+      </c>
+      <c r="F19" t="s">
+        <v>467</v>
+      </c>
+      <c r="G19" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" t="s">
+        <v>462</v>
+      </c>
+      <c r="F20" t="s">
+        <v>463</v>
+      </c>
+      <c r="G20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" t="s">
+        <v>478</v>
+      </c>
+      <c r="F21" t="s">
+        <v>479</v>
+      </c>
+      <c r="G21" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E22" t="s">
+        <v>491</v>
+      </c>
+      <c r="F22" t="s">
+        <v>430</v>
+      </c>
+      <c r="G22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" t="s">
+        <v>486</v>
+      </c>
+      <c r="F23" t="s">
+        <v>479</v>
+      </c>
+      <c r="G23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" t="s">
+        <v>457</v>
+      </c>
+      <c r="E24" t="s">
+        <v>492</v>
+      </c>
+      <c r="F24" t="s">
+        <v>484</v>
+      </c>
+      <c r="G24" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C25" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" t="s">
+        <v>481</v>
+      </c>
+      <c r="F25" t="s">
+        <v>466</v>
+      </c>
+      <c r="G25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F26" t="s">
+        <v>479</v>
+      </c>
+      <c r="G26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" t="s">
+        <v>483</v>
+      </c>
+      <c r="F27" t="s">
+        <v>484</v>
+      </c>
+      <c r="G27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="89" t="s">
+        <v>622</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="E29" s="89" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M88"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="38.125" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.75" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9" style="90"/>
+    <col min="14" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" s="85" customFormat="1">
+      <c r="A2" s="95" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>536</v>
+      </c>
+      <c r="F2" s="136" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2" s="136"/>
+      <c r="H2" s="95" t="s">
+        <v>516</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="85" customFormat="1">
+      <c r="A3" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>697</v>
+      </c>
+      <c r="F3" s="135" t="s">
+        <v>554</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>620</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>579</v>
+      </c>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+    </row>
+    <row r="4" spans="1:13" s="85" customFormat="1">
+      <c r="A4" s="90" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>525</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>697</v>
+      </c>
+      <c r="F4" s="135"/>
+      <c r="G4" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>558</v>
+      </c>
+      <c r="I4" s="90" t="s">
+        <v>377</v>
+      </c>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+    </row>
+    <row r="5" spans="1:13" s="85" customFormat="1">
+      <c r="A5" s="90" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>697</v>
+      </c>
+      <c r="F5" s="135"/>
+      <c r="G5" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="90" t="s">
+        <v>568</v>
+      </c>
+      <c r="I5" s="90" t="s">
+        <v>571</v>
+      </c>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+    </row>
+    <row r="6" spans="1:13" s="85" customFormat="1">
+      <c r="A6" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="F6" s="135"/>
+      <c r="G6" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>559</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>572</v>
+      </c>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+    </row>
+    <row r="7" spans="1:13" s="85" customFormat="1">
+      <c r="A7" s="92" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="F7" s="135"/>
+      <c r="G7" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="I7" s="90" t="s">
+        <v>573</v>
+      </c>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+    </row>
+    <row r="8" spans="1:13" s="85" customFormat="1">
+      <c r="A8" s="92" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>603</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="F8" s="135"/>
+      <c r="G8" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="I8" s="90" t="s">
+        <v>574</v>
+      </c>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+    </row>
+    <row r="9" spans="1:13" s="85" customFormat="1">
+      <c r="A9" s="92" t="s">
+        <v>532</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>535</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="F9" s="135"/>
+      <c r="G9" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="90" t="s">
+        <v>562</v>
+      </c>
+      <c r="I9" s="90" t="s">
+        <v>575</v>
+      </c>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="90" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>604</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>511</v>
+      </c>
+      <c r="F10" s="135"/>
+      <c r="G10" s="90" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="90" t="s">
+        <v>563</v>
+      </c>
+      <c r="I10" s="90" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="90" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>503</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>512</v>
+      </c>
+      <c r="F11" s="135"/>
+      <c r="G11" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="90" t="s">
+        <v>564</v>
+      </c>
+      <c r="I11" s="90" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>511</v>
+      </c>
+      <c r="F12" s="135"/>
+      <c r="G12" s="90" t="s">
+        <v>555</v>
+      </c>
+      <c r="H12" s="90" t="s">
+        <v>565</v>
+      </c>
+      <c r="I12" s="90" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="90" t="s">
+        <v>519</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>512</v>
+      </c>
+      <c r="F13" s="135"/>
+      <c r="G13" s="90" t="s">
+        <v>556</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>566</v>
+      </c>
+      <c r="I13" s="90" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="90" t="s">
+        <v>520</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>513</v>
+      </c>
+      <c r="F14" s="135"/>
+      <c r="G14" s="90" t="s">
+        <v>557</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>567</v>
+      </c>
+      <c r="I14" s="90" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="135" t="s">
+        <v>521</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>605</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F15" s="129" t="s">
+        <v>583</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>582</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>620</v>
+      </c>
+      <c r="I15" s="90" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="135"/>
+      <c r="B16" s="90" t="s">
+        <v>506</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F16" s="129"/>
+      <c r="G16" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>590</v>
+      </c>
+      <c r="I16" s="90" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="135"/>
+      <c r="B17" s="90" t="s">
+        <v>606</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F17" s="129"/>
+      <c r="G17" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="90" t="s">
+        <v>591</v>
+      </c>
+      <c r="I17" s="90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="135"/>
+      <c r="B18" s="90" t="s">
+        <v>607</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F18" s="129"/>
+      <c r="G18" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>592</v>
+      </c>
+      <c r="I18" s="90" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="91" t="s">
+        <v>859</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>860</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>861</v>
+      </c>
+      <c r="D19" s="91"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="90" t="s">
+        <v>538</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>539</v>
+      </c>
+      <c r="F20" s="129"/>
+      <c r="G20" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" s="90" t="s">
+        <v>593</v>
+      </c>
+      <c r="I20" s="90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="90" t="s">
+        <v>543</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>546</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>551</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>673</v>
+      </c>
+      <c r="F21" s="129"/>
+      <c r="G21" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>594</v>
+      </c>
+      <c r="I21" s="90" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="90" t="s">
+        <v>544</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>547</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>551</v>
+      </c>
+      <c r="D22" s="90" t="s">
+        <v>673</v>
+      </c>
+      <c r="F22" s="129"/>
+      <c r="G22" s="90" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>595</v>
+      </c>
+      <c r="I22" s="90" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="90" t="s">
+        <v>545</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>548</v>
+      </c>
+      <c r="C23" s="90" t="s">
+        <v>551</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>673</v>
+      </c>
+      <c r="F23" s="129"/>
+      <c r="G23" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="90" t="s">
+        <v>596</v>
+      </c>
+      <c r="I23" s="90" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="135" t="s">
+        <v>522</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>608</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F24" s="129"/>
+      <c r="G24" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="H24" s="90" t="s">
+        <v>597</v>
+      </c>
+      <c r="I24" s="90" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="135"/>
+      <c r="B25" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F25" s="129"/>
+      <c r="G25" s="90" t="s">
+        <v>556</v>
+      </c>
+      <c r="H25" s="90" t="s">
+        <v>598</v>
+      </c>
+      <c r="I25" s="90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="135"/>
+      <c r="B26" s="90" t="s">
+        <v>609</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F26" s="129"/>
+      <c r="G26" s="90" t="s">
+        <v>587</v>
+      </c>
+      <c r="H26" s="90" t="s">
+        <v>599</v>
+      </c>
+      <c r="I26" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="135" t="s">
+        <v>523</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>610</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F27" s="129"/>
+      <c r="G27" s="90" t="s">
+        <v>588</v>
+      </c>
+      <c r="H27" s="90" t="s">
+        <v>600</v>
+      </c>
+      <c r="I27" s="90" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="135"/>
+      <c r="B28" s="90" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F28" s="129"/>
+      <c r="G28" s="90" t="s">
+        <v>589</v>
+      </c>
+      <c r="H28" s="90" t="s">
+        <v>601</v>
+      </c>
+      <c r="I28" s="90" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="135"/>
+      <c r="B29" s="90" t="s">
+        <v>509</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>704</v>
+      </c>
+      <c r="H29" s="90" t="s">
+        <v>706</v>
+      </c>
+      <c r="I29" s="90" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="90" t="s">
+        <v>541</v>
+      </c>
+      <c r="B30" s="90" t="s">
+        <v>542</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>539</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>705</v>
+      </c>
+      <c r="H30" s="90" t="s">
+        <v>708</v>
+      </c>
+      <c r="I30" s="90" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="90" t="s">
+        <v>584</v>
+      </c>
+      <c r="B31" s="90" t="s">
+        <v>585</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>551</v>
+      </c>
+      <c r="D31" s="90" t="s">
+        <v>673</v>
+      </c>
+      <c r="F31" s="129" t="s">
+        <v>847</v>
+      </c>
+      <c r="G31" s="90" t="s">
+        <v>848</v>
+      </c>
+      <c r="H31" s="90" t="s">
+        <v>851</v>
+      </c>
+      <c r="I31" s="90" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="B32" s="90" t="s">
+        <v>549</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>551</v>
+      </c>
+      <c r="D32" s="90" t="s">
+        <v>673</v>
+      </c>
+      <c r="F32" s="129"/>
+      <c r="G32" s="90" t="s">
+        <v>850</v>
+      </c>
+      <c r="H32" s="90" t="s">
+        <v>852</v>
+      </c>
+      <c r="I32" s="90" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="90" t="s">
+        <v>553</v>
+      </c>
+      <c r="B33" s="90" t="s">
+        <v>550</v>
+      </c>
+      <c r="C33" s="90" t="s">
+        <v>551</v>
+      </c>
+      <c r="D33" s="90" t="s">
+        <v>673</v>
+      </c>
+      <c r="F33" s="129"/>
+      <c r="G33" s="90" t="s">
+        <v>849</v>
+      </c>
+      <c r="H33" s="90" t="s">
+        <v>853</v>
+      </c>
+      <c r="I33" s="90" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="90" t="s">
+        <v>644</v>
+      </c>
+      <c r="B34" s="90" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="90" t="s">
+        <v>645</v>
+      </c>
+      <c r="B35" s="90" t="s">
+        <v>647</v>
+      </c>
+      <c r="C35" s="90" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="90" t="s">
+        <v>649</v>
+      </c>
+      <c r="B36" s="90" t="s">
+        <v>651</v>
+      </c>
+      <c r="C36" s="90" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="91" t="s">
+        <v>779</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>780</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>781</v>
+      </c>
+      <c r="D37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="91" t="s">
+        <v>783</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>782</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>781</v>
+      </c>
+      <c r="D38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="91" t="s">
+        <v>784</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>786</v>
+      </c>
+      <c r="C39" s="91" t="s">
+        <v>788</v>
+      </c>
+      <c r="D39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="91" t="s">
+        <v>785</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>787</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>788</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="90" t="s">
+        <v>653</v>
+      </c>
+      <c r="C41" s="90" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42" s="90" t="s">
+        <v>654</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" s="90" t="s">
+        <v>557</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>662</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" s="90" t="s">
+        <v>655</v>
+      </c>
+      <c r="C44" s="90" t="s">
+        <v>663</v>
+      </c>
+      <c r="D44" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="B45" s="90" t="s">
+        <v>656</v>
+      </c>
+      <c r="C45" s="90" t="s">
+        <v>664</v>
+      </c>
+      <c r="D45" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="B46" s="90" t="s">
+        <v>657</v>
+      </c>
+      <c r="C46" s="90" t="s">
+        <v>665</v>
+      </c>
+      <c r="D46" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="B47" s="90" t="s">
+        <v>658</v>
+      </c>
+      <c r="C47" s="90" t="s">
+        <v>666</v>
+      </c>
+      <c r="D47" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="B48" s="90" t="s">
+        <v>531</v>
+      </c>
+      <c r="C48" s="90" t="s">
+        <v>667</v>
+      </c>
+      <c r="D48" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" s="90" t="s">
+        <v>408</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>668</v>
+      </c>
+      <c r="D49" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" s="90" t="s">
+        <v>659</v>
+      </c>
+      <c r="C50" s="90" t="s">
+        <v>693</v>
+      </c>
+      <c r="D50" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="90" t="s">
+        <v>650</v>
+      </c>
+      <c r="B51" s="90" t="s">
+        <v>652</v>
+      </c>
+      <c r="C51" s="90" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="90" t="s">
+        <v>653</v>
+      </c>
+      <c r="C52" s="90" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="90" t="s">
+        <v>654</v>
+      </c>
+      <c r="C53" s="90" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="90" t="s">
+        <v>669</v>
+      </c>
+      <c r="C54" s="90" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="90" t="s">
+        <v>670</v>
+      </c>
+      <c r="C55" s="90" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="90" t="s">
+        <v>557</v>
+      </c>
+      <c r="C56" s="90" t="s">
+        <v>694</v>
+      </c>
+      <c r="D56" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="90" t="s">
+        <v>655</v>
+      </c>
+      <c r="C57" s="90" t="s">
+        <v>663</v>
+      </c>
+      <c r="D57" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="90" t="s">
+        <v>656</v>
+      </c>
+      <c r="C58" s="90" t="s">
+        <v>664</v>
+      </c>
+      <c r="D58" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" s="90" t="s">
+        <v>657</v>
+      </c>
+      <c r="C59" s="90" t="s">
+        <v>665</v>
+      </c>
+      <c r="D59" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="90" t="s">
+        <v>658</v>
+      </c>
+      <c r="C60" s="90" t="s">
+        <v>666</v>
+      </c>
+      <c r="D60" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="90" t="s">
+        <v>531</v>
+      </c>
+      <c r="C61" s="90" t="s">
+        <v>667</v>
+      </c>
+      <c r="D61" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="90" t="s">
+        <v>408</v>
+      </c>
+      <c r="C62" s="90" t="s">
+        <v>668</v>
+      </c>
+      <c r="D62" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="90" t="s">
+        <v>659</v>
+      </c>
+      <c r="C63" s="90" t="s">
+        <v>693</v>
+      </c>
+      <c r="D63" s="90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="121" t="s">
+        <v>674</v>
+      </c>
+      <c r="B66" s="121"/>
+      <c r="C66" s="121"/>
+      <c r="D66" s="121"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="88"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88" t="s">
+        <v>769</v>
+      </c>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="143" t="s">
+        <v>623</v>
+      </c>
+      <c r="B68" s="143" t="s">
+        <v>628</v>
+      </c>
+      <c r="C68" s="143" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="143" t="s">
+        <v>624</v>
+      </c>
+      <c r="B69" s="143" t="s">
+        <v>629</v>
+      </c>
+      <c r="C69" s="143" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="143" t="s">
+        <v>625</v>
+      </c>
+      <c r="B70" s="143" t="s">
+        <v>630</v>
+      </c>
+      <c r="C70" s="143" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="143" t="s">
+        <v>626</v>
+      </c>
+      <c r="B71" s="143" t="s">
+        <v>631</v>
+      </c>
+      <c r="C71" s="143" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="143" t="s">
+        <v>627</v>
+      </c>
+      <c r="B72" s="143" t="s">
+        <v>632</v>
+      </c>
+      <c r="C72" s="143" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="91" t="s">
+        <v>820</v>
+      </c>
+      <c r="B73" s="91" t="s">
+        <v>821</v>
+      </c>
+      <c r="C73" s="91" t="s">
+        <v>633</v>
+      </c>
+      <c r="D73" s="91"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="91" t="s">
+        <v>822</v>
+      </c>
+      <c r="B74" s="91" t="s">
+        <v>823</v>
+      </c>
+      <c r="C74" s="91" t="s">
+        <v>633</v>
+      </c>
+      <c r="D74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="91"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B75" s="97" t="s">
+        <v>710</v>
+      </c>
+      <c r="C75" s="90" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="90" t="s">
+        <v>712</v>
+      </c>
+      <c r="B76" s="90" t="s">
+        <v>720</v>
+      </c>
+      <c r="C76" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="90" t="s">
+        <v>725</v>
+      </c>
+      <c r="B77" s="90" t="s">
+        <v>721</v>
+      </c>
+      <c r="C77" s="90" t="s">
+        <v>714</v>
+      </c>
+      <c r="D77" s="90" t="s">
+        <v>724</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="90" t="s">
+        <v>713</v>
+      </c>
+      <c r="B78" s="90" t="s">
+        <v>722</v>
+      </c>
+      <c r="C78" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="90" t="s">
+        <v>726</v>
+      </c>
+      <c r="B79" s="90" t="s">
+        <v>723</v>
+      </c>
+      <c r="C79" s="90" t="s">
+        <v>714</v>
+      </c>
+      <c r="D79" s="90" t="s">
+        <v>727</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="90" t="s">
+        <v>715</v>
+      </c>
+      <c r="B80" s="90" t="s">
+        <v>718</v>
+      </c>
+      <c r="C80" s="90" t="s">
+        <v>711</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="90" t="s">
+        <v>717</v>
+      </c>
+      <c r="B81" s="90" t="s">
+        <v>719</v>
+      </c>
+      <c r="C81" s="90" t="s">
+        <v>711</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="90" t="s">
+        <v>728</v>
+      </c>
+      <c r="B82" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="C82" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="90" t="s">
+        <v>729</v>
+      </c>
+      <c r="B83" s="90" t="s">
+        <v>730</v>
+      </c>
+      <c r="C83" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="90" t="s">
+        <v>731</v>
+      </c>
+      <c r="B84" s="90" t="s">
+        <v>733</v>
+      </c>
+      <c r="C84" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="90" t="s">
+        <v>732</v>
+      </c>
+      <c r="B85" s="90" t="s">
+        <v>734</v>
+      </c>
+      <c r="C85" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="90" t="s">
+        <v>757</v>
+      </c>
+      <c r="B86" s="91" t="s">
+        <v>758</v>
+      </c>
+      <c r="C86" s="90" t="s">
+        <v>759</v>
+      </c>
+      <c r="D86" s="90" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="90" t="s">
+        <v>796</v>
+      </c>
+      <c r="B87" s="91" t="s">
+        <v>797</v>
+      </c>
+      <c r="C87" s="90" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="90" t="s">
+        <v>795</v>
+      </c>
+      <c r="B88" s="90" t="s">
+        <v>798</v>
+      </c>
+      <c r="C88" s="91" t="s">
+        <v>799</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="F15:F28"/>
+    <mergeCell ref="F31:F33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" s="86" customFormat="1">
+      <c r="A2" s="94" t="s">
+        <v>611</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C7" t="s">
+        <v>641</v>
+      </c>
+      <c r="E7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E9" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>824</v>
+      </c>
+      <c r="B10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" t="s">
+        <v>826</v>
+      </c>
+      <c r="E10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>825</v>
+      </c>
+      <c r="B11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" t="s">
+        <v>827</v>
+      </c>
+      <c r="E11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B12" t="s">
+        <v>699</v>
+      </c>
+      <c r="C12" t="s">
+        <v>702</v>
+      </c>
+      <c r="D12" t="s">
+        <v>701</v>
+      </c>
+      <c r="E12" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>700</v>
+      </c>
+      <c r="B13" t="s">
+        <v>699</v>
+      </c>
+      <c r="C13" t="s">
+        <v>703</v>
+      </c>
+      <c r="D13" t="s">
+        <v>701</v>
+      </c>
+      <c r="E13" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>862</v>
+      </c>
+      <c r="B14" t="s">
+        <v>863</v>
+      </c>
+      <c r="C14" t="s">
+        <v>864</v>
+      </c>
+      <c r="D14" t="s">
+        <v>701</v>
+      </c>
+      <c r="E14" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="141" t="s">
+        <v>738</v>
+      </c>
+      <c r="B15" s="142" t="s">
+        <v>699</v>
+      </c>
+      <c r="C15" s="142" t="s">
+        <v>735</v>
+      </c>
+      <c r="D15" s="142" t="s">
+        <v>701</v>
+      </c>
+      <c r="E15" s="142" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="142" t="s">
+        <v>739</v>
+      </c>
+      <c r="B16" s="142" t="s">
+        <v>699</v>
+      </c>
+      <c r="C16" s="142" t="s">
+        <v>753</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>701</v>
+      </c>
+      <c r="E16" s="142" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="142" t="s">
+        <v>742</v>
+      </c>
+      <c r="B17" s="142" t="s">
+        <v>699</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>736</v>
+      </c>
+      <c r="D17" s="142" t="s">
+        <v>701</v>
+      </c>
+      <c r="E17" s="142" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="141" t="s">
+        <v>741</v>
+      </c>
+      <c r="B18" s="142" t="s">
+        <v>699</v>
+      </c>
+      <c r="C18" s="142" t="s">
+        <v>737</v>
+      </c>
+      <c r="D18" s="142" t="s">
+        <v>701</v>
+      </c>
+      <c r="E18" s="142" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="142" t="s">
+        <v>740</v>
+      </c>
+      <c r="B19" s="142" t="s">
+        <v>699</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>752</v>
+      </c>
+      <c r="D19" s="142" t="s">
+        <v>701</v>
+      </c>
+      <c r="E19" s="142" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="96" t="s">
+        <v>815</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>816</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>817</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>701</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>818</v>
+      </c>
+      <c r="B21" t="s">
+        <v>699</v>
+      </c>
+      <c r="C21" t="s">
+        <v>819</v>
+      </c>
+      <c r="D21" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>764</v>
+      </c>
+      <c r="B22" t="s">
+        <v>765</v>
+      </c>
+      <c r="C22" t="s">
+        <v>789</v>
+      </c>
+      <c r="E22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>766</v>
+      </c>
+      <c r="B23" t="s">
+        <v>765</v>
+      </c>
+      <c r="C23" t="s">
+        <v>790</v>
+      </c>
+      <c r="E23" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>800</v>
+      </c>
+      <c r="B24" t="s">
+        <v>765</v>
+      </c>
+      <c r="C24" t="s">
+        <v>801</v>
+      </c>
+      <c r="E24" t="s">
+        <v>745</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
@@ -5018,7 +8751,7 @@
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
@@ -5026,12 +8759,12 @@
     <col min="15" max="15" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="O1" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -5039,19 +8772,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -5059,12 +8792,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="O6" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="3" customFormat="1">
       <c r="A7" s="24" t="s">
         <v>47</v>
       </c>
@@ -5072,7 +8805,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="25" t="s">
         <v>48</v>
       </c>
@@ -5080,7 +8813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -5088,13 +8821,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="25"/>
       <c r="O10" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="3" customFormat="1">
       <c r="A11" s="24" t="s">
         <v>50</v>
       </c>
@@ -5102,7 +8835,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="25" t="s">
         <v>51</v>
       </c>
@@ -5110,7 +8843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="25" t="s">
         <v>52</v>
       </c>
@@ -5118,12 +8851,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="O14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="11" t="s">
         <v>53</v>
       </c>
@@ -5131,7 +8864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>54</v>
       </c>
@@ -5139,7 +8872,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
@@ -5147,7 +8880,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="11" t="s">
         <v>56</v>
       </c>
@@ -5155,7 +8888,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="11" t="s">
         <v>57</v>
       </c>
@@ -5163,7 +8896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -5171,12 +8904,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="O21" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -5184,7 +8917,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -5192,7 +8925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -5200,7 +8933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -5208,7 +8941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" s="14" t="s">
         <v>109</v>
       </c>
@@ -5224,7 +8957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -5240,7 +8973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
@@ -5256,7 +8989,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" s="6" t="s">
         <v>110</v>
       </c>
@@ -5272,7 +9005,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="6" t="s">
         <v>113</v>
       </c>
@@ -5288,7 +9021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="6" t="s">
         <v>114</v>
       </c>
@@ -5304,7 +9037,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" s="6" t="s">
         <v>115</v>
       </c>
@@ -5320,7 +9053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" s="6" t="s">
         <v>117</v>
       </c>
@@ -5336,7 +9069,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" s="6" t="s">
         <v>116</v>
       </c>
@@ -5352,7 +9085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" s="15" t="s">
         <v>118</v>
       </c>
@@ -5360,7 +9093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" s="15" t="s">
         <v>119</v>
       </c>
@@ -5368,13 +9101,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="O37" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" s="15" t="s">
         <v>137</v>
       </c>
@@ -5382,32 +9115,32 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" s="15"/>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
       <c r="O39" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="81" t="s">
+    <row r="40" spans="1:15">
+      <c r="B40" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="83"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="102"/>
       <c r="O40" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="B41" s="16" t="s">
         <v>121</v>
       </c>
@@ -5427,7 +9160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="B42" s="18" t="s">
         <v>122</v>
       </c>
@@ -5445,7 +9178,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="B43" s="18" t="s">
         <v>122</v>
       </c>
@@ -5463,7 +9196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="B44" s="18" t="s">
         <v>122</v>
       </c>
@@ -5481,7 +9214,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="B45" s="18" t="s">
         <v>147</v>
       </c>
@@ -5501,7 +9234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="B46" s="21" t="s">
         <v>122</v>
       </c>
@@ -5521,22 +9254,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="O47" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="84" t="s">
+    <row r="48" spans="1:15">
+      <c r="B48" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="84"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="33"/>
       <c r="O48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="B49" s="29" t="s">
         <v>130</v>
       </c>
@@ -5545,7 +9278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14">
       <c r="B50" s="28" t="s">
         <v>138</v>
       </c>
@@ -5553,7 +9286,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14">
       <c r="B51" s="28" t="s">
         <v>151</v>
       </c>
@@ -5561,7 +9294,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14">
       <c r="B52" s="28" t="s">
         <v>152</v>
       </c>
@@ -5569,7 +9302,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="B53" s="27" t="s">
         <v>141</v>
       </c>
@@ -5577,7 +9310,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="B54" s="28" t="s">
         <v>139</v>
       </c>
@@ -5585,33 +9318,33 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="B55" s="30" t="s">
         <v>136</v>
       </c>
       <c r="C55" s="28"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="A59" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -5636,7 +9369,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" style="34" customWidth="1"/>
     <col min="2" max="3" width="17.625" style="34" customWidth="1"/>
@@ -5646,17 +9379,17 @@
     <col min="7" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+    <row r="1" spans="2:7" ht="9" customHeight="1"/>
+    <row r="2" spans="2:7">
+      <c r="B2" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="37" t="s">
         <v>158</v>
       </c>
@@ -5673,8 +9406,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="97" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="116" t="s">
         <v>169</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -5688,9 +9421,9 @@
       </c>
       <c r="F4" s="53"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
-      <c r="C5" s="100" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="117"/>
+      <c r="C5" s="119" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="42" t="s">
@@ -5699,16 +9432,16 @@
       <c r="E5" s="42"/>
       <c r="F5" s="53"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="101"/>
+    <row r="6" spans="2:7">
+      <c r="B6" s="118"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="42" t="s">
         <v>156</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="53"/>
     </row>
-    <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="33">
       <c r="B7" s="40" t="s">
         <v>168</v>
       </c>
@@ -5721,7 +9454,7 @@
       <c r="E7" s="42"/>
       <c r="F7" s="53"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" s="43" t="s">
         <v>165</v>
       </c>
@@ -5734,20 +9467,20 @@
       <c r="E8" s="44"/>
       <c r="F8" s="48"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="90" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="86" t="s">
+      <c r="C10" s="110"/>
+      <c r="D10" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="106"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="38" t="s">
         <v>170</v>
       </c>
@@ -5758,8 +9491,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="88" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12" s="107" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="46" t="s">
@@ -5775,8 +9508,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="88"/>
+    <row r="13" spans="2:7">
+      <c r="B13" s="107"/>
       <c r="C13" s="46" t="s">
         <v>172</v>
       </c>
@@ -5793,8 +9526,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="89"/>
+    <row r="14" spans="2:7">
+      <c r="B14" s="108"/>
       <c r="C14" s="47" t="s">
         <v>171</v>
       </c>
@@ -5808,40 +9541,40 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16" s="52" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="52" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="52" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="52"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="52" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="52" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="52" t="s">
         <v>183</v>
       </c>
@@ -5869,68 +9602,68 @@
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4">
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4">
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4">
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4">
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4">
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
@@ -5950,79 +9683,79 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>204</v>
       </c>
@@ -6045,7 +9778,7 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6062,7 +9795,7 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="79"/>
     <col min="2" max="2" width="9.25" style="63" bestFit="1" customWidth="1"/>
@@ -6089,29 +9822,29 @@
     <col min="23" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="114"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="124"/>
       <c r="K1" s="67"/>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="121" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="108"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="67"/>
-      <c r="O1" s="108" t="s">
+      <c r="O1" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="108"/>
+      <c r="P1" s="121"/>
       <c r="Q1" s="35"/>
       <c r="R1" s="68"/>
       <c r="S1" s="68"/>
@@ -6120,9 +9853,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="36" customFormat="1">
       <c r="A2" s="79" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>208</v>
@@ -6165,20 +9898,20 @@
       <c r="P2" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" s="108" t="s">
+      <c r="Q2" s="121" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="109"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="127"/>
       <c r="U2" s="60"/>
       <c r="V2" s="59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="79" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B3" s="63">
         <v>975001</v>
@@ -6187,7 +9920,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E3" s="64" t="s">
         <v>221</v>
@@ -6210,31 +9943,31 @@
       <c r="M3" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="106" t="s">
-        <v>258</v>
-      </c>
-      <c r="P3" s="107" t="s">
+      <c r="O3" s="132" t="s">
+        <v>256</v>
+      </c>
+      <c r="P3" s="133" t="s">
         <v>221</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R3" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="T3" t="s">
         <v>275</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="T3" t="s">
-        <v>277</v>
       </c>
       <c r="V3" s="34" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I4" s="65" t="s">
         <v>234</v>
@@ -6243,29 +9976,29 @@
         <v>975023</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
+        <v>254</v>
+      </c>
+      <c r="O4" s="132"/>
+      <c r="P4" s="133"/>
       <c r="Q4" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R4" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="T4" t="s">
         <v>278</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="T4" t="s">
-        <v>280</v>
       </c>
       <c r="V4" s="34" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="79" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F5" s="63" t="s">
         <v>228</v>
@@ -6285,27 +10018,27 @@
       <c r="M5" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="O5" s="106"/>
-      <c r="P5" s="107"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="133"/>
       <c r="Q5" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="V5" s="34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="79" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I6" s="65" t="s">
         <v>234</v>
@@ -6314,16 +10047,16 @@
         <v>226</v>
       </c>
       <c r="M6" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="O6" s="125" t="s">
         <v>257</v>
       </c>
-      <c r="O6" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="P6" s="103" t="s">
-        <v>266</v>
+      <c r="P6" s="126" t="s">
+        <v>264</v>
       </c>
       <c r="Q6" s="71" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R6" s="72"/>
       <c r="S6" s="71"/>
@@ -6332,9 +10065,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" s="79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F7" s="63" t="s">
         <v>230</v>
@@ -6348,10 +10081,10 @@
       <c r="I7" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="103"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="126"/>
       <c r="Q7" s="71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R7" s="72"/>
       <c r="S7" s="71"/>
@@ -6360,21 +10093,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="79" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I8" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="P8" s="103" t="s">
-        <v>265</v>
+      <c r="O8" s="125" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="126" t="s">
+        <v>263</v>
       </c>
       <c r="Q8" s="71" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R8" s="72"/>
       <c r="S8" s="71"/>
@@ -6383,120 +10116,120 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="79" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F9" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="G9" s="65" t="s">
-        <v>294</v>
-      </c>
       <c r="H9" s="73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I9" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="103"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="126"/>
       <c r="Q9" s="71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R9" s="72"/>
       <c r="S9" s="71"/>
       <c r="T9" s="72"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="79" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H10" s="77"/>
       <c r="I10" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="O10" s="110" t="s">
-        <v>269</v>
-      </c>
-      <c r="P10" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="O10" s="128" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="129" t="s">
         <v>241</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R10" s="34" t="s">
         <v>206</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="T10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="79" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I11" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O11" s="110"/>
-      <c r="P11" s="105"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="129"/>
       <c r="Q11" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T11" s="34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="79" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I12" s="65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O12" s="69"/>
       <c r="P12" s="70"/>
       <c r="Q12" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T12" s="34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>230</v>
@@ -6510,116 +10243,116 @@
       <c r="I13" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O13" s="104" t="s">
+      <c r="O13" s="131" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" s="129" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="T13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="79" t="s">
+        <v>351</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="O14" s="131"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="P13" s="105" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="R13" s="34" t="s">
+      <c r="R14" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="T14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="79" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="O15" s="131"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="R15" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="S13" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="T13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+      <c r="S15" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="T15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="O14" s="104"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="T14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
-        <v>354</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="H15" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>299</v>
-      </c>
-      <c r="O15" s="104"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="36" t="s">
+      <c r="F16" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="R15" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="T15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="s">
-        <v>355</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>285</v>
-      </c>
       <c r="H16" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="I16" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="O16" s="111" t="s">
-        <v>261</v>
-      </c>
-      <c r="P16" s="103" t="s">
+      <c r="O16" s="125" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" s="126" t="s">
         <v>241</v>
       </c>
       <c r="Q16" s="71" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R16" s="72"/>
       <c r="S16" s="71"/>
       <c r="T16" s="72"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" s="79" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F17" s="63" t="s">
         <v>230</v>
@@ -6631,442 +10364,432 @@
         <v>239</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>301</v>
-      </c>
-      <c r="O17" s="111"/>
-      <c r="P17" s="103"/>
+        <v>299</v>
+      </c>
+      <c r="O17" s="125"/>
+      <c r="P17" s="126"/>
       <c r="Q17" s="71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R17" s="72"/>
       <c r="S17" s="71"/>
       <c r="T17" s="72"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20">
       <c r="A18" s="79" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B18" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="E18" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="64" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="64" t="s">
+      <c r="F18" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="F18" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>307</v>
-      </c>
       <c r="H18" s="77" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I18" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="O18" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="O18" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="P18" s="126" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q18" s="71" t="s">
         <v>270</v>
-      </c>
-      <c r="P18" s="103" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q18" s="71" t="s">
-        <v>272</v>
       </c>
       <c r="R18" s="72"/>
       <c r="S18" s="71"/>
       <c r="T18" s="72"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" s="79" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F19" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="77" t="s">
         <v>306</v>
       </c>
-      <c r="G19" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>308</v>
-      </c>
       <c r="I19" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="O19" s="102"/>
-      <c r="P19" s="103"/>
+        <v>298</v>
+      </c>
+      <c r="O19" s="130"/>
+      <c r="P19" s="126"/>
       <c r="Q19" s="71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R19" s="72"/>
       <c r="S19" s="71"/>
       <c r="T19" s="72"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" s="79" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B20" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="E20" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="D20" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="H20" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="I20" s="65" t="s">
-        <v>312</v>
-      </c>
       <c r="O20" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T20" s="34" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H21" s="78"/>
       <c r="I21" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="S23" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="T23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="Q21" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="R21" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="S21" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="T21" s="34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
-        <v>361</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="G22" s="65" t="s">
+      <c r="C24" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="H22" s="77" t="s">
-        <v>308</v>
-      </c>
-      <c r="I22" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q22" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="R22" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="S22" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="T22" s="34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="79" t="s">
+      <c r="D24" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="T24" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="79" t="s">
         <v>362</v>
-      </c>
-      <c r="I23" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="R23" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="S23" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="T23" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>318</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="G24" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="I24" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="R24" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="S24" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="T24" s="34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="79" t="s">
-        <v>364</v>
       </c>
       <c r="H25" s="78"/>
       <c r="I25" s="65" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="79" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H26" s="78"/>
       <c r="I26" s="65" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="G27" s="65" t="s">
+      <c r="I29" s="65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="H27" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="I27" s="65" t="s">
+      <c r="I30" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="79" t="s">
+        <v>368</v>
+      </c>
+      <c r="I31" s="65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="79" t="s">
+        <v>369</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="79" t="s">
+        <v>370</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" s="65" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="79" t="s">
-        <v>367</v>
-      </c>
-      <c r="I28" s="65" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="79" t="s">
-        <v>368</v>
-      </c>
-      <c r="I29" s="65" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="79" t="s">
-        <v>369</v>
-      </c>
-      <c r="G30" s="65" t="s">
+      <c r="H33" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="I33" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="H30" s="74" t="s">
-        <v>322</v>
-      </c>
-      <c r="I30" s="65" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
-        <v>370</v>
-      </c>
-      <c r="I31" s="65" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="79" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="79" t="s">
         <v>371</v>
       </c>
-      <c r="I32" s="65" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
+      <c r="I34" s="65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="79" t="s">
         <v>372</v>
       </c>
-      <c r="F33" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="H33" s="77" t="s">
+      <c r="I35" s="65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="79" t="s">
+        <v>373</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="E36" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="I33" s="65" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="79" t="s">
-        <v>373</v>
-      </c>
-      <c r="I34" s="65" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
+      <c r="F36" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H36" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="I36" s="65" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="79" t="s">
         <v>374</v>
       </c>
-      <c r="I35" s="65" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="79" t="s">
+      <c r="B37" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="H37" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="I37" s="65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="79" t="s">
         <v>375</v>
       </c>
-      <c r="D36" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="E36" s="64" t="s">
-        <v>328</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="G36" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="H36" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I36" s="65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="79" t="s">
-        <v>376</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="E37" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="F37" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="G37" s="65" t="s">
+      <c r="I38" s="65" t="s">
         <v>340</v>
-      </c>
-      <c r="H37" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="I37" s="65" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="79" t="s">
-        <v>377</v>
-      </c>
-      <c r="I38" s="65" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="O13:O15"/>
@@ -7075,6 +10798,16 @@
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7087,561 +10820,509 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M63"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="34.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.125" customWidth="1"/>
-    <col min="5" max="5" width="47.125" customWidth="1"/>
-    <col min="6" max="6" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="52.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="33">
       <c r="B1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2" s="93"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="144" t="s">
+        <v>828</v>
+      </c>
+      <c r="C5" s="145" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="144" t="s">
+        <v>830</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="86" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A8"/>
+      <c r="B8" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="84" t="s">
         <v>388</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="E8" s="84" t="s">
         <v>389</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="F8" s="84" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="G8" s="84" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H8" s="84" t="s">
         <v>392</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="I8" s="84" t="s">
         <v>393</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="J8" s="84" t="s">
         <v>394</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="K8" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="L8" s="84" t="s">
         <v>396</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="M8" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="L4" s="14" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>675</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1">
+      <c r="C12" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="3" customFormat="1">
+      <c r="C17" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" s="3" customFormat="1">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>688</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" s="3" customFormat="1">
+      <c r="D19" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>689</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" s="11" customFormat="1">
+      <c r="C20" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="E20" s="57"/>
+    </row>
+    <row r="21" spans="2:6" s="11" customFormat="1">
+      <c r="D21" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="E21" s="57"/>
+    </row>
+    <row r="22" spans="2:6" s="11" customFormat="1">
+      <c r="C22" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="2:6" s="11" customFormat="1">
+      <c r="D23" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="E23" s="57"/>
+    </row>
+    <row r="24" spans="2:6" s="11" customFormat="1">
+      <c r="D24" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="E24" s="57"/>
+    </row>
+    <row r="25" spans="2:6" s="11" customFormat="1">
+      <c r="B25" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="C26" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="M4" s="14" t="s">
+    </row>
+    <row r="27" spans="2:6">
+      <c r="D27" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="D28" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="2:6" ht="33">
+      <c r="E29" t="s">
+        <v>702</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="D30" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="D31" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="33">
+      <c r="E32" t="s">
+        <v>703</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="E33" s="57"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="D34" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="E35" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="E36" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="E37" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="E38" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="66">
+      <c r="E39" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="F39" s="146" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="D40" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="E41" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="E42" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="E43" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="E44" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="D45" s="87" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="138" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="123" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="122" t="s">
-        <v>436</v>
-      </c>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-    </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="126" t="s">
-        <v>400</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-    </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="128"/>
-      <c r="C7" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-    </row>
-    <row r="8" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="128"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="129" t="s">
-        <v>430</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-    </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="128"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-    </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="128"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="130" t="s">
-        <v>428</v>
-      </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-    </row>
-    <row r="11" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="128"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="131" t="s">
-        <v>429</v>
-      </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-    </row>
-    <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="128"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-    </row>
-    <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="128"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="130" t="s">
-        <v>428</v>
-      </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-    </row>
-    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="128"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="127" t="s">
-        <v>424</v>
-      </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-    </row>
-    <row r="15" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="132"/>
-      <c r="C15" s="129" t="s">
-        <v>422</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-    </row>
-    <row r="16" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="132"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129" t="s">
-        <v>431</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-    </row>
-    <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="132"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="132"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="130" t="s">
-        <v>428</v>
-      </c>
-      <c r="G18" s="122"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-    </row>
-    <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="132"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="127" t="s">
-        <v>435</v>
-      </c>
-      <c r="G19" s="122"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-    </row>
-    <row r="20" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="132"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="F20" s="127"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-    </row>
-    <row r="21" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="132"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="130" t="s">
-        <v>428</v>
-      </c>
-      <c r="G21" s="122"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-    </row>
-    <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="132"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="127" t="s">
-        <v>434</v>
-      </c>
-      <c r="G22" s="122"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-    </row>
-    <row r="23" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="133"/>
-      <c r="C23" s="136" t="s">
-        <v>403</v>
-      </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-    </row>
-    <row r="24" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="D30" s="11"/>
-      <c r="E30" s="57" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="D31" s="11"/>
-      <c r="E31" s="118" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="11"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="11"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E38" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="E40" s="119" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E41" s="119" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E43" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="E45" s="119" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E46" s="119" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E48" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F49" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E50" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F51" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E53" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F54" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E55" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F56" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="120" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E59" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>410</v>
-      </c>
+      <c r="C46" s="11"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="137"/>
+      <c r="C47" t="s">
+        <v>675</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="137"/>
+      <c r="C48" t="s">
+        <v>747</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="137"/>
+      <c r="C49" t="s">
+        <v>675</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="87" t="s">
+        <v>748</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="2:5" ht="33">
+      <c r="C51" s="57" t="s">
+        <v>749</v>
+      </c>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="C52" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="2:5" ht="49.5">
+      <c r="C53" s="11"/>
+      <c r="D53" s="57" t="s">
+        <v>754</v>
+      </c>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="C54" s="11"/>
+      <c r="D54" s="57" t="s">
+        <v>792</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="C55" s="11"/>
+      <c r="D55" s="57" t="s">
+        <v>793</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="C56" s="11"/>
+      <c r="D56" s="57"/>
+      <c r="E56" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="C57" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="2:5" ht="33">
+      <c r="C58" s="11"/>
+      <c r="D58" s="57" t="s">
+        <v>756</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="C59" s="11"/>
+      <c r="D59" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="137"/>
+      <c r="D60" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="137"/>
+      <c r="E61" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="139" t="s">
+        <v>817</v>
+      </c>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="139"/>
+      <c r="C63" t="s">
+        <v>857</v>
+      </c>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="139"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="139" t="s">
+        <v>819</v>
+      </c>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="139"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="140"/>
+      <c r="C67" s="96"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="140"/>
+      <c r="C68" s="96"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="11"/>
+      <c r="C69" s="96"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="11"/>
+      <c r="C70" s="96"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="87" t="s">
+        <v>501</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="96"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="C73" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G5:G23"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7649,580 +11330,500 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
-        <v>470</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="E1" s="138" t="s">
-        <v>474</v>
-      </c>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="I1" s="138" t="s">
-        <v>475</v>
-      </c>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="139" t="s">
-        <v>473</v>
-      </c>
-      <c r="B2" s="139" t="s">
-        <v>471</v>
-      </c>
-      <c r="C2" s="139" t="s">
-        <v>472</v>
-      </c>
-      <c r="E2" s="139" t="s">
-        <v>473</v>
-      </c>
-      <c r="F2" s="139" t="s">
-        <v>471</v>
-      </c>
-      <c r="G2" s="139" t="s">
-        <v>472</v>
-      </c>
-      <c r="I2" s="139" t="s">
-        <v>473</v>
-      </c>
-      <c r="J2" s="139" t="s">
-        <v>471</v>
-      </c>
-      <c r="K2" s="139" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F4" t="s">
-        <v>481</v>
-      </c>
-      <c r="G4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1">
+      <c r="A1" s="134" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1">
+      <c r="A2" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="89" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="96" customFormat="1">
+      <c r="A4" s="96" t="s">
+        <v>809</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>810</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>811</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>483</v>
+        <v>808</v>
       </c>
       <c r="B5" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="F5" t="s">
-        <v>481</v>
-      </c>
-      <c r="G5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>442</v>
+        <v>451</v>
+      </c>
+      <c r="E5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>810</v>
       </c>
       <c r="C6" t="s">
-        <v>478</v>
+        <v>844</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>485</v>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>486</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="F7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="E7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="E8" t="s">
-        <v>524</v>
-      </c>
-      <c r="F8" t="s">
-        <v>499</v>
-      </c>
-      <c r="G8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>443</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>865</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C9" t="s">
-        <v>479</v>
+        <v>427</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>867</v>
       </c>
       <c r="E9" t="s">
-        <v>500</v>
-      </c>
-      <c r="F9" t="s">
-        <v>499</v>
-      </c>
-      <c r="G9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>444</v>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>866</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" t="s">
-        <v>519</v>
+        <v>427</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>868</v>
       </c>
       <c r="E10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F10" t="s">
-        <v>497</v>
-      </c>
-      <c r="G10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>445</v>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="C11" t="s">
-        <v>518</v>
+        <v>455</v>
       </c>
       <c r="E11" t="s">
-        <v>445</v>
-      </c>
-      <c r="F11" t="s">
-        <v>497</v>
-      </c>
-      <c r="G11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>446</v>
       </c>
       <c r="B12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" t="s">
+        <v>813</v>
+      </c>
+      <c r="E12" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" t="s">
+        <v>813</v>
+      </c>
+      <c r="E13" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14" t="s">
+        <v>468</v>
+      </c>
+      <c r="C14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E14" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D15" t="s">
+        <v>814</v>
+      </c>
+      <c r="E15" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" t="s">
+        <v>488</v>
+      </c>
+      <c r="E16" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" t="s">
+        <v>487</v>
+      </c>
+      <c r="E17" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" t="s">
+        <v>473</v>
+      </c>
+      <c r="D20" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C21" t="s">
+        <v>475</v>
+      </c>
+      <c r="D21" t="s">
+        <v>814</v>
+      </c>
+      <c r="E21" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>476</v>
+      </c>
+      <c r="B22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C22" t="s">
+        <v>477</v>
+      </c>
+      <c r="D22" t="s">
+        <v>814</v>
+      </c>
+      <c r="E22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>425</v>
+      </c>
+      <c r="B23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D23" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>426</v>
+      </c>
+      <c r="B24" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D24" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>459</v>
+      </c>
+      <c r="B26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>419</v>
+      </c>
+      <c r="B27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>462</v>
+      </c>
+      <c r="B28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>420</v>
+      </c>
+      <c r="B29" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" t="s">
+        <v>430</v>
+      </c>
+      <c r="C30" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B31" t="s">
+        <v>479</v>
+      </c>
+      <c r="C31" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B32" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>872</v>
+      </c>
+      <c r="B33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C33" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C34" t="s">
         <v>458</v>
       </c>
-      <c r="C12" t="s">
-        <v>459</v>
-      </c>
-      <c r="E12" t="s">
-        <v>501</v>
-      </c>
-      <c r="F12" t="s">
-        <v>499</v>
-      </c>
-      <c r="G12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" s="121" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="121" t="s">
-        <v>461</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>447</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>460</v>
-      </c>
-      <c r="G13" s="121" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B14" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14" t="s">
-        <v>468</v>
-      </c>
-      <c r="E14" t="s">
-        <v>502</v>
-      </c>
-      <c r="F14" t="s">
-        <v>503</v>
-      </c>
-      <c r="G14" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C15" t="s">
-        <v>469</v>
-      </c>
-      <c r="E15" t="s">
-        <v>505</v>
-      </c>
-      <c r="F15" t="s">
-        <v>497</v>
-      </c>
-      <c r="G15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B16" t="s">
-        <v>457</v>
-      </c>
-      <c r="C16" t="s">
-        <v>492</v>
-      </c>
-      <c r="E16" t="s">
-        <v>507</v>
-      </c>
-      <c r="F16" t="s">
-        <v>497</v>
-      </c>
-      <c r="G16" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>490</v>
-      </c>
-      <c r="B17" t="s">
-        <v>481</v>
-      </c>
-      <c r="C17" t="s">
-        <v>491</v>
-      </c>
-      <c r="E17" t="s">
-        <v>448</v>
-      </c>
-      <c r="F17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G17" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>449</v>
-      </c>
-      <c r="B18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C18" t="s">
-        <v>525</v>
-      </c>
-      <c r="E18" t="s">
-        <v>490</v>
-      </c>
-      <c r="F18" t="s">
-        <v>481</v>
-      </c>
-      <c r="G18" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>493</v>
-      </c>
-      <c r="B19" t="s">
-        <v>494</v>
-      </c>
-      <c r="C19" t="s">
-        <v>495</v>
-      </c>
-      <c r="E19" t="s">
-        <v>516</v>
-      </c>
-      <c r="F19" t="s">
-        <v>498</v>
-      </c>
-      <c r="G19" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>450</v>
-      </c>
-      <c r="B20" t="s">
-        <v>460</v>
-      </c>
-      <c r="C20" t="s">
-        <v>462</v>
-      </c>
-      <c r="E20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F20" t="s">
-        <v>494</v>
-      </c>
-      <c r="G20" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>451</v>
-      </c>
-      <c r="B21" t="s">
-        <v>460</v>
-      </c>
-      <c r="C21" t="s">
-        <v>521</v>
-      </c>
-      <c r="E21" t="s">
-        <v>509</v>
-      </c>
-      <c r="F21" t="s">
-        <v>510</v>
-      </c>
-      <c r="G21" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>517</v>
-      </c>
-      <c r="B22" t="s">
-        <v>510</v>
-      </c>
-      <c r="C22" t="s">
-        <v>511</v>
-      </c>
-      <c r="E22" t="s">
-        <v>522</v>
-      </c>
-      <c r="F22" t="s">
-        <v>460</v>
-      </c>
-      <c r="G22" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>496</v>
-      </c>
-      <c r="B23" t="s">
-        <v>463</v>
-      </c>
-      <c r="C23" t="s">
-        <v>487</v>
-      </c>
-      <c r="E23" t="s">
-        <v>517</v>
-      </c>
-      <c r="F23" t="s">
-        <v>510</v>
-      </c>
-      <c r="G23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>452</v>
-      </c>
-      <c r="B24" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" t="s">
-        <v>488</v>
-      </c>
-      <c r="E24" t="s">
-        <v>523</v>
-      </c>
-      <c r="F24" t="s">
-        <v>515</v>
-      </c>
-      <c r="G24" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" t="s">
-        <v>460</v>
-      </c>
-      <c r="C25" t="s">
-        <v>489</v>
-      </c>
-      <c r="E25" t="s">
-        <v>512</v>
-      </c>
-      <c r="F25" t="s">
-        <v>497</v>
-      </c>
-      <c r="G25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>454</v>
-      </c>
-      <c r="B26" t="s">
-        <v>463</v>
-      </c>
-      <c r="C26" t="s">
-        <v>467</v>
-      </c>
-      <c r="E26" t="s">
-        <v>513</v>
-      </c>
-      <c r="F26" t="s">
-        <v>510</v>
-      </c>
-      <c r="G26" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E27" t="s">
-        <v>514</v>
-      </c>
-      <c r="F27" t="s">
-        <v>515</v>
-      </c>
-      <c r="G27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E29" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="89" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/한투_금상_작업중.xlsx
+++ b/한투_금상_작업중.xlsx
@@ -7408,7 +7408,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A42"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/한투_금상_작업중.xlsx
+++ b/한투_금상_작업중.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1. Client" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1184">
   <si>
     <t xml:space="preserve"> - SCCMainForm - FormCreate - gvMenuList(MenuItem)에 SUMENU_TBL의 메뉴 리스트를 집어 넣는다.(EXCEPT_DEPT_CODE 만 제외하고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3173,10 +3173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M.EMP_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M.JOB_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3274,18 +3270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAX / E-MAIL / 미등록 전송대상 한번에 쿼리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3534,10 +3518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Table 확인하고 쿼리 들어가자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>당일송신확인 구조체 만들어야 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3706,11 +3686,6 @@
   </si>
   <si>
     <t>각 컬럼의 데이터 출력하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿼리에 조건절 달아 놨는데,
-DRMaskEdit_Time.Text 어떻게 찍히는지 봐야 됨.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3898,14 +3873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전송(묶음)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3959,22 +3926,6 @@
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopupSndClick - TAG: 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopupSndClick - TAG: 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopupSndClick - TAG: 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopupSndClick - TAG: 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4049,14 +4000,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendEMail 함수 호출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fn_SendEMail</t>
   </si>
   <si>
@@ -4174,14 +4117,6 @@
   </si>
   <si>
     <t xml:space="preserve">    ReturnMailAddr </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> TSndMailFormat = record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  pTSndMailFormat  = ^TSndMailFormat ;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4384,6 +4319,351 @@
   </si>
   <si>
     <t>FAX 전용 필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - E-mail 전송 후 리스트에 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 그리드 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplaySntList 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 전송상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_PRC_SEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_PRC_CANC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_PRC_FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_PRC_BUSY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waiting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_PRC_WAIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT_PRC_SENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplaySntItem 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 / FAX / E-mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 / 진행중 / 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HINTCELL 주기 (사번, 수신처명, 수신처, 보고서서식, Process)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 Item과 사번, 생성시간, 계좌번호, 전송구분, 수신처가 동일 하면 
+해당 정보는 그리드의 노출 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 Row데이터 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_GetSntListIdx(pGridRowIdx: Integer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gcFAXTLX_RSPF_WAIT  = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcFAXTLX_RSPF_SEND  = 1; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcFAXTLX_RSPF_BUSY  = 2; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcFAXTLX_RSPF_CANC  = 3; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcFAXTLX_RSPF_SENT  = 8; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcFAXTLX_RSPF_FIN   = 9; </t>
+  </si>
+  <si>
+    <t>파일명 가져올 때, 한 폴더내에 겹치는 파일명 있으면 뒤에 순번 매겨야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명은 내가 확정해서 보고서 생성 함수로넘긴다.
+ -&gt; 파일명 Retrun 받지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TSndMailData = record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pTSndMailData  = ^TSndMailData;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.JOB_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_TYPE = FAX: FAX, E-mail: E-mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.EMP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.EMP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EmpID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U.USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZMAIN_INS - M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUUSER_TBL - U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZACBIF_INS - A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZFAXDE_INS - F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZMELDE_INS - E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZREPIF_INS - R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.ACC_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.PRD_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.BLC_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.ACC_NAME_KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.STRT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.SENT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.SND_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX 전송 부분 끝내고, 어떤 테이블에 들어가야되는지 정리 끝나면
+ E-mail 부분이랑 UNION에서 쿼리 작성부터 들어가기로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX / E-mail / 미등록 같이 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail - fn_SendEMail 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX - fn_SendFax 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스 수신처 정보 - SndFmtItem  : TFAXTLXSendFormat; 구조체 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">국제 전화 없음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndFmtItem.sIntelYn := 'N'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SndFmtItem.sNatCode := ''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportList 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출한 dll(LIB_RPT.DLL)에서 파일 이름 리턴받을 필요 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLL로 넘길 때, 파일이름 정해서 넘긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_CreateMailRptFile 함수 호출로 파일 정상적으로 떨궈졌는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 특정 폴더에 파일 떨구기
+2. 그 파일 DB에 넣기 
+ -&gt; E-mal: SCMELATT_TBL
+ -&gt; FAX: SCFAXIMG_TBL
+1. 보고서 파일이름 만들고
+2. 만들어진 파일 이름이 내가 사용하는 경로에 있는지 확인
+3. 경로에 있다면 뒤에 순번 붙여서 나간다.
+fn_ChkMailRptFile함수에서는 UserData에 있으면 Result를 UserData 폴더에 있는 파일명으로 리턴한다.
+                             UserData에 없으면 Result를 Temp 폴더에 있는 파일명을 리턴한다.
+fn_CreateMailRptFile 함수에서는 Temp경로만 취급한다.
+1. 파일명: 출력화일명 - 계좌번호 - 전송일자 (- 순번 1,2,3 ...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail 보고서 파일명 체크(순번 부여)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_MakeRptFileName(pDirName, pSendType,
+  pRptCode: string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UserData 폴더에 temp에서 생성한 파일 있는지 확인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 있으면 USerDATa 파일 명 리턴, 없으면 TEmp 파일명 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 경로(내일 하자)에 똑같은 파일명 있는지 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_MakeRptFileName 함수 호출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4391,7 +4671,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4505,6 +4785,24 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -4906,7 +5204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5297,6 +5595,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5366,101 +5703,89 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6949,13 +7274,13 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="144" t="s">
         <v>382</v>
       </c>
-      <c r="J2" s="131"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="143" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -6975,7 +7300,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="130"/>
+      <c r="B4" s="143"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -6993,7 +7318,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="130"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
@@ -7011,7 +7336,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="130"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
@@ -7029,7 +7354,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="130"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="6" t="s">
         <v>252</v>
       </c>
@@ -7405,10 +7730,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7420,570 +7745,609 @@
     <col min="5" max="5" width="66.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
-        <v>975</v>
-      </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="180" t="s">
+        <v>969</v>
+      </c>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="83" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B8" s="83" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C8" s="83" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="89" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="96" t="s">
         <v>799</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B10" s="96" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>952</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
-        <v>947</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>948</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>949</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C10" s="96" t="s">
+        <v>946</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="96" t="s">
+        <v>941</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>942</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>943</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>450</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>451</v>
       </c>
-      <c r="E6" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="E12" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" t="s">
         <v>833</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E13" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B14" t="s">
         <v>450</v>
       </c>
-      <c r="C7" t="s">
-        <v>834</v>
-      </c>
-      <c r="E7" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C8" t="s">
-        <v>870</v>
-      </c>
-      <c r="E8" s="106" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>412</v>
-      </c>
-      <c r="B9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="B10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="E10" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="B11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="E11" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E12" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>446</v>
-      </c>
-      <c r="B13" t="s">
-        <v>427</v>
-      </c>
-      <c r="C13" t="s">
-        <v>447</v>
-      </c>
-      <c r="D13" t="s">
-        <v>803</v>
-      </c>
-      <c r="E13" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>413</v>
-      </c>
-      <c r="B14" t="s">
-        <v>427</v>
-      </c>
       <c r="C14" t="s">
-        <v>449</v>
-      </c>
-      <c r="D14" t="s">
-        <v>803</v>
-      </c>
-      <c r="E14" t="s">
-        <v>826</v>
+        <v>866</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>412</v>
       </c>
       <c r="B15" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="C15" t="s">
-        <v>495</v>
-      </c>
-      <c r="D15" t="s">
-        <v>804</v>
+        <v>448</v>
       </c>
       <c r="E15" t="s">
-        <v>828</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>469</v>
+      <c r="A16" s="11" t="s">
+        <v>851</v>
       </c>
       <c r="B16" t="s">
-        <v>468</v>
-      </c>
-      <c r="C16" t="s">
-        <v>496</v>
-      </c>
-      <c r="D16" t="s">
-        <v>804</v>
+        <v>427</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>853</v>
       </c>
       <c r="E16" t="s">
-        <v>829</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>941</v>
+      <c r="A17" s="11" t="s">
+        <v>852</v>
       </c>
       <c r="B17" t="s">
-        <v>450</v>
-      </c>
-      <c r="C17" t="s">
-        <v>942</v>
-      </c>
-      <c r="D17" t="s">
-        <v>804</v>
+        <v>427</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>854</v>
       </c>
       <c r="E17" t="s">
-        <v>828</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>943</v>
+      <c r="A18" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C18" t="s">
-        <v>944</v>
-      </c>
-      <c r="D18" t="s">
-        <v>804</v>
+        <v>455</v>
       </c>
       <c r="E18" t="s">
-        <v>829</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>893</v>
+        <v>446</v>
       </c>
       <c r="B19" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C19" t="s">
-        <v>894</v>
+        <v>447</v>
+      </c>
+      <c r="D19" t="s">
+        <v>803</v>
       </c>
       <c r="E19" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s">
         <v>427</v>
       </c>
       <c r="C20" t="s">
-        <v>895</v>
+        <v>449</v>
+      </c>
+      <c r="D20" t="s">
+        <v>803</v>
       </c>
       <c r="E20" t="s">
-        <v>896</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>493</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="C21" t="s">
-        <v>487</v>
+        <v>495</v>
+      </c>
+      <c r="D21" t="s">
+        <v>804</v>
       </c>
       <c r="E21" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>976</v>
+        <v>469</v>
       </c>
       <c r="B22" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C22" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="D22" t="s">
         <v>804</v>
       </c>
+      <c r="E22" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>474</v>
+        <v>936</v>
       </c>
       <c r="B23" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>475</v>
+        <v>937</v>
       </c>
       <c r="D23" t="s">
         <v>804</v>
       </c>
       <c r="E23" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>476</v>
+        <v>938</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C24" t="s">
-        <v>477</v>
+        <v>939</v>
       </c>
       <c r="D24" t="s">
         <v>804</v>
       </c>
       <c r="E24" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>418</v>
+        <v>889</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>890</v>
+      </c>
+      <c r="E25" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="B26" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C26" t="s">
-        <v>460</v>
+        <v>891</v>
+      </c>
+      <c r="E26" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
         <v>427</v>
       </c>
       <c r="C27" t="s">
-        <v>494</v>
+        <v>487</v>
+      </c>
+      <c r="E27" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="s">
-        <v>953</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>450</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>967</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>1118</v>
+      <c r="A28" t="s">
+        <v>970</v>
+      </c>
+      <c r="B28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C28" t="s">
+        <v>473</v>
+      </c>
+      <c r="D28" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>954</v>
+        <v>474</v>
       </c>
       <c r="B29" t="s">
-        <v>955</v>
+        <v>466</v>
       </c>
       <c r="C29" t="s">
-        <v>959</v>
+        <v>475</v>
+      </c>
+      <c r="D29" t="s">
+        <v>804</v>
+      </c>
+      <c r="E29" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>956</v>
+        <v>476</v>
       </c>
       <c r="B30" t="s">
-        <v>955</v>
+        <v>466</v>
       </c>
       <c r="C30" t="s">
-        <v>968</v>
+        <v>477</v>
       </c>
       <c r="D30" t="s">
-        <v>803</v>
+        <v>804</v>
+      </c>
+      <c r="E30" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>957</v>
+        <v>418</v>
       </c>
       <c r="B31" t="s">
-        <v>955</v>
+        <v>427</v>
       </c>
       <c r="C31" t="s">
-        <v>958</v>
-      </c>
-      <c r="D31" t="s">
-        <v>803</v>
+        <v>461</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>459</v>
+      </c>
+      <c r="B32" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" t="s">
+        <v>460</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C33" t="s">
+        <v>494</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="82" t="s">
+        <v>947</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>450</v>
+      </c>
+      <c r="C34" s="82" t="s">
+        <v>961</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>948</v>
+      </c>
+      <c r="B35" t="s">
+        <v>949</v>
+      </c>
+      <c r="C35" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>950</v>
+      </c>
+      <c r="B36" t="s">
+        <v>949</v>
+      </c>
+      <c r="C36" t="s">
+        <v>962</v>
+      </c>
+      <c r="D36" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>951</v>
+      </c>
+      <c r="B37" t="s">
+        <v>949</v>
+      </c>
+      <c r="C37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D37" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>954</v>
+      </c>
+      <c r="B38" t="s">
+        <v>949</v>
+      </c>
+      <c r="C38" t="s">
+        <v>955</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>956</v>
+      </c>
+      <c r="B39" t="s">
+        <v>949</v>
+      </c>
+      <c r="C39" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>479</v>
+      </c>
+      <c r="C40" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>465</v>
+      </c>
+      <c r="B41" t="s">
+        <v>433</v>
+      </c>
+      <c r="C41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>423</v>
+      </c>
+      <c r="B42" t="s">
+        <v>430</v>
+      </c>
+      <c r="C42" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>424</v>
+      </c>
+      <c r="B43" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>958</v>
+      </c>
+      <c r="B44" t="s">
+        <v>450</v>
+      </c>
+      <c r="C44" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>967</v>
+      </c>
+      <c r="B46" t="s">
+        <v>450</v>
+      </c>
+      <c r="C46" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>959</v>
+      </c>
+      <c r="B47" t="s">
+        <v>450</v>
+      </c>
+      <c r="C47" t="s">
         <v>960</v>
       </c>
-      <c r="B32" t="s">
-        <v>955</v>
-      </c>
-      <c r="C32" t="s">
-        <v>961</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>962</v>
-      </c>
-      <c r="B33" t="s">
-        <v>955</v>
-      </c>
-      <c r="C33" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>486</v>
-      </c>
-      <c r="B34" t="s">
-        <v>479</v>
-      </c>
-      <c r="C34" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>465</v>
-      </c>
-      <c r="B35" t="s">
-        <v>433</v>
-      </c>
-      <c r="C35" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>423</v>
-      </c>
-      <c r="B36" t="s">
-        <v>430</v>
-      </c>
-      <c r="C36" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>424</v>
-      </c>
-      <c r="B37" t="s">
-        <v>433</v>
-      </c>
-      <c r="C37" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>964</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>965</v>
+      </c>
+      <c r="B48" t="s">
         <v>450</v>
       </c>
-      <c r="C38" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>861</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>973</v>
-      </c>
-      <c r="B40" t="s">
-        <v>450</v>
-      </c>
-      <c r="C40" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>965</v>
-      </c>
-      <c r="B41" t="s">
-        <v>450</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C48" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>971</v>
-      </c>
-      <c r="B42" t="s">
-        <v>450</v>
-      </c>
-      <c r="C42" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="89" t="s">
-        <v>1117</v>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="89" t="s">
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7999,7 +8363,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8012,27 +8376,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="182" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
+      <c r="A1" s="181" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
-        <v>975</v>
-      </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
+      <c r="A3" s="180" t="s">
+        <v>969</v>
+      </c>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
@@ -8045,180 +8409,180 @@
         <v>442</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
-        <v>1067</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="96" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="B6" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="C6" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="96" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="B7" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="C7" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="96" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="B8" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="C8" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="96" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="B9" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="C9" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="96" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="B10" t="s">
         <v>466</v>
       </c>
       <c r="C10" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="96" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="B11" t="s">
         <v>466</v>
       </c>
       <c r="C11" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="B12" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="C12" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="96" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="B13" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="C13" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="96" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="B14" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="C14" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="96" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="B15" t="s">
         <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="96" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="B16" t="s">
         <v>466</v>
       </c>
       <c r="C16" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="96" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B17" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="C17" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="96" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="B18" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="C18" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="96" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="B19" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="C19" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="96" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="B20" t="s">
         <v>484</v>
       </c>
       <c r="C20" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8228,7 +8592,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="89" t="s">
-        <v>1068</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -8247,7 +8611,7 @@
   <dimension ref="A2:N92"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8261,7 +8625,7 @@
     <col min="7" max="7" width="11" style="90" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.375" style="90" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.625" style="90" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="90" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="90" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9" style="90"/>
     <col min="14" max="16384" width="9" style="34"/>
   </cols>
@@ -8279,10 +8643,10 @@
       <c r="D2" s="95" t="s">
         <v>536</v>
       </c>
-      <c r="F2" s="168" t="s">
+      <c r="F2" s="183" t="s">
         <v>515</v>
       </c>
-      <c r="G2" s="168"/>
+      <c r="G2" s="183"/>
       <c r="H2" s="95" t="s">
         <v>516</v>
       </c>
@@ -8303,7 +8667,7 @@
       <c r="D3" s="90" t="s">
         <v>692</v>
       </c>
-      <c r="F3" s="169" t="s">
+      <c r="F3" s="182" t="s">
         <v>554</v>
       </c>
       <c r="G3" s="90" t="s">
@@ -8333,23 +8697,23 @@
       <c r="D4" s="90" t="s">
         <v>692</v>
       </c>
-      <c r="F4" s="169"/>
+      <c r="F4" s="182"/>
       <c r="G4" s="114" t="s">
         <v>208</v>
       </c>
       <c r="H4" s="114" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="I4" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="J4" s="170" t="s">
-        <v>923</v>
-      </c>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
+      <c r="J4" s="184" t="s">
+        <v>918</v>
+      </c>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
     </row>
     <row r="5" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90" t="s">
@@ -8364,21 +8728,21 @@
       <c r="D5" s="90" t="s">
         <v>692</v>
       </c>
-      <c r="F5" s="169"/>
+      <c r="F5" s="182"/>
       <c r="G5" s="114" t="s">
         <v>212</v>
       </c>
       <c r="H5" s="114" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="I5" s="114" t="s">
         <v>567</v>
       </c>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
     </row>
     <row r="6" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92" t="s">
@@ -8393,21 +8757,21 @@
       <c r="D6" s="90" t="s">
         <v>537</v>
       </c>
-      <c r="F6" s="169"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="114" t="s">
         <v>213</v>
       </c>
       <c r="H6" s="114" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="I6" s="114" t="s">
         <v>568</v>
       </c>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
     </row>
     <row r="7" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="92" t="s">
@@ -8422,21 +8786,21 @@
       <c r="D7" s="90" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="169"/>
+      <c r="F7" s="182"/>
       <c r="G7" s="114" t="s">
         <v>214</v>
       </c>
       <c r="H7" s="114" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="I7" s="114" t="s">
         <v>569</v>
       </c>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
     </row>
     <row r="8" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="92" t="s">
@@ -8451,7 +8815,7 @@
       <c r="D8" s="90" t="s">
         <v>691</v>
       </c>
-      <c r="F8" s="169"/>
+      <c r="F8" s="182"/>
       <c r="G8" s="90" t="s">
         <v>215</v>
       </c>
@@ -8479,7 +8843,7 @@
       <c r="D9" s="90" t="s">
         <v>691</v>
       </c>
-      <c r="F9" s="169"/>
+      <c r="F9" s="182"/>
       <c r="G9" s="90" t="s">
         <v>216</v>
       </c>
@@ -8504,7 +8868,7 @@
       <c r="C10" s="90" t="s">
         <v>511</v>
       </c>
-      <c r="F10" s="169"/>
+      <c r="F10" s="182"/>
       <c r="G10" s="90" t="s">
         <v>210</v>
       </c>
@@ -8525,7 +8889,7 @@
       <c r="C11" s="90" t="s">
         <v>512</v>
       </c>
-      <c r="F11" s="169"/>
+      <c r="F11" s="182"/>
       <c r="G11" s="90" t="s">
         <v>217</v>
       </c>
@@ -8546,7 +8910,7 @@
       <c r="C12" s="90" t="s">
         <v>511</v>
       </c>
-      <c r="F12" s="169"/>
+      <c r="F12" s="182"/>
       <c r="G12" s="90" t="s">
         <v>555</v>
       </c>
@@ -8567,7 +8931,7 @@
       <c r="C13" s="90" t="s">
         <v>512</v>
       </c>
-      <c r="F13" s="169"/>
+      <c r="F13" s="182"/>
       <c r="G13" s="90" t="s">
         <v>556</v>
       </c>
@@ -8588,7 +8952,7 @@
       <c r="C14" s="90" t="s">
         <v>513</v>
       </c>
-      <c r="F14" s="169"/>
+      <c r="F14" s="182"/>
       <c r="G14" s="90" t="s">
         <v>557</v>
       </c>
@@ -8600,7 +8964,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="182" t="s">
         <v>521</v>
       </c>
       <c r="B15" s="90" t="s">
@@ -8609,7 +8973,7 @@
       <c r="C15" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F15" s="156" t="s">
+      <c r="F15" s="174" t="s">
         <v>579</v>
       </c>
       <c r="G15" s="90" t="s">
@@ -8623,14 +8987,14 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="169"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="90" t="s">
         <v>506</v>
       </c>
       <c r="C16" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F16" s="156"/>
+      <c r="F16" s="174"/>
       <c r="G16" s="90" t="s">
         <v>208</v>
       </c>
@@ -8641,15 +9005,15 @@
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="169"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="182"/>
       <c r="B17" s="90" t="s">
         <v>602</v>
       </c>
       <c r="C17" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F17" s="156"/>
+      <c r="F17" s="174"/>
       <c r="G17" s="90" t="s">
         <v>213</v>
       </c>
@@ -8660,15 +9024,15 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="169"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="182"/>
       <c r="B18" s="90" t="s">
         <v>603</v>
       </c>
       <c r="C18" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F18" s="156"/>
+      <c r="F18" s="174"/>
       <c r="G18" s="90" t="s">
         <v>214</v>
       </c>
@@ -8679,27 +9043,29 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="91" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D19" s="91"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="174"/>
+      <c r="G19" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="90" t="s">
+        <v>589</v>
+      </c>
+      <c r="I19" s="90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="90" t="s">
         <v>538</v>
       </c>
@@ -8709,18 +9075,18 @@
       <c r="C20" s="90" t="s">
         <v>539</v>
       </c>
-      <c r="F20" s="156"/>
+      <c r="F20" s="174"/>
       <c r="G20" s="90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H20" s="90" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I20" s="90" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="90" t="s">
         <v>543</v>
       </c>
@@ -8733,18 +9099,18 @@
       <c r="D21" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F21" s="156"/>
+      <c r="F21" s="174"/>
       <c r="G21" s="90" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H21" s="90" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="90" t="s">
         <v>544</v>
       </c>
@@ -8757,18 +9123,18 @@
       <c r="D22" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F22" s="156"/>
+      <c r="F22" s="174"/>
       <c r="G22" s="90" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H22" s="90" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I22" s="90" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="90" t="s">
         <v>545</v>
       </c>
@@ -8781,19 +9147,19 @@
       <c r="D23" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F23" s="156"/>
+      <c r="F23" s="174"/>
       <c r="G23" s="90" t="s">
-        <v>217</v>
+        <v>582</v>
       </c>
       <c r="H23" s="90" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I23" s="90" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="169" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="182" t="s">
         <v>522</v>
       </c>
       <c r="B24" s="90" t="s">
@@ -8802,57 +9168,57 @@
       <c r="C24" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F24" s="156"/>
+      <c r="F24" s="174"/>
       <c r="G24" s="90" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="H24" s="90" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I24" s="90" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="169"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="182"/>
       <c r="B25" s="90" t="s">
         <v>507</v>
       </c>
       <c r="C25" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F25" s="156"/>
+      <c r="F25" s="174"/>
       <c r="G25" s="90" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="H25" s="90" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I25" s="90" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="169"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="182"/>
       <c r="B26" s="90" t="s">
         <v>605</v>
       </c>
       <c r="C26" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F26" s="156"/>
+      <c r="F26" s="174"/>
       <c r="G26" s="90" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H26" s="90" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I26" s="90" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="169" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="182" t="s">
         <v>523</v>
       </c>
       <c r="B27" s="90" t="s">
@@ -8861,38 +9227,37 @@
       <c r="C27" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F27" s="156"/>
+      <c r="F27" s="174"/>
       <c r="G27" s="90" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H27" s="90" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I27" s="90" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="169"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="182"/>
       <c r="B28" s="90" t="s">
         <v>508</v>
       </c>
       <c r="C28" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F28" s="156"/>
-      <c r="G28" s="90" t="s">
-        <v>585</v>
+      <c r="F28" s="34" t="s">
+        <v>699</v>
       </c>
       <c r="H28" s="90" t="s">
-        <v>597</v>
+        <v>701</v>
       </c>
       <c r="I28" s="90" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="169"/>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="182"/>
       <c r="B29" s="90" t="s">
         <v>509</v>
       </c>
@@ -8900,16 +9265,16 @@
         <v>514</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H29" s="90" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="I29" s="90" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="90" t="s">
         <v>541</v>
       </c>
@@ -8919,17 +9284,20 @@
       <c r="C30" s="90" t="s">
         <v>539</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>700</v>
+      <c r="F30" s="174" t="s">
+        <v>836</v>
+      </c>
+      <c r="G30" s="90" t="s">
+        <v>837</v>
       </c>
       <c r="H30" s="90" t="s">
-        <v>703</v>
+        <v>840</v>
       </c>
       <c r="I30" s="90" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="90" t="s">
         <v>580</v>
       </c>
@@ -8942,20 +9310,18 @@
       <c r="D31" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F31" s="156" t="s">
-        <v>837</v>
-      </c>
+      <c r="F31" s="174"/>
       <c r="G31" s="90" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H31" s="90" t="s">
         <v>841</v>
       </c>
       <c r="I31" s="90" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="90" t="s">
         <v>552</v>
       </c>
@@ -8968,15 +9334,15 @@
       <c r="D32" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F32" s="156"/>
+      <c r="F32" s="174"/>
       <c r="G32" s="90" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H32" s="90" t="s">
         <v>842</v>
       </c>
       <c r="I32" s="90" t="s">
-        <v>845</v>
+        <v>998</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -8992,15 +9358,17 @@
       <c r="D33" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F33" s="156"/>
-      <c r="G33" s="90" t="s">
-        <v>839</v>
+      <c r="F33" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="G33" s="109" t="s">
+        <v>870</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>843</v>
-      </c>
-      <c r="I33" s="90" t="s">
-        <v>846</v>
+        <v>871</v>
+      </c>
+      <c r="I33" s="109" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -9013,17 +9381,20 @@
       <c r="C34" s="90" t="s">
         <v>644</v>
       </c>
-      <c r="F34" s="34" t="s">
-        <v>873</v>
+      <c r="F34" s="174" t="s">
+        <v>1106</v>
       </c>
       <c r="G34" s="109" t="s">
-        <v>874</v>
-      </c>
-      <c r="H34" s="90" t="s">
-        <v>875</v>
+        <v>1119</v>
+      </c>
+      <c r="H34" s="130" t="s">
+        <v>1120</v>
       </c>
       <c r="I34" s="109" t="s">
-        <v>876</v>
+        <v>1121</v>
+      </c>
+      <c r="J34" s="130" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -9036,6 +9407,19 @@
       <c r="C35" s="90" t="s">
         <v>644</v>
       </c>
+      <c r="F35" s="174"/>
+      <c r="G35" s="90" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H35" s="90" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I35" s="90" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J35" s="130" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="90" t="s">
@@ -9047,6 +9431,22 @@
       <c r="C36" s="90" t="s">
         <v>644</v>
       </c>
+      <c r="F36" s="174"/>
+      <c r="G36" s="130" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H36" s="130" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I36" s="130" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J36" s="130" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="91" t="s">
@@ -9059,10 +9459,19 @@
         <v>772</v>
       </c>
       <c r="D37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="90" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H37" s="90" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I37" s="90" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J37" s="130" t="s">
+        <v>1136</v>
+      </c>
       <c r="K37" s="91"/>
       <c r="L37" s="91"/>
       <c r="M37" s="91"/>
@@ -9078,10 +9487,19 @@
         <v>772</v>
       </c>
       <c r="D38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="130" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H38" s="130" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I38" s="130" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J38" s="130" t="s">
+        <v>1137</v>
+      </c>
       <c r="K38" s="91"/>
       <c r="L38" s="91"/>
       <c r="M38" s="91"/>
@@ -9097,10 +9515,19 @@
         <v>779</v>
       </c>
       <c r="D39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H39" s="91" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I39" s="91" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J39" s="130" t="s">
+        <v>1138</v>
+      </c>
       <c r="K39" s="91"/>
       <c r="L39" s="91"/>
       <c r="M39" s="91"/>
@@ -9119,10 +9546,6 @@
       <c r="G40" s="91"/>
       <c r="H40" s="91"/>
       <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="90" t="s">
@@ -9131,6 +9554,9 @@
       <c r="C41" s="90" t="s">
         <v>656</v>
       </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="90" t="s">
@@ -9139,6 +9565,9 @@
       <c r="C42" s="90" t="s">
         <v>657</v>
       </c>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="90" t="s">
@@ -9360,12 +9789,16 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="160" t="s">
+      <c r="A66" s="166" t="s">
         <v>670</v>
       </c>
-      <c r="B66" s="160"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="160"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="166"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="88"/>
@@ -9375,13 +9808,6 @@
       <c r="E67" s="88" t="s">
         <v>760</v>
       </c>
-      <c r="G67" s="91"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="91"/>
-      <c r="K67" s="91"/>
-      <c r="L67" s="91"/>
-      <c r="M67" s="91"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="103" t="s">
@@ -9404,6 +9830,9 @@
       <c r="C69" s="103" t="s">
         <v>629</v>
       </c>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="103" t="s">
@@ -9437,6 +9866,10 @@
       <c r="C72" s="103" t="s">
         <v>629</v>
       </c>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="91" t="s">
@@ -9449,9 +9882,6 @@
         <v>629</v>
       </c>
       <c r="D73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
       <c r="J73" s="91"/>
       <c r="K73" s="91"/>
       <c r="L73" s="91"/>
@@ -9468,13 +9898,6 @@
         <v>629</v>
       </c>
       <c r="D74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
-      <c r="M74" s="91"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="34" t="s">
@@ -9486,6 +9909,9 @@
       <c r="C75" s="90" t="s">
         <v>706</v>
       </c>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="90" t="s">
@@ -9500,6 +9926,9 @@
       <c r="E76" s="34" t="s">
         <v>766</v>
       </c>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="90" t="s">
@@ -9579,7 +10008,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="90" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B82" s="90" t="s">
         <v>761</v>
@@ -9593,7 +10022,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="90" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B83" s="90" t="s">
         <v>723</v>
@@ -9671,59 +10100,60 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="90" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B89" s="90" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="C89" s="90" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="98" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B90" s="90" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C90" s="98" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="98" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B91" s="90" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C91" s="98" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="98" t="s">
+        <v>925</v>
+      </c>
+      <c r="B92" s="90" t="s">
+        <v>929</v>
+      </c>
+      <c r="C92" s="98" t="s">
         <v>930</v>
       </c>
-      <c r="B92" s="90" t="s">
-        <v>934</v>
-      </c>
-      <c r="C92" s="98" t="s">
-        <v>935</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="J4:N7"/>
+    <mergeCell ref="F34:F39"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:F14"/>
-    <mergeCell ref="F15:F28"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="J4:N7"/>
+    <mergeCell ref="F15:F27"/>
+    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9733,10 +10163,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9751,37 +10181,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="171"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="133"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="107"/>
-      <c r="B2" s="174" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C2" s="175" t="s">
+      <c r="B2" s="134" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C2" s="135" t="s">
         <v>607</v>
       </c>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="135" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="135" t="s">
         <v>516</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="135" t="s">
         <v>615</v>
       </c>
-      <c r="G2" s="176" t="s">
+      <c r="G2" s="136" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="177" t="s">
-        <v>1088</v>
+      <c r="B3" s="190" t="s">
+        <v>1072</v>
       </c>
       <c r="C3" s="119" t="s">
         <v>609</v>
@@ -9789,7 +10219,7 @@
       <c r="D3" s="119" t="s">
         <v>614</v>
       </c>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="139" t="s">
         <v>611</v>
       </c>
       <c r="F3" s="119"/>
@@ -9798,14 +10228,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="177"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="119" t="s">
         <v>610</v>
       </c>
       <c r="D4" s="119" t="s">
         <v>614</v>
       </c>
-      <c r="E4" s="180" t="s">
+      <c r="E4" s="139" t="s">
         <v>612</v>
       </c>
       <c r="F4" s="119"/>
@@ -9814,7 +10244,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="177"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="121" t="s">
         <v>630</v>
       </c>
@@ -9830,7 +10260,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="177"/>
+      <c r="B6" s="191"/>
       <c r="C6" s="121" t="s">
         <v>633</v>
       </c>
@@ -9846,7 +10276,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="177"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="121" t="s">
         <v>634</v>
       </c>
@@ -9862,7 +10292,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="177"/>
+      <c r="B8" s="191"/>
       <c r="C8" s="121" t="s">
         <v>631</v>
       </c>
@@ -9878,7 +10308,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="177"/>
+      <c r="B9" s="191"/>
       <c r="C9" s="121" t="s">
         <v>632</v>
       </c>
@@ -9894,14 +10324,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="177"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="119" t="s">
         <v>814</v>
       </c>
       <c r="D10" s="119" t="s">
         <v>614</v>
       </c>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="139" t="s">
         <v>816</v>
       </c>
       <c r="F10" s="119"/>
@@ -9910,7 +10340,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="177"/>
+      <c r="B11" s="191"/>
       <c r="C11" s="19" t="s">
         <v>815</v>
       </c>
@@ -9925,14 +10355,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="177"/>
+      <c r="B12" s="191"/>
       <c r="C12" s="119" t="s">
         <v>693</v>
       </c>
       <c r="D12" s="119" t="s">
         <v>694</v>
       </c>
-      <c r="E12" s="180" t="s">
+      <c r="E12" s="139" t="s">
         <v>697</v>
       </c>
       <c r="F12" s="119" t="s">
@@ -9943,14 +10373,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="177"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="119" t="s">
         <v>695</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>694</v>
       </c>
-      <c r="E13" s="180" t="s">
+      <c r="E13" s="139" t="s">
         <v>698</v>
       </c>
       <c r="F13" s="119" t="s">
@@ -9961,15 +10391,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="177"/>
+      <c r="B14" s="191"/>
       <c r="C14" s="119" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D14" s="119" t="s">
-        <v>853</v>
-      </c>
-      <c r="E14" s="180" t="s">
-        <v>854</v>
+        <v>849</v>
+      </c>
+      <c r="E14" s="139" t="s">
+        <v>850</v>
       </c>
       <c r="F14" s="119" t="s">
         <v>696</v>
@@ -9979,8 +10409,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="177"/>
-      <c r="C15" s="178" t="s">
+      <c r="B15" s="191"/>
+      <c r="C15" s="137" t="s">
         <v>731</v>
       </c>
       <c r="D15" s="123" t="s">
@@ -9997,7 +10427,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="177"/>
+      <c r="B16" s="191"/>
       <c r="C16" s="123" t="s">
         <v>732</v>
       </c>
@@ -10015,7 +10445,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="177"/>
+      <c r="B17" s="191"/>
       <c r="C17" s="123" t="s">
         <v>735</v>
       </c>
@@ -10033,8 +10463,8 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="177"/>
-      <c r="C18" s="178" t="s">
+      <c r="B18" s="191"/>
+      <c r="C18" s="137" t="s">
         <v>734</v>
       </c>
       <c r="D18" s="123" t="s">
@@ -10051,7 +10481,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="177"/>
+      <c r="B19" s="191"/>
       <c r="C19" s="123" t="s">
         <v>733</v>
       </c>
@@ -10069,14 +10499,14 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="177"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="125" t="s">
         <v>805</v>
       </c>
       <c r="D20" s="125" t="s">
         <v>806</v>
       </c>
-      <c r="E20" s="180" t="s">
+      <c r="E20" s="139" t="s">
         <v>807</v>
       </c>
       <c r="F20" s="125" t="s">
@@ -10087,7 +10517,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="177"/>
+      <c r="B21" s="191"/>
       <c r="C21" s="19" t="s">
         <v>808</v>
       </c>
@@ -10105,14 +10535,14 @@
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="177"/>
+      <c r="B22" s="191"/>
       <c r="C22" s="119" t="s">
         <v>755</v>
       </c>
       <c r="D22" s="119" t="s">
         <v>756</v>
       </c>
-      <c r="E22" s="180" t="s">
+      <c r="E22" s="139" t="s">
         <v>780</v>
       </c>
       <c r="F22" s="119"/>
@@ -10133,15 +10563,15 @@
       <c r="S22" s="33"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="177"/>
+      <c r="B23" s="191"/>
       <c r="C23" s="119" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>907</v>
-      </c>
-      <c r="E23" s="180" t="s">
-        <v>908</v>
+        <v>902</v>
+      </c>
+      <c r="E23" s="139" t="s">
+        <v>903</v>
       </c>
       <c r="F23" s="119"/>
       <c r="G23" s="120" t="s">
@@ -10149,7 +10579,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="177"/>
+      <c r="B24" s="191"/>
       <c r="C24" s="19" t="s">
         <v>757</v>
       </c>
@@ -10164,30 +10594,30 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="177"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="19" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="177"/>
+      <c r="B26" s="191"/>
       <c r="C26" s="119" t="s">
         <v>791</v>
       </c>
       <c r="D26" s="119" t="s">
         <v>756</v>
       </c>
-      <c r="E26" s="180" t="s">
-        <v>1018</v>
+      <c r="E26" s="139" t="s">
+        <v>1006</v>
       </c>
       <c r="F26" s="119"/>
       <c r="G26" s="120" t="s">
@@ -10195,18 +10625,18 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="177"/>
+      <c r="B27" s="191"/>
       <c r="C27" s="127" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="D27" s="119" t="s">
-        <v>863</v>
-      </c>
-      <c r="E27" s="181" t="s">
-        <v>1019</v>
+        <v>859</v>
+      </c>
+      <c r="E27" s="140" t="s">
+        <v>1007</v>
       </c>
       <c r="F27" s="119" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G27" s="120" t="s">
         <v>738</v>
@@ -10225,18 +10655,18 @@
       <c r="S27" s="108"/>
     </row>
     <row r="28" spans="2:19" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="177"/>
+      <c r="B28" s="191"/>
       <c r="C28" s="127" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="D28" s="119" t="s">
-        <v>863</v>
-      </c>
-      <c r="E28" s="181" t="s">
-        <v>1020</v>
+        <v>859</v>
+      </c>
+      <c r="E28" s="140" t="s">
+        <v>1008</v>
       </c>
       <c r="F28" s="119" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G28" s="120" t="s">
         <v>738</v>
@@ -10255,96 +10685,166 @@
       <c r="S28" s="118"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="177"/>
+      <c r="B29" s="191"/>
       <c r="C29" s="119" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D29" s="119" t="s">
-        <v>863</v>
-      </c>
-      <c r="E29" s="180" t="s">
-        <v>917</v>
+        <v>859</v>
+      </c>
+      <c r="E29" s="139" t="s">
+        <v>912</v>
       </c>
       <c r="F29" s="119" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G29" s="120" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="191"/>
+      <c r="C30" s="119" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D30" s="119" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E30" s="139" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F30" s="119" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="177"/>
-      <c r="C30" s="119" t="s">
-        <v>936</v>
-      </c>
-      <c r="D30" s="119" t="s">
-        <v>907</v>
-      </c>
-      <c r="E30" s="180" t="s">
-        <v>937</v>
-      </c>
-      <c r="F30" s="119"/>
       <c r="G30" s="120" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="177"/>
-      <c r="C31" s="119" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D31" s="119" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E31" s="180" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F31" s="119" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G31" s="120" t="s">
+      <c r="B31" s="191"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="129"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="191"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="129"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="191"/>
+      <c r="C33" s="119" t="s">
+        <v>931</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>902</v>
+      </c>
+      <c r="E33" s="139" t="s">
+        <v>932</v>
+      </c>
+      <c r="F33" s="119"/>
+      <c r="G33" s="120" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="177"/>
-      <c r="C32" s="19" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="191"/>
+      <c r="C34" s="119" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D34" s="119" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E34" s="139" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F34" s="119" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G34" s="120" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="191"/>
+      <c r="C35" s="19" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F35" s="128"/>
+      <c r="G35" s="129" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B36" s="191"/>
+      <c r="C36" s="119" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D36" s="119" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E36" s="140" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F36" s="119" t="s">
+        <v>860</v>
+      </c>
+      <c r="G36" s="120" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="191"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="129"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="191"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="129"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="192"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="129"/>
+    </row>
+    <row r="40" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="138" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C40" s="119" t="s">
         <v>1070</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F32" s="128"/>
-      <c r="G32" s="129" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B33" s="179" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C33" s="119" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D33" s="119" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E33" s="181" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F33" s="119" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G33" s="120" t="s">
-        <v>1099</v>
+      <c r="D40" s="119" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E40" s="140" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F40" s="119" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G40" s="120" t="s">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:B32"/>
+    <mergeCell ref="B3:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10374,21 +10874,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="180" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="E1" s="167" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="E1" s="180" t="s">
         <v>444</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="I1" s="167" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="I1" s="180" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -11304,25 +11804,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
-      <c r="B39" s="136" t="s">
+      <c r="B39" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
       <c r="O39" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="134"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="147"/>
       <c r="O40" s="10" t="s">
         <v>95</v>
       </c>
@@ -11447,10 +11947,10 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="135"/>
+      <c r="C48" s="148"/>
       <c r="D48" s="33"/>
       <c r="O48" t="s">
         <v>103</v>
@@ -11568,13 +12068,13 @@
   <sheetData>
     <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
@@ -11594,7 +12094,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="161" t="s">
         <v>169</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -11609,8 +12109,8 @@
       <c r="F4" s="53"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="149"/>
-      <c r="C5" s="151" t="s">
+      <c r="B5" s="162"/>
+      <c r="C5" s="164" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="42" t="s">
@@ -11620,8 +12120,8 @@
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="150"/>
-      <c r="C6" s="152"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="42" t="s">
         <v>156</v>
       </c>
@@ -11655,19 +12155,19 @@
       <c r="F8" s="48"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="137" t="s">
+      <c r="C10" s="155"/>
+      <c r="D10" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="151"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="143"/>
-      <c r="C11" s="144"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="157"/>
       <c r="D11" s="38" t="s">
         <v>170</v>
       </c>
@@ -11679,7 +12179,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="152" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="46" t="s">
@@ -11696,7 +12196,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="46" t="s">
         <v>172</v>
       </c>
@@ -11714,7 +12214,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="140"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="47" t="s">
         <v>171</v>
       </c>
@@ -12010,28 +12510,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="167" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="165"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="169"/>
       <c r="K1" s="67"/>
-      <c r="L1" s="160" t="s">
+      <c r="L1" s="166" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="160"/>
+      <c r="M1" s="166"/>
       <c r="N1" s="67"/>
-      <c r="O1" s="160" t="s">
+      <c r="O1" s="166" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="160"/>
+      <c r="P1" s="166"/>
       <c r="Q1" s="35"/>
       <c r="R1" s="68"/>
       <c r="S1" s="68"/>
@@ -12085,12 +12585,12 @@
       <c r="P2" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" s="160" t="s">
+      <c r="Q2" s="166" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="172"/>
       <c r="U2" s="60"/>
       <c r="V2" s="59" t="s">
         <v>229</v>
@@ -12130,10 +12630,10 @@
       <c r="M3" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="157" t="s">
+      <c r="O3" s="177" t="s">
         <v>256</v>
       </c>
-      <c r="P3" s="158" t="s">
+      <c r="P3" s="178" t="s">
         <v>221</v>
       </c>
       <c r="Q3" s="36" t="s">
@@ -12165,8 +12665,8 @@
       <c r="M4" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="O4" s="157"/>
-      <c r="P4" s="158"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="178"/>
       <c r="Q4" s="36" t="s">
         <v>272</v>
       </c>
@@ -12205,8 +12705,8 @@
       <c r="M5" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="O5" s="157"/>
-      <c r="P5" s="158"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="178"/>
       <c r="Q5" s="36" t="s">
         <v>286</v>
       </c>
@@ -12236,10 +12736,10 @@
       <c r="M6" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="O6" s="159" t="s">
+      <c r="O6" s="170" t="s">
         <v>257</v>
       </c>
-      <c r="P6" s="154" t="s">
+      <c r="P6" s="171" t="s">
         <v>264</v>
       </c>
       <c r="Q6" s="71" t="s">
@@ -12268,8 +12768,8 @@
       <c r="I7" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="159"/>
-      <c r="P7" s="154"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="171"/>
       <c r="Q7" s="71" t="s">
         <v>272</v>
       </c>
@@ -12287,10 +12787,10 @@
       <c r="I8" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="159" t="s">
+      <c r="O8" s="170" t="s">
         <v>258</v>
       </c>
-      <c r="P8" s="154" t="s">
+      <c r="P8" s="171" t="s">
         <v>263</v>
       </c>
       <c r="Q8" s="71" t="s">
@@ -12325,8 +12825,8 @@
       <c r="I9" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="159"/>
-      <c r="P9" s="154"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="171"/>
       <c r="Q9" s="71" t="s">
         <v>272</v>
       </c>
@@ -12342,10 +12842,10 @@
       <c r="I10" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="O10" s="162" t="s">
+      <c r="O10" s="173" t="s">
         <v>267</v>
       </c>
-      <c r="P10" s="156" t="s">
+      <c r="P10" s="174" t="s">
         <v>241</v>
       </c>
       <c r="Q10" s="36" t="s">
@@ -12377,8 +12877,8 @@
       <c r="I11" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O11" s="162"/>
-      <c r="P11" s="156"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="174"/>
       <c r="Q11" s="36" t="s">
         <v>272</v>
       </c>
@@ -12430,10 +12930,10 @@
       <c r="I13" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O13" s="155" t="s">
+      <c r="O13" s="176" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="156" t="s">
+      <c r="P13" s="174" t="s">
         <v>262</v>
       </c>
       <c r="Q13" s="36" t="s">
@@ -12456,8 +12956,8 @@
       <c r="I14" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="O14" s="155"/>
-      <c r="P14" s="156"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="174"/>
       <c r="Q14" s="36" t="s">
         <v>271</v>
       </c>
@@ -12493,8 +12993,8 @@
       <c r="I15" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="O15" s="155"/>
-      <c r="P15" s="156"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="174"/>
       <c r="Q15" s="36" t="s">
         <v>281</v>
       </c>
@@ -12524,10 +13024,10 @@
       <c r="I16" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="O16" s="159" t="s">
+      <c r="O16" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="154" t="s">
+      <c r="P16" s="171" t="s">
         <v>241</v>
       </c>
       <c r="Q16" s="71" t="s">
@@ -12553,8 +13053,8 @@
       <c r="I17" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="O17" s="159"/>
-      <c r="P17" s="154"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="171"/>
       <c r="Q17" s="71" t="s">
         <v>272</v>
       </c>
@@ -12590,10 +13090,10 @@
       <c r="I18" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="O18" s="153" t="s">
+      <c r="O18" s="175" t="s">
         <v>268</v>
       </c>
-      <c r="P18" s="154" t="s">
+      <c r="P18" s="171" t="s">
         <v>262</v>
       </c>
       <c r="Q18" s="71" t="s">
@@ -12619,8 +13119,8 @@
       <c r="I19" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="O19" s="153"/>
-      <c r="P19" s="154"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="171"/>
       <c r="Q19" s="71" t="s">
         <v>272</v>
       </c>
@@ -12977,16 +13477,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="O13:O15"/>
@@ -12995,6 +13485,16 @@
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13007,11 +13507,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13026,14 +13526,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="116" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="166" t="s">
-        <v>985</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
+      <c r="B1" s="179" t="s">
+        <v>979</v>
+      </c>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
     </row>
     <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -13077,13 +13577,18 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="104" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1102</v>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="108" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="86" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13147,7 +13652,7 @@
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C14" s="11" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -13155,7 +13660,7 @@
     <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -13237,15 +13742,15 @@
     </row>
     <row r="25" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="110" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="110" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="E26" s="57"/>
     </row>
@@ -13345,10 +13850,10 @@
     </row>
     <row r="44" spans="4:6" ht="66" x14ac:dyDescent="0.3">
       <c r="E44" s="11" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F44" s="106" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.3">
@@ -13504,21 +14009,21 @@
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="101"/>
       <c r="C68" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E68"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="101"/>
       <c r="C69" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E69"/>
     </row>
     <row r="70" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B70" s="101"/>
       <c r="D70" s="57" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E70"/>
     </row>
@@ -13526,16 +14031,16 @@
       <c r="B71" s="101"/>
       <c r="D71" s="57"/>
       <c r="E71" s="110" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="101"/>
       <c r="C72" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D72" s="57"/>
       <c r="E72"/>
@@ -13543,7 +14048,7 @@
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="101"/>
       <c r="D73" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E73"/>
     </row>
@@ -13551,7 +14056,7 @@
       <c r="B74" s="101"/>
       <c r="D74"/>
       <c r="E74" s="57" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -13559,10 +14064,10 @@
       <c r="D75"/>
       <c r="E75" s="57"/>
       <c r="F75" s="111" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
@@ -13571,14 +14076,14 @@
       <c r="E76" s="57"/>
       <c r="F76" s="115"/>
       <c r="G76" s="110" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="101"/>
       <c r="D77"/>
       <c r="F77" s="108" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -13586,24 +14091,24 @@
       <c r="D78"/>
       <c r="F78" s="57"/>
       <c r="G78" s="106" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="101"/>
       <c r="D79" s="57"/>
       <c r="E79" s="11" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="101"/>
       <c r="D80" s="57"/>
       <c r="F80" s="111" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
@@ -13611,7 +14116,7 @@
       <c r="D81" s="57"/>
       <c r="F81" s="115"/>
       <c r="G81" s="110" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
@@ -13619,21 +14124,21 @@
       <c r="D82" s="57"/>
       <c r="F82" s="115"/>
       <c r="G82" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="101"/>
       <c r="D83" s="57"/>
       <c r="F83" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B84" s="101"/>
       <c r="D84" s="57"/>
       <c r="G84" s="106" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
@@ -13645,7 +14150,7 @@
       <c r="B86" s="101"/>
       <c r="D86" s="57"/>
       <c r="E86" s="11" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G86" s="106"/>
     </row>
@@ -13653,7 +14158,7 @@
       <c r="B87" s="101"/>
       <c r="D87" s="57"/>
       <c r="F87" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="G87" s="106"/>
     </row>
@@ -13665,911 +14170,1000 @@
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="101"/>
       <c r="C89" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E89"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="101"/>
       <c r="D90" s="11" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E90"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="101"/>
-      <c r="D91" s="11" t="s">
-        <v>880</v>
+      <c r="C91" t="s">
+        <v>894</v>
       </c>
       <c r="E91"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="101"/>
-      <c r="D92" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D92" s="110" t="s">
+        <v>896</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="101"/>
-      <c r="E93" s="106" t="s">
-        <v>946</v>
-      </c>
+      <c r="E93"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="101"/>
-      <c r="D94" s="11" t="s">
-        <v>882</v>
+      <c r="B94" s="100" t="s">
+        <v>809</v>
       </c>
       <c r="E94"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="101"/>
-      <c r="D95" s="11" t="s">
-        <v>884</v>
+      <c r="C95" t="s">
+        <v>897</v>
       </c>
       <c r="E95"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B96" s="101"/>
-      <c r="C96" t="s">
-        <v>898</v>
+      <c r="D96" s="111" t="s">
+        <v>1162</v>
       </c>
       <c r="E96"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="101"/>
-      <c r="D97" s="110" t="s">
+      <c r="B97" s="102"/>
+      <c r="C97" t="s">
+        <v>899</v>
+      </c>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="102"/>
+      <c r="D98" s="110" t="s">
         <v>900</v>
       </c>
-      <c r="E97" s="14" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="101"/>
-      <c r="E98"/>
+      <c r="E98" s="14" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="100" t="s">
-        <v>809</v>
-      </c>
+      <c r="B99" s="102"/>
       <c r="E99"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="101"/>
-      <c r="C100" t="s">
-        <v>901</v>
-      </c>
+      <c r="B100" s="87" t="s">
+        <v>782</v>
+      </c>
+      <c r="C100" s="96"/>
       <c r="E100"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="101"/>
-      <c r="D101" s="110" t="s">
-        <v>904</v>
+      <c r="C101" t="s">
+        <v>874</v>
       </c>
       <c r="E101"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="102"/>
-      <c r="C102" t="s">
-        <v>903</v>
+      <c r="B102" s="101"/>
+      <c r="D102" s="11" t="s">
+        <v>879</v>
       </c>
       <c r="E102"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="102"/>
-      <c r="D103" s="110" t="s">
-        <v>905</v>
+      <c r="B103" s="101"/>
+      <c r="D103" s="11" t="s">
+        <v>876</v>
       </c>
       <c r="E103"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="102"/>
+      <c r="B104" s="101"/>
+      <c r="D104" s="11" t="s">
+        <v>877</v>
+      </c>
       <c r="E104"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="87" t="s">
-        <v>782</v>
-      </c>
-      <c r="C105" s="96"/>
+      <c r="B105" s="101"/>
+      <c r="D105" s="11" t="s">
+        <v>878</v>
+      </c>
       <c r="E105"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="101"/>
-      <c r="C106" t="s">
-        <v>878</v>
+      <c r="D106" s="11" t="s">
+        <v>880</v>
       </c>
       <c r="E106"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="101"/>
-      <c r="D107" s="11" t="s">
-        <v>883</v>
+      <c r="B107" s="102"/>
+      <c r="C107" s="96" t="s">
+        <v>907</v>
       </c>
       <c r="E107"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="102"/>
-      <c r="C108" s="96" t="s">
-        <v>912</v>
+      <c r="C108" s="96"/>
+      <c r="D108" s="87" t="s">
+        <v>908</v>
       </c>
       <c r="E108"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="102"/>
+      <c r="B109" s="87" t="s">
+        <v>908</v>
+      </c>
       <c r="C109" s="96"/>
-      <c r="D109" s="87" t="s">
-        <v>913</v>
-      </c>
       <c r="E109"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="87" t="s">
-        <v>913</v>
-      </c>
-      <c r="C110" s="96"/>
+      <c r="B110" s="102"/>
+      <c r="C110" s="96" t="s">
+        <v>940</v>
+      </c>
       <c r="E110"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="102"/>
       <c r="C111" s="96" t="s">
-        <v>945</v>
+        <v>909</v>
       </c>
       <c r="E111"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B112" s="102"/>
-      <c r="C112" s="96" t="s">
+      <c r="C112" s="113" t="s">
+        <v>913</v>
+      </c>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B113" s="102"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="57" t="s">
         <v>914</v>
       </c>
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B113" s="102"/>
-      <c r="C113" s="113" t="s">
-        <v>918</v>
-      </c>
       <c r="E113"/>
     </row>
-    <row r="114" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B114" s="102"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="57" t="s">
-        <v>919</v>
-      </c>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="87" t="s">
+        <v>983</v>
+      </c>
+      <c r="C114" s="96"/>
       <c r="E114"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="102"/>
-      <c r="C115" s="113"/>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="3"/>
+      <c r="C115" s="96" t="s">
+        <v>1164</v>
+      </c>
       <c r="E115"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="87" t="s">
-        <v>793</v>
-      </c>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="3"/>
       <c r="C116" s="96"/>
+      <c r="D116" s="11" t="s">
+        <v>985</v>
+      </c>
       <c r="E116"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="11"/>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" s="3"/>
       <c r="C117" s="96"/>
+      <c r="D117" s="11" t="s">
+        <v>986</v>
+      </c>
       <c r="E117"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="87" t="s">
-        <v>989</v>
-      </c>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" s="3"/>
       <c r="C118" s="96"/>
-      <c r="E118"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3"/>
-      <c r="C119" s="96" t="s">
-        <v>991</v>
-      </c>
-      <c r="E119"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C119" s="96"/>
+      <c r="E119" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3"/>
       <c r="C120" s="96"/>
-      <c r="D120" s="11" t="s">
-        <v>993</v>
-      </c>
-      <c r="E120"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
       <c r="C121" s="96"/>
-      <c r="E121" s="3" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G121" s="87" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
       <c r="C122" s="96"/>
-      <c r="D122" s="11" t="s">
-        <v>994</v>
-      </c>
       <c r="E122"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="87" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
       <c r="C123" s="96"/>
-      <c r="E123" s="3" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>222</v>
+      </c>
+      <c r="F123" s="102"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3"/>
       <c r="C124" s="96"/>
-      <c r="D124" s="110" t="s">
-        <v>995</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E124"/>
+      <c r="F124" s="87" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
       <c r="C125" s="96"/>
-      <c r="D125" s="110" t="s">
-        <v>996</v>
+      <c r="D125" s="117" t="s">
+        <v>995</v>
       </c>
       <c r="E125" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
       <c r="C126" s="96"/>
-      <c r="D126" s="110" t="s">
+      <c r="D126" s="117" t="s">
+        <v>996</v>
+      </c>
+      <c r="E126" t="s">
         <v>997</v>
       </c>
-      <c r="E126" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
       <c r="C127" s="96"/>
       <c r="D127" s="110" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="E127" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
       <c r="C128" s="96"/>
-      <c r="D128" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="E128"/>
+      <c r="D128" s="110" t="s">
+        <v>988</v>
+      </c>
+      <c r="E128" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="3"/>
       <c r="C129" s="96"/>
-      <c r="E129" s="3" t="s">
-        <v>1009</v>
+      <c r="D129" s="110" t="s">
+        <v>989</v>
+      </c>
+      <c r="E129" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="3"/>
+      <c r="C130" s="96"/>
       <c r="D130" s="110" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="E130" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
       <c r="C131" s="96"/>
-      <c r="D131" s="110" t="s">
+      <c r="D131" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C132" s="96"/>
+      <c r="D132" s="110" t="s">
+        <v>992</v>
+      </c>
+      <c r="E132" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C133" s="96"/>
+      <c r="D133" s="110" t="s">
+        <v>993</v>
+      </c>
+      <c r="E133" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C134" s="96"/>
+      <c r="D134" s="96" t="s">
+        <v>994</v>
+      </c>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135" s="87" t="s">
         <v>1001</v>
       </c>
-      <c r="E131" t="s">
+      <c r="C135" s="96"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136" s="102"/>
+      <c r="C136" s="96" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137" s="102"/>
+      <c r="C137" s="96"/>
+      <c r="D137" s="3" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="3"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="96" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E132"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="3"/>
-      <c r="C133" s="96"/>
-      <c r="D133" s="96"/>
-      <c r="E133" s="3" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B134" s="3"/>
-      <c r="C134" s="96" t="s">
-        <v>992</v>
-      </c>
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="3"/>
-      <c r="C135" s="96"/>
-      <c r="D135" s="11" t="s">
-        <v>993</v>
-      </c>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="3"/>
-      <c r="C136" s="96"/>
-      <c r="D136" s="11" t="s">
-        <v>994</v>
-      </c>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="3"/>
-      <c r="C137" s="96"/>
-      <c r="E137" t="s">
-        <v>1011</v>
-      </c>
+      <c r="E137"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="3"/>
+      <c r="B138" s="102"/>
       <c r="C138" s="96"/>
       <c r="E138" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="3"/>
+      <c r="B139" s="102"/>
       <c r="C139" s="96"/>
-      <c r="E139"/>
-      <c r="F139" s="87" t="s">
-        <v>1013</v>
+      <c r="E139" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="3"/>
+      <c r="B140" s="102"/>
       <c r="C140" s="96"/>
-      <c r="E140" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F140" s="102"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="3"/>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="B141" s="102"/>
       <c r="C141" s="96"/>
-      <c r="E141"/>
-      <c r="F141" s="87" t="s">
-        <v>1029</v>
+      <c r="E141" s="193" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="3"/>
+      <c r="B142" s="102"/>
       <c r="C142" s="96"/>
       <c r="E142"/>
-      <c r="F142" s="102"/>
+      <c r="F142" s="87" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="3"/>
+      <c r="B143" s="87" t="s">
+        <v>1183</v>
+      </c>
       <c r="C143" s="96"/>
       <c r="E143"/>
-      <c r="F143" s="102"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="3"/>
+      <c r="B144" s="102"/>
       <c r="C144" s="96"/>
-      <c r="D144" s="117" t="s">
-        <v>1003</v>
-      </c>
       <c r="E144" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="3"/>
       <c r="C145" s="96"/>
-      <c r="D145" s="117" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E145"/>
+      <c r="F145" s="87" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="48" x14ac:dyDescent="0.3">
       <c r="B146" s="3"/>
       <c r="C146" s="96"/>
-      <c r="D146" s="110" t="s">
-        <v>995</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="188" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F146" s="102"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="3"/>
-      <c r="C147" s="96"/>
-      <c r="D147" s="110" t="s">
-        <v>996</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C147" s="185" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" s="102"/>
+    </row>
+    <row r="148" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
       <c r="C148" s="96"/>
-      <c r="D148" s="110" t="s">
-        <v>997</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D148" s="186" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" s="102"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B149" s="87" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C149" s="96"/>
+      <c r="E149"/>
+      <c r="F149" s="102"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B150" s="3"/>
+      <c r="C150" s="96" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" s="102"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B151" s="3"/>
+      <c r="C151" s="96"/>
+      <c r="D151" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" s="102"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B152" s="3"/>
+      <c r="C152" s="96"/>
+      <c r="D152" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152" s="102"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B153" s="3"/>
+      <c r="C153" s="96"/>
+      <c r="E153"/>
+      <c r="F153" s="102"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B154" s="3"/>
+      <c r="C154" s="96"/>
+      <c r="D154" s="110" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F154" s="102"/>
+    </row>
+    <row r="155" spans="2:6" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="B155" s="3"/>
+      <c r="C155" s="189" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D155" s="187" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E155" s="102"/>
+      <c r="F155" s="102"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B156" s="87" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C156" s="96"/>
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B157" s="3"/>
+      <c r="C157" s="96" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D157" s="102"/>
+      <c r="E157" s="102"/>
+      <c r="F157" s="102"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B158" s="3"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E158" s="102"/>
+      <c r="F158" s="102"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B159" s="3"/>
+      <c r="C159" s="96"/>
+      <c r="D159" s="96" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E159" s="102"/>
+      <c r="F159" s="102"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B160" s="3"/>
+      <c r="D160" s="96"/>
+      <c r="E160" s="102"/>
+      <c r="F160" s="102"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B161" s="3"/>
+      <c r="C161" s="96" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E161" s="102"/>
+      <c r="F161" s="102"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B162" s="3"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="3" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="3"/>
-      <c r="C149" s="96"/>
-      <c r="D149" s="110" t="s">
-        <v>998</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B150" s="3"/>
-      <c r="C150" s="96"/>
-      <c r="D150" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="E150"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C151" s="96"/>
-      <c r="D151" s="110" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C152" s="96"/>
-      <c r="D152" s="110" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C153" s="96"/>
-      <c r="D153" s="96" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E153"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C154" s="11" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C155" s="11"/>
-      <c r="D155" s="96" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C156" s="11"/>
-      <c r="D156" s="110" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C157" s="11"/>
-      <c r="D157" s="110" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B158" s="87" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C158" s="96"/>
-      <c r="E158"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B159" s="102"/>
-      <c r="C159" s="96" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E159"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B160" s="102"/>
-      <c r="C160" s="96"/>
-      <c r="D160" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E160"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B161" s="102"/>
-      <c r="C161" s="96"/>
-      <c r="E161" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B162" s="102"/>
-      <c r="C162" s="96"/>
-      <c r="E162" t="s">
-        <v>1016</v>
-      </c>
+      <c r="E162" s="102"/>
+      <c r="F162" s="102"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="3"/>
       <c r="C163" s="96"/>
-      <c r="E163"/>
-      <c r="F163" s="87" t="s">
-        <v>1023</v>
-      </c>
+      <c r="D163" s="96"/>
+      <c r="E163" s="96" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F163" s="102"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="87" t="s">
-        <v>1023</v>
-      </c>
+      <c r="B164" s="3"/>
       <c r="C164" s="96"/>
-      <c r="E164"/>
-      <c r="F164" s="102"/>
+      <c r="D164" s="96"/>
+      <c r="E164" s="102"/>
+      <c r="F164" s="87" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="3"/>
       <c r="C165" s="96" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E165"/>
+        <v>1061</v>
+      </c>
+      <c r="D165" s="96"/>
+      <c r="E165" s="102"/>
       <c r="F165" s="102"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="3"/>
       <c r="C166" s="96"/>
-      <c r="D166" s="11" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E166"/>
+      <c r="D166" s="96" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E166" s="102"/>
       <c r="F166" s="102"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
-      <c r="C167" s="96"/>
-      <c r="D167" s="110" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>1026</v>
-      </c>
+      <c r="C167" s="113" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D167" s="96"/>
+      <c r="E167" s="102"/>
       <c r="F167" s="102"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B168" s="87" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C168" s="96"/>
-      <c r="E168"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="113"/>
+      <c r="D168" s="87" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E168" s="102"/>
+      <c r="F168" s="102"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="3"/>
-      <c r="C169" s="96" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D169" s="102"/>
+      <c r="C169" s="96"/>
+      <c r="D169" s="96" t="s">
+        <v>1064</v>
+      </c>
       <c r="E169" s="102"/>
       <c r="F169" s="102"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="3"/>
-      <c r="C170" s="96"/>
-      <c r="D170" s="96" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E170" s="102"/>
-      <c r="F170" s="102"/>
+      <c r="C170" s="96" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E170"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="3"/>
-      <c r="C171" s="96"/>
-      <c r="D171" s="96" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E171" s="102"/>
-      <c r="F171" s="102"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C171" s="96" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B172" s="3"/>
-      <c r="D172" s="96"/>
-      <c r="E172" s="102"/>
-      <c r="F172" s="102"/>
+      <c r="C172" s="141" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E172"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="3"/>
-      <c r="C173" s="96" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E173" s="102"/>
-      <c r="F173" s="102"/>
+      <c r="C173" s="142" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E173"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="3"/>
-      <c r="C174" s="96"/>
-      <c r="D174" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E174" s="102"/>
-      <c r="F174" s="102"/>
+      <c r="C174" s="96" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E174"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="3"/>
       <c r="C175" s="96"/>
-      <c r="D175" s="96"/>
-      <c r="E175" s="96" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F175" s="102"/>
+      <c r="D175" s="87" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E175"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B176" s="3"/>
+      <c r="B176" s="87" t="s">
+        <v>1087</v>
+      </c>
       <c r="C176" s="96"/>
-      <c r="D176" s="96"/>
-      <c r="E176" s="102"/>
-      <c r="F176" s="87" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D176" s="102"/>
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
       <c r="C177" s="96" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D177" s="96"/>
-      <c r="E177" s="102"/>
-      <c r="F177" s="102"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+        <v>1096</v>
+      </c>
+      <c r="D177" s="102"/>
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" s="3"/>
       <c r="C178" s="96"/>
-      <c r="D178" s="96" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E178" s="102"/>
-      <c r="F178" s="102"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D178" s="102" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
-      <c r="C179" s="113" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D179" s="96"/>
-      <c r="E179" s="102"/>
-      <c r="F179" s="102"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C179" s="96"/>
+      <c r="D179" s="102"/>
+      <c r="E179" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" s="3"/>
-      <c r="C180" s="113"/>
-      <c r="D180" s="87" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E180" s="102"/>
-      <c r="F180" s="102"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C180" s="96" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D180" s="102"/>
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="3"/>
       <c r="C181" s="96"/>
-      <c r="D181" s="96" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E181" s="102"/>
-      <c r="F181" s="102"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D181" s="102" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" s="3"/>
-      <c r="C182" s="96" t="s">
-        <v>1082</v>
+      <c r="C182" s="96"/>
+      <c r="D182" s="102" t="s">
+        <v>1090</v>
       </c>
       <c r="E182"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" s="3"/>
-      <c r="C183" s="96" t="s">
-        <v>1084</v>
+      <c r="C183" s="96"/>
+      <c r="D183" s="102" t="s">
+        <v>1091</v>
       </c>
       <c r="E183"/>
     </row>
-    <row r="184" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="3"/>
-      <c r="C184" s="183" t="s">
-        <v>1114</v>
-      </c>
+      <c r="C184" s="96" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D184" s="102"/>
       <c r="E184"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="3"/>
-      <c r="C185" s="184" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E185"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C185" s="96"/>
+      <c r="D185" s="110" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" s="3"/>
-      <c r="C186" s="96" t="s">
-        <v>1083</v>
-      </c>
+      <c r="C186" s="96"/>
+      <c r="D186" s="102"/>
       <c r="E186"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B187" s="3"/>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="87" t="s">
+        <v>1069</v>
+      </c>
       <c r="C187" s="96"/>
-      <c r="D187" s="87" t="s">
-        <v>1085</v>
-      </c>
+      <c r="D187" s="3"/>
       <c r="E187"/>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B188" s="87" t="s">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B188" s="3"/>
+      <c r="C188" s="96" t="s">
         <v>1103</v>
       </c>
-      <c r="C188" s="96"/>
-      <c r="D188" s="102"/>
+      <c r="D188" s="3"/>
       <c r="E188"/>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" s="3"/>
       <c r="C189" s="96" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D189" s="102"/>
+        <v>1104</v>
+      </c>
+      <c r="D189" s="3"/>
       <c r="E189"/>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" s="3"/>
       <c r="C190" s="96"/>
-      <c r="D190" s="102" t="s">
-        <v>1111</v>
+      <c r="D190" s="87" t="s">
+        <v>1105</v>
       </c>
       <c r="E190"/>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B191" s="3"/>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B191" s="87" t="s">
+        <v>1105</v>
+      </c>
       <c r="C191" s="96"/>
-      <c r="D191" s="102"/>
-      <c r="E191" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B192" s="3"/>
-      <c r="C192" s="96" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D192" s="102"/>
+      <c r="D191" s="3"/>
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B192" s="101"/>
+      <c r="C192" t="s">
+        <v>874</v>
+      </c>
       <c r="E192"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="3"/>
-      <c r="C193" s="96"/>
-      <c r="D193" s="102" t="s">
-        <v>1105</v>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="101"/>
+      <c r="D193" s="11" t="s">
+        <v>1126</v>
       </c>
       <c r="E193"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="3"/>
-      <c r="C194" s="96"/>
-      <c r="D194" s="102" t="s">
-        <v>1106</v>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="101"/>
+      <c r="D194" s="11" t="s">
+        <v>1127</v>
       </c>
       <c r="E194"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="3"/>
-      <c r="C195" s="96"/>
-      <c r="D195" s="102" t="s">
-        <v>1107</v>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B195" s="102"/>
+      <c r="C195" s="96" t="s">
+        <v>907</v>
       </c>
       <c r="E195"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="3"/>
-      <c r="C196" s="96" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D196" s="102"/>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B196" s="102"/>
+      <c r="C196" s="96"/>
+      <c r="D196" s="87" t="s">
+        <v>1125</v>
+      </c>
       <c r="E196"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B197" s="3"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B197" s="87" t="s">
+        <v>1125</v>
+      </c>
       <c r="C197" s="96"/>
-      <c r="D197" s="110" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E197" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B198" s="3"/>
-      <c r="C198" s="96"/>
-      <c r="D198" s="102"/>
+      <c r="D197" s="3"/>
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B198" s="102"/>
+      <c r="C198" s="96" t="s">
+        <v>940</v>
+      </c>
       <c r="E198"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B199" s="87" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C199" s="96"/>
-      <c r="D199" s="3"/>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B199" s="102"/>
+      <c r="C199" s="96" t="s">
+        <v>1128</v>
+      </c>
       <c r="E199"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B200" s="3"/>
-      <c r="C200" s="96"/>
-      <c r="D200" s="3"/>
+    <row r="200" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B200" s="102"/>
+      <c r="C200" s="113" t="s">
+        <v>1129</v>
+      </c>
       <c r="E200"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B201" s="3"/>
-      <c r="C201" s="96"/>
-      <c r="D201" s="3"/>
+    <row r="201" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B201" s="102"/>
+      <c r="C201" s="113"/>
+      <c r="D201" s="57" t="s">
+        <v>914</v>
+      </c>
       <c r="E201"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B202" s="3"/>
-      <c r="C202" s="96"/>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="15"/>
+      <c r="B202" s="87" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C202" s="113"/>
       <c r="D202" s="3"/>
       <c r="E202"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B203" s="3"/>
-      <c r="C203" s="96"/>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="15"/>
+      <c r="B203" s="102"/>
+      <c r="C203" s="113" t="s">
+        <v>1168</v>
+      </c>
       <c r="D203" s="3"/>
       <c r="E203"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B204" s="3"/>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="15"/>
+      <c r="B204" s="102"/>
       <c r="C204" s="96"/>
-      <c r="D204" s="3"/>
+      <c r="D204" s="11" t="s">
+        <v>1169</v>
+      </c>
       <c r="E204"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B205" s="87" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="96"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B207" s="11"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B208" s="87" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="15"/>
+      <c r="B205" s="102"/>
+      <c r="C205" s="96"/>
+      <c r="D205" s="3"/>
+      <c r="E205" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="15"/>
+      <c r="B206" s="102"/>
+      <c r="C206" s="96"/>
+      <c r="D206" s="3"/>
+      <c r="E206" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="15"/>
+      <c r="B207" s="102"/>
+      <c r="C207" s="96" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="15"/>
+      <c r="B208" s="102"/>
+      <c r="D208" s="3"/>
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="15"/>
+      <c r="B209" s="102"/>
+      <c r="C209" s="96"/>
+      <c r="D209" s="3"/>
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="15"/>
+      <c r="B210" s="102"/>
+      <c r="C210" s="96"/>
+      <c r="D210" s="3"/>
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="15"/>
+      <c r="B211" s="102"/>
+      <c r="C211" s="96"/>
+      <c r="D211" s="3"/>
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="15"/>
+      <c r="B212" s="102"/>
+      <c r="C212" s="96"/>
+      <c r="D212" s="3"/>
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="15"/>
+      <c r="B213" s="102"/>
+      <c r="C213" s="96"/>
+      <c r="D213" s="3"/>
+      <c r="E213"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B214" s="3"/>
+      <c r="C214" s="96"/>
+      <c r="D214" s="3"/>
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B215" s="87" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="96"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B217" s="11"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B218" s="87" t="s">
         <v>501</v>
       </c>
     </row>
@@ -14588,10 +15182,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14603,568 +15197,601 @@
     <col min="5" max="5" width="66.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="180" t="s">
         <v>802</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="83" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B10" s="83" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C10" s="83" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="89" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="96" t="s">
+        <v>799</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>800</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>801</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
+        <v>941</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>942</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>943</v>
+      </c>
+      <c r="E13" s="96" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="96" t="s">
+        <v>973</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>974</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>975</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15" t="s">
+        <v>451</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B16" t="s">
+        <v>800</v>
+      </c>
+      <c r="C16" t="s">
+        <v>833</v>
+      </c>
+      <c r="E16" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B18" t="s">
+        <v>865</v>
+      </c>
+      <c r="C18" t="s">
+        <v>866</v>
+      </c>
+      <c r="E18" s="106" t="s">
         <v>867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
-        <v>799</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>800</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>801</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
-        <v>947</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>948</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>949</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
-        <v>979</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>980</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>981</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="B7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E7" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B8" t="s">
-        <v>800</v>
-      </c>
-      <c r="C8" t="s">
-        <v>834</v>
-      </c>
-      <c r="E8" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C9" t="s">
-        <v>453</v>
-      </c>
-      <c r="E9" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B10" t="s">
-        <v>869</v>
-      </c>
-      <c r="C10" t="s">
-        <v>870</v>
-      </c>
-      <c r="E10" s="106" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C11" t="s">
-        <v>448</v>
-      </c>
-      <c r="E11" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="B12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="E12" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="B13" t="s">
-        <v>427</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="E13" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C14" t="s">
-        <v>455</v>
-      </c>
-      <c r="E14" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>446</v>
-      </c>
-      <c r="B15" t="s">
-        <v>427</v>
-      </c>
-      <c r="C15" t="s">
-        <v>447</v>
-      </c>
-      <c r="D15" t="s">
-        <v>803</v>
-      </c>
-      <c r="E15" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>413</v>
-      </c>
-      <c r="B16" t="s">
-        <v>427</v>
-      </c>
-      <c r="C16" t="s">
-        <v>449</v>
-      </c>
-      <c r="D16" t="s">
-        <v>803</v>
-      </c>
-      <c r="E16" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>493</v>
-      </c>
-      <c r="B17" t="s">
-        <v>468</v>
-      </c>
-      <c r="C17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D17" t="s">
-        <v>804</v>
-      </c>
-      <c r="E17" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>469</v>
-      </c>
-      <c r="B18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C18" t="s">
-        <v>496</v>
-      </c>
-      <c r="D18" t="s">
-        <v>804</v>
-      </c>
-      <c r="E18" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>941</v>
+        <v>412</v>
       </c>
       <c r="B19" t="s">
-        <v>869</v>
+        <v>427</v>
       </c>
       <c r="C19" t="s">
-        <v>942</v>
-      </c>
-      <c r="D19" t="s">
-        <v>804</v>
+        <v>448</v>
       </c>
       <c r="E19" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>943</v>
+      <c r="A20" s="11" t="s">
+        <v>851</v>
       </c>
       <c r="B20" t="s">
-        <v>869</v>
-      </c>
-      <c r="C20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D20" t="s">
-        <v>804</v>
+        <v>427</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>853</v>
       </c>
       <c r="E20" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>893</v>
+      <c r="A21" s="11" t="s">
+        <v>852</v>
       </c>
       <c r="B21" t="s">
-        <v>869</v>
-      </c>
-      <c r="C21" t="s">
-        <v>894</v>
+        <v>427</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>854</v>
       </c>
       <c r="E21" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>414</v>
+      <c r="A22" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="B22" t="s">
         <v>427</v>
       </c>
       <c r="C22" t="s">
-        <v>895</v>
+        <v>455</v>
       </c>
       <c r="E22" t="s">
-        <v>896</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="B23" t="s">
         <v>427</v>
       </c>
       <c r="C23" t="s">
-        <v>487</v>
+        <v>447</v>
+      </c>
+      <c r="D23" t="s">
+        <v>803</v>
       </c>
       <c r="E23" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C24" t="s">
-        <v>429</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>862</v>
+        <v>449</v>
+      </c>
+      <c r="D24" t="s">
+        <v>803</v>
+      </c>
+      <c r="E24" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="82" t="s">
-        <v>417</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>430</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>431</v>
+      <c r="A25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B25" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D25" t="s">
+        <v>804</v>
+      </c>
+      <c r="E25" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B26" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C26" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="D26" t="s">
         <v>804</v>
       </c>
+      <c r="E26" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>474</v>
+        <v>936</v>
       </c>
       <c r="B27" t="s">
-        <v>466</v>
+        <v>865</v>
       </c>
       <c r="C27" t="s">
-        <v>475</v>
+        <v>937</v>
       </c>
       <c r="D27" t="s">
         <v>804</v>
       </c>
       <c r="E27" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>476</v>
+        <v>938</v>
       </c>
       <c r="B28" t="s">
-        <v>466</v>
+        <v>865</v>
       </c>
       <c r="C28" t="s">
-        <v>477</v>
+        <v>939</v>
       </c>
       <c r="D28" t="s">
         <v>804</v>
       </c>
       <c r="E28" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>425</v>
+        <v>889</v>
       </c>
       <c r="B29" t="s">
-        <v>433</v>
+        <v>865</v>
       </c>
       <c r="C29" t="s">
-        <v>438</v>
-      </c>
-      <c r="D29" t="s">
-        <v>803</v>
+        <v>890</v>
+      </c>
+      <c r="E29" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B30" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C30" t="s">
-        <v>439</v>
-      </c>
-      <c r="D30" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+      <c r="E30" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
         <v>427</v>
       </c>
       <c r="C31" t="s">
-        <v>461</v>
-      </c>
-      <c r="E31" s="106" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+      <c r="E31" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="B32" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="C32" t="s">
-        <v>460</v>
-      </c>
-      <c r="E32" s="106" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>419</v>
-      </c>
-      <c r="B33" t="s">
-        <v>427</v>
-      </c>
-      <c r="C33" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B34" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C34" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+      <c r="D34" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="B35" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="C35" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+      <c r="D35" t="s">
+        <v>804</v>
+      </c>
+      <c r="E35" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="B36" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="C36" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="D36" t="s">
+        <v>804</v>
+      </c>
+      <c r="E36" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>486</v>
+        <v>425</v>
       </c>
       <c r="B37" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="C37" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="D37" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="B38" t="s">
         <v>433</v>
       </c>
       <c r="C38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="D38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>861</v>
+        <v>418</v>
       </c>
       <c r="B39" t="s">
         <v>427</v>
       </c>
       <c r="C39" t="s">
+        <v>461</v>
+      </c>
+      <c r="E39" s="106" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>459</v>
+      </c>
+      <c r="B40" t="s">
+        <v>450</v>
+      </c>
+      <c r="C40" t="s">
+        <v>460</v>
+      </c>
+      <c r="E40" s="106" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41" t="s">
+        <v>494</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B42" t="s">
+        <v>463</v>
+      </c>
+      <c r="C42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>420</v>
+      </c>
+      <c r="B43" t="s">
+        <v>430</v>
+      </c>
+      <c r="C43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>421</v>
+      </c>
+      <c r="B44" t="s">
+        <v>430</v>
+      </c>
+      <c r="C44" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>486</v>
+      </c>
+      <c r="B45" t="s">
+        <v>479</v>
+      </c>
+      <c r="C45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46" t="s">
+        <v>433</v>
+      </c>
+      <c r="C46" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>857</v>
+      </c>
+      <c r="B47" t="s">
+        <v>427</v>
+      </c>
+      <c r="C47" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>423</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" t="s">
         <v>430</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C48" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>424</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B49" t="s">
         <v>433</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C49" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="89" t="s">
-        <v>866</v>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="89" t="s">
+        <v>862</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/한투_금상_작업중.xlsx
+++ b/한투_금상_작업중.xlsx
@@ -23,11 +23,13 @@
     <sheet name="5-1. 구조체-전송대상" sheetId="10" r:id="rId9"/>
     <sheet name="5-2. 구조체-송신확인" sheetId="14" r:id="rId10"/>
     <sheet name="5-2. 구조체-이메일 전송 포멧" sheetId="15" r:id="rId11"/>
-    <sheet name="5-2. 변수명" sheetId="11" r:id="rId12"/>
-    <sheet name="5-3. 함수명" sheetId="12" r:id="rId13"/>
-    <sheet name="쓰레기. 구조체 2개로" sheetId="13" r:id="rId14"/>
+    <sheet name="5-2. 구조체-팩스 Report 포멧" sheetId="16" r:id="rId12"/>
+    <sheet name="5-2. 변수명" sheetId="11" r:id="rId13"/>
+    <sheet name="5-3. 함수명" sheetId="12" r:id="rId14"/>
+    <sheet name="쓰레기. 구조체 2개로" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="1258">
   <si>
     <t xml:space="preserve"> - SCCMainForm - FormCreate - gvMenuList(MenuItem)에 SUMENU_TBL의 메뉴 리스트를 집어 넣는다.(EXCEPT_DEPT_CODE 만 제외하고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3189,10 +3191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F.RCV_NAME_KOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E.RCV_COMP_KOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3378,14 +3376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC_NO = (CASE WHEN M.PRD_NO = '' THEN M.ACC_NO
-        ELSE (CASE WHEN M.BLC_NO = '' THEN M.ACC_NO + '-' + M.PRD_NO
-          ELSE M.ACC_NO + '-' + M.PRD_NO + '-' + M.BLC_NO
-        END)
-      END)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Boolean;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3949,10 +3939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>실제 파일 생성 호출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fn_ChkMailRptFile 함수 호출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4132,10 +4118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fn_AddSntMailList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>procedure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4181,10 +4163,6 @@
   </si>
   <si>
     <t>전송 후 SndList Update &amp; 전송대상 화면 Refresh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddSntMailList 함수 호출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4322,10 +4300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>당일송신확인 - E-mail 전송 후 리스트에 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>당일송신확인 그리드 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4461,32 +4435,7 @@
     <t xml:space="preserve">gcFAXTLX_RSPF_FIN   = 9; </t>
   </si>
   <si>
-    <t>파일명 가져올 때, 한 폴더내에 겹치는 파일명 있으면 뒤에 순번 매겨야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일명은 내가 확정해서 보고서 생성 함수로넘긴다.
- -&gt; 파일명 Retrun 받지 않음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> TSndMailData = record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  pTSndMailData  = ^TSndMailData;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S.JOB_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SEND_TYPE = FAX: FAX, E-mail: E-mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.EMP_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4511,10 +4460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U.USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SZMAIN_INS - M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4539,39 +4484,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M.ACC_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.PRD_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.BLC_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.ACC_NAME_KOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S.STRT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S.SENT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SND.SND_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FAX 전송 부분 끝내고, 어떤 테이블에 들어가야되는지 정리 끝나면
- E-mail 부분이랑 UNION에서 쿼리 작성부터 들어가기로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개발 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4596,31 +4512,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">국제 전화 없음 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SndFmtItem.sIntelYn := 'N'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SndFmtItem.sNatCode := ''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReportList 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호출한 dll(LIB_RPT.DLL)에서 파일 이름 리턴받을 필요 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DLL로 넘길 때, 파일이름 정해서 넘긴다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fn_CreateMailRptFile 함수 호출로 파일 정상적으로 떨궈졌는지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4655,15 +4547,447 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일 있으면 USerDATa 파일 명 리턴, 없으면 TEmp 파일명 리턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 경로(내일 하자)에 똑같은 파일명 있는지 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fn_MakeRptFileName 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZREPIF_INS 테이블에서 Report Code별 파일명(ADD_FILENAME) 가져온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_MakeRptFileName 함수로 넘어온 경로에 만드려는 파일명이 있는지 체크한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명이 존재 한다면 파일명 뒤에 순번 (1, 2, 3...) 붙인 파일명을 리턴한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성하려고 하는 경로에 생성하려는 파일명 있는지 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 파일 생성 및 파일명 호출
+ (CallFlag = True: 이메일 전송 - 파일생성, 
+  CallFlag = False: 갱신, 파일보기 등 - 파일명만 리턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserData에 파일 있으면
+ -&gt; C:\SettleNet\Client\UserData\파일명 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserData에 파일 없으면 
+ -&gt; C:\SettleNet\Client\Temp\파일명 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 값:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 정상적으로 생성 되면 True 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 비 정상적으로 생성 되면 False 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 컬럼(ADD_FILENAME)에서 지정한 순서대로 
+파일명이 출력되게 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iSndTotSeqNo - gcSND_MTD_FAX_IDX = '6';  -&gt; 뭉텅이로 보낼 때 ??? 전송취소 부분이랑 관련 있는 듯
+ -&gt; SCFAXSND_TBL 테이블의 SND_TOT_SEQ_NO
+iIdxSeqNo - gcSND_MTD_IMG_IDX = '5';    -&gt; 이미지 인덱스 
+ -&gt; SCFAXIMG_TBL 테이블의 IDX_SEQ_NO
+ -&gt; SCFAXSND_TBL 테이블의 IDX_SEQ_NO
+ -&gt; pReportInfo.iIdxSeqNo    := iIdxSeqNo;
+iCurTotSeqNo - gcSND_MTD_FAX     = '2';   -&gt; 전송 인덱스
+ -&gt; SCFAXSND_TBL 테이블의 CUR_TOT_SEQ_NO
+ -&gt; pReportInfo.iCurTotSeqNo := iCurTotSeqNo;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX 전송 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnFAXDataSend_TFFI(pFaxSndFormat : pFAXTLXSendFormat;
+                        tReportList  : TList; var StartTime : String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TSndMailData_TFFI = record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pTSndMailData_TFFI   = ^TSndMailData_TFFI ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TFaxReportList_TFFI = record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pTFaxReportList_TFFI  = ^TFaxReportList_TFFI;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> string[1];</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> string[7];</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integer;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sSecCode      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sTradeDate    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sReportType   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sReportId     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sDirection    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sJobDate      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iJobSeq       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iTotalPageCnt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sFileName     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iCurTotSeqNo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iIdxSeqNo     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 업무구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보고서 방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보고서 총 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보고서 파일 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보고서 전송 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보고서 IMG 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX REPORT 구조체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail 전송 포멧 구조체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportList 생성 - ReportItem  : pTFaxReportList_TFFI; 구조체 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCFAXIMG_TBL에 동일 IMG 인덱스 없으면 보고서 파일 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_CreateMailRptFile 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPORT 구조체 완성 되면 서버로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnFaxDataSend_TFFI 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_SEQ_NO 채번 (동시 전송 처리 SEQ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPORT 구조체에 보고서 IMG SEQ 존재하면 
+SCFAXIMG_TBL 에서 해당 보고서 정보 가져온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCFAXIMG_TBL에 REPORT 구조체 정보를 INSERT 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPORT 구조체에 보고서 IMG SEQ 존재하지 않으면
+보고서 IMG SEQ 채번한다. -&gt; IDX_SEQ_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUR_TOT_SEQ_NO 채번(SCFAXSND_TBL에 들어가는 SEQ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCFAXSND_TBL에 전송 내역을 INSERT 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZFAXSNT_INS에 전송 내역을 INSERT 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 시도한 내역 정보 Update (Seq 등..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송신 확인 내역 리스트에 전송 시도한 내역 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax 동일 Report IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSntList 함수 호출</t>
+  </si>
+  <si>
+    <t>AddSntList 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX, E-mail 공통부 데이터 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX, E-mail 별 데이터 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snt StringGrid 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn_AddSntList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_ACC_NO = (CASE WHEN M.PRD_NO = '' THEN M.ACC_NO
+        ELSE (CASE WHEN M.BLC_NO = '' THEN M.ACC_NO + '-' + M.PRD_NO
+          ELSE M.ACC_NO + '-' + M.PRD_NO + '-' + M.BLC_NO
+        END)
+      END)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.JOB_SEQ (SZFAXSNT_INS OR SZMELSNT_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.EMP_ID (SZMAIN_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.USER_NAME (SUUSER_TBL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.FULL_ACC_NO (SZMAIN_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.ACC_NO (SZMAIN_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.BLC_NO (SZMAIN_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.PRD_NO (SZMAIN_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.ACC_NAME_KOR (SZACBIF_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.MEDIA_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_RCV_NAME_KOR = F.RCV_NAME_KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_RCV_NAME_KOR = E.RCV_NAME_KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_RCV_NAME_KOR = SND.RCV_NAME_KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_RCV_NAME_KOR = SND.RCV_MAIL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.RCV_MAIL_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.REPORT_CODE (SZREPIF_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.REPORT_ID (SZREPID_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNT.VIEW_FILENAME (SZREPIF_INS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.SUBJECT_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONVERT(VARCHAR(8000), SND.MAIL_BODY_DATA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.SENT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.DIFF_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.SEND_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.BUSY_RESND_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.RSP_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.CUR_TOT_SEQ_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.ERR_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.EXT_MSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.OPR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.OPR_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND.SEND_TIME (SND.STRT_TIME ?? SND.SEND_TIME ??)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG.TOTAL_PAGES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG.DIRECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일송신확인 - 전송 후 리스트에 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">동일한 계좌, 동일한 수신처, 동일한 보고서를 보낼 경우... 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마지막 전송 내역만 업데이트 해야 할까?? 
+아니면 그냥 전송한 내역은 모두 찍을까??</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -&gt; 전송한 내역은 모두 찍자, 회차 없애기로 했으니</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX 구조체 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail 구조체 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildSntFaxItem 함수 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildSntMailItem 함수 호출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4671,7 +4995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4785,24 +5109,6 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="30"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -5204,7 +5510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5619,21 +5925,39 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5703,9 +6027,36 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5715,33 +6066,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5751,30 +6075,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5784,8 +6093,11 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7274,13 +7586,13 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="144" t="s">
+      <c r="I2" s="150" t="s">
         <v>382</v>
       </c>
-      <c r="J2" s="144"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="149" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -7300,7 +7612,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="143"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -7318,7 +7630,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="143"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
@@ -7336,7 +7648,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="143"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
@@ -7354,7 +7666,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="143"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="6" t="s">
         <v>252</v>
       </c>
@@ -7730,10 +8042,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7741,613 +8053,608 @@
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1150</v>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="186" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1153</v>
+      <c r="A3" s="89" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="96" t="s">
+        <v>799</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>944</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="96" t="s">
+        <v>939</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>940</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>941</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="180" t="s">
-        <v>969</v>
-      </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
-        <v>443</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>441</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>442</v>
+      <c r="A6" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" t="s">
+        <v>832</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>865</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="89" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96" t="s">
-        <v>799</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>450</v>
-      </c>
-      <c r="C10" s="96" t="s">
-        <v>946</v>
-      </c>
-      <c r="E10" s="96" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="96" t="s">
-        <v>941</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>942</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>943</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>1143</v>
+      <c r="A9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>798</v>
+      <c r="A12" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E12" t="s">
-        <v>1145</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>832</v>
+      <c r="A13" t="s">
+        <v>446</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C13" t="s">
-        <v>833</v>
+        <v>447</v>
+      </c>
+      <c r="D13" t="s">
+        <v>803</v>
       </c>
       <c r="E13" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>864</v>
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>413</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C14" t="s">
-        <v>866</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>867</v>
+        <v>449</v>
+      </c>
+      <c r="D14" t="s">
+        <v>803</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1155</v>
+        <v>495</v>
+      </c>
+      <c r="D15" t="s">
+        <v>804</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>851</v>
+      <c r="A16" t="s">
+        <v>469</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1156</v>
+        <v>468</v>
+      </c>
+      <c r="C16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" t="s">
+        <v>804</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>852</v>
+      <c r="A17" t="s">
+        <v>934</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1157</v>
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>935</v>
+      </c>
+      <c r="D17" t="s">
+        <v>804</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>454</v>
+      <c r="A18" t="s">
+        <v>936</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="C18" t="s">
-        <v>455</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1158</v>
+        <v>937</v>
+      </c>
+      <c r="D18" t="s">
+        <v>804</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>887</v>
       </c>
       <c r="B19" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="C19" t="s">
-        <v>447</v>
-      </c>
-      <c r="D19" t="s">
-        <v>803</v>
+        <v>888</v>
       </c>
       <c r="E19" t="s">
-        <v>826</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
         <v>427</v>
       </c>
       <c r="C20" t="s">
-        <v>449</v>
-      </c>
-      <c r="D20" t="s">
-        <v>803</v>
+        <v>889</v>
       </c>
       <c r="E20" t="s">
-        <v>825</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="C21" t="s">
-        <v>495</v>
-      </c>
-      <c r="D21" t="s">
-        <v>804</v>
+        <v>487</v>
       </c>
       <c r="E21" t="s">
-        <v>827</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>968</v>
       </c>
       <c r="B22" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C22" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="D22" t="s">
         <v>804</v>
       </c>
-      <c r="E22" t="s">
-        <v>828</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>936</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C23" t="s">
-        <v>937</v>
+        <v>475</v>
       </c>
       <c r="D23" t="s">
         <v>804</v>
       </c>
       <c r="E23" t="s">
-        <v>827</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>938</v>
+        <v>476</v>
       </c>
       <c r="B24" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C24" t="s">
-        <v>939</v>
+        <v>477</v>
       </c>
       <c r="D24" t="s">
         <v>804</v>
       </c>
       <c r="E24" t="s">
-        <v>828</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>889</v>
+        <v>418</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C25" t="s">
-        <v>890</v>
+        <v>461</v>
       </c>
       <c r="E25" t="s">
-        <v>829</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="C26" t="s">
-        <v>891</v>
+        <v>460</v>
       </c>
       <c r="E26" t="s">
-        <v>892</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B27" t="s">
         <v>427</v>
       </c>
       <c r="C27" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E27" t="s">
-        <v>830</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="B28" t="s">
-        <v>472</v>
+        <v>947</v>
       </c>
       <c r="C28" t="s">
-        <v>473</v>
-      </c>
-      <c r="D28" t="s">
-        <v>804</v>
+        <v>951</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>474</v>
-      </c>
-      <c r="B29" t="s">
-        <v>466</v>
-      </c>
-      <c r="C29" t="s">
-        <v>475</v>
-      </c>
-      <c r="D29" t="s">
-        <v>804</v>
-      </c>
-      <c r="E29" t="s">
-        <v>831</v>
+      <c r="A29" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>959</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>476</v>
+        <v>948</v>
       </c>
       <c r="B30" t="s">
-        <v>466</v>
+        <v>947</v>
       </c>
       <c r="C30" t="s">
-        <v>477</v>
+        <v>960</v>
       </c>
       <c r="D30" t="s">
-        <v>804</v>
-      </c>
-      <c r="E30" t="s">
-        <v>835</v>
+        <v>803</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>418</v>
+        <v>949</v>
       </c>
       <c r="B31" t="s">
-        <v>427</v>
+        <v>947</v>
       </c>
       <c r="C31" t="s">
-        <v>461</v>
+        <v>950</v>
+      </c>
+      <c r="D31" t="s">
+        <v>803</v>
       </c>
       <c r="E31" t="s">
-        <v>1159</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>459</v>
+        <v>952</v>
       </c>
       <c r="B32" t="s">
-        <v>450</v>
+        <v>947</v>
       </c>
       <c r="C32" t="s">
-        <v>460</v>
+        <v>953</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1097</v>
       </c>
       <c r="E32" t="s">
-        <v>1160</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>419</v>
+        <v>954</v>
       </c>
       <c r="B33" t="s">
-        <v>427</v>
+        <v>947</v>
       </c>
       <c r="C33" t="s">
-        <v>494</v>
+        <v>955</v>
       </c>
       <c r="E33" t="s">
-        <v>1161</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="82" t="s">
-        <v>947</v>
-      </c>
-      <c r="B34" s="82" t="s">
-        <v>450</v>
-      </c>
-      <c r="C34" s="82" t="s">
-        <v>961</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>1102</v>
+      <c r="A34" t="s">
+        <v>465</v>
+      </c>
+      <c r="B34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C34" t="s">
+        <v>456</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>948</v>
+        <v>423</v>
       </c>
       <c r="B35" t="s">
-        <v>949</v>
+        <v>430</v>
       </c>
       <c r="C35" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>950</v>
+        <v>424</v>
       </c>
       <c r="B36" t="s">
-        <v>949</v>
+        <v>433</v>
       </c>
       <c r="C36" t="s">
-        <v>962</v>
-      </c>
-      <c r="D36" t="s">
-        <v>803</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="B37" t="s">
-        <v>949</v>
+        <v>450</v>
       </c>
       <c r="C37" t="s">
-        <v>952</v>
-      </c>
-      <c r="D37" t="s">
-        <v>803</v>
+        <v>961</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>954</v>
-      </c>
-      <c r="B38" t="s">
-        <v>949</v>
-      </c>
-      <c r="C38" t="s">
-        <v>955</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1102</v>
+      <c r="A38" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="B39" t="s">
-        <v>949</v>
+        <v>450</v>
       </c>
       <c r="C39" t="s">
-        <v>957</v>
+        <v>966</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>486</v>
+        <v>957</v>
       </c>
       <c r="B40" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>958</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>465</v>
+        <v>963</v>
       </c>
       <c r="B41" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="C41" t="s">
-        <v>456</v>
+        <v>964</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>423</v>
-      </c>
-      <c r="B42" t="s">
-        <v>430</v>
-      </c>
-      <c r="C42" t="s">
-        <v>945</v>
+      <c r="A42" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>424</v>
-      </c>
-      <c r="B43" t="s">
-        <v>433</v>
-      </c>
-      <c r="C43" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>958</v>
-      </c>
-      <c r="B44" t="s">
-        <v>450</v>
-      </c>
-      <c r="C44" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>857</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>967</v>
-      </c>
-      <c r="B46" t="s">
-        <v>450</v>
-      </c>
-      <c r="C46" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>959</v>
-      </c>
-      <c r="B47" t="s">
-        <v>450</v>
-      </c>
-      <c r="C47" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>965</v>
-      </c>
-      <c r="B48" t="s">
-        <v>450</v>
-      </c>
-      <c r="C48" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="89" t="s">
-        <v>1101</v>
+      <c r="A43" s="89" t="s">
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8362,8 +8669,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8376,27 +8683,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="A1" s="187" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
-        <v>969</v>
-      </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
+      <c r="A3" s="186" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
@@ -8409,180 +8716,180 @@
         <v>442</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
-        <v>1141</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="96" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B6" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C6" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="96" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C7" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="96" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B8" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C8" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="96" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B9" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C9" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="96" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B10" t="s">
         <v>466</v>
       </c>
       <c r="C10" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="96" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B11" t="s">
         <v>466</v>
       </c>
       <c r="C11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B12" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C12" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="96" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B13" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C13" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="96" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B14" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C14" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="96" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B15" t="s">
         <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="96" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B16" t="s">
         <v>466</v>
       </c>
       <c r="C16" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="96" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B17" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C17" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="96" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B18" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C18" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="96" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B19" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C19" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="96" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B20" t="s">
         <v>484</v>
       </c>
       <c r="C20" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8592,7 +8899,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="89" t="s">
-        <v>1142</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -8608,10 +8915,214 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="187" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+    </row>
+    <row r="3" spans="1:5" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="186" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+    </row>
+    <row r="4" spans="1:5" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="96" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="96" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="96" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="96" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="96" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="96" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="96" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="96" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="96" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N92"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8643,10 +9154,10 @@
       <c r="D2" s="95" t="s">
         <v>536</v>
       </c>
-      <c r="F2" s="183" t="s">
+      <c r="F2" s="190" t="s">
         <v>515</v>
       </c>
-      <c r="G2" s="183"/>
+      <c r="G2" s="190"/>
       <c r="H2" s="95" t="s">
         <v>516</v>
       </c>
@@ -8667,7 +9178,7 @@
       <c r="D3" s="90" t="s">
         <v>692</v>
       </c>
-      <c r="F3" s="182" t="s">
+      <c r="F3" s="189" t="s">
         <v>554</v>
       </c>
       <c r="G3" s="90" t="s">
@@ -8697,23 +9208,23 @@
       <c r="D4" s="90" t="s">
         <v>692</v>
       </c>
-      <c r="F4" s="182"/>
+      <c r="F4" s="189"/>
       <c r="G4" s="114" t="s">
         <v>208</v>
       </c>
       <c r="H4" s="114" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I4" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="J4" s="184" t="s">
-        <v>918</v>
-      </c>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
+      <c r="J4" s="188" t="s">
+        <v>916</v>
+      </c>
+      <c r="K4" s="188"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
     </row>
     <row r="5" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90" t="s">
@@ -8728,21 +9239,21 @@
       <c r="D5" s="90" t="s">
         <v>692</v>
       </c>
-      <c r="F5" s="182"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="114" t="s">
         <v>212</v>
       </c>
       <c r="H5" s="114" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I5" s="114" t="s">
         <v>567</v>
       </c>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
     </row>
     <row r="6" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92" t="s">
@@ -8757,21 +9268,21 @@
       <c r="D6" s="90" t="s">
         <v>537</v>
       </c>
-      <c r="F6" s="182"/>
+      <c r="F6" s="189"/>
       <c r="G6" s="114" t="s">
         <v>213</v>
       </c>
       <c r="H6" s="114" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I6" s="114" t="s">
         <v>568</v>
       </c>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
     </row>
     <row r="7" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="92" t="s">
@@ -8786,21 +9297,21 @@
       <c r="D7" s="90" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="182"/>
+      <c r="F7" s="189"/>
       <c r="G7" s="114" t="s">
         <v>214</v>
       </c>
       <c r="H7" s="114" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I7" s="114" t="s">
         <v>569</v>
       </c>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
     </row>
     <row r="8" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="92" t="s">
@@ -8815,7 +9326,7 @@
       <c r="D8" s="90" t="s">
         <v>691</v>
       </c>
-      <c r="F8" s="182"/>
+      <c r="F8" s="189"/>
       <c r="G8" s="90" t="s">
         <v>215</v>
       </c>
@@ -8843,7 +9354,7 @@
       <c r="D9" s="90" t="s">
         <v>691</v>
       </c>
-      <c r="F9" s="182"/>
+      <c r="F9" s="189"/>
       <c r="G9" s="90" t="s">
         <v>216</v>
       </c>
@@ -8868,7 +9379,7 @@
       <c r="C10" s="90" t="s">
         <v>511</v>
       </c>
-      <c r="F10" s="182"/>
+      <c r="F10" s="189"/>
       <c r="G10" s="90" t="s">
         <v>210</v>
       </c>
@@ -8889,7 +9400,7 @@
       <c r="C11" s="90" t="s">
         <v>512</v>
       </c>
-      <c r="F11" s="182"/>
+      <c r="F11" s="189"/>
       <c r="G11" s="90" t="s">
         <v>217</v>
       </c>
@@ -8910,7 +9421,7 @@
       <c r="C12" s="90" t="s">
         <v>511</v>
       </c>
-      <c r="F12" s="182"/>
+      <c r="F12" s="189"/>
       <c r="G12" s="90" t="s">
         <v>555</v>
       </c>
@@ -8931,7 +9442,7 @@
       <c r="C13" s="90" t="s">
         <v>512</v>
       </c>
-      <c r="F13" s="182"/>
+      <c r="F13" s="189"/>
       <c r="G13" s="90" t="s">
         <v>556</v>
       </c>
@@ -8952,7 +9463,7 @@
       <c r="C14" s="90" t="s">
         <v>513</v>
       </c>
-      <c r="F14" s="182"/>
+      <c r="F14" s="189"/>
       <c r="G14" s="90" t="s">
         <v>557</v>
       </c>
@@ -8964,7 +9475,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="189" t="s">
         <v>521</v>
       </c>
       <c r="B15" s="90" t="s">
@@ -8973,7 +9484,7 @@
       <c r="C15" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F15" s="174" t="s">
+      <c r="F15" s="175" t="s">
         <v>579</v>
       </c>
       <c r="G15" s="90" t="s">
@@ -8987,14 +9498,14 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="90" t="s">
         <v>506</v>
       </c>
       <c r="C16" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F16" s="174"/>
+      <c r="F16" s="175"/>
       <c r="G16" s="90" t="s">
         <v>208</v>
       </c>
@@ -9005,15 +9516,15 @@
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="189"/>
       <c r="B17" s="90" t="s">
         <v>602</v>
       </c>
       <c r="C17" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F17" s="174"/>
+      <c r="F17" s="175"/>
       <c r="G17" s="90" t="s">
         <v>213</v>
       </c>
@@ -9024,15 +9535,15 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="189"/>
       <c r="B18" s="90" t="s">
         <v>603</v>
       </c>
       <c r="C18" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F18" s="174"/>
+      <c r="F18" s="175"/>
       <c r="G18" s="90" t="s">
         <v>214</v>
       </c>
@@ -9042,19 +9553,20 @@
       <c r="I18" s="90" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="91" t="s">
+        <v>844</v>
+      </c>
+      <c r="B19" s="91" t="s">
         <v>845</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="C19" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C19" s="91" t="s">
-        <v>847</v>
-      </c>
       <c r="D19" s="91"/>
-      <c r="F19" s="174"/>
+      <c r="F19" s="175"/>
       <c r="G19" s="90" t="s">
         <v>215</v>
       </c>
@@ -9065,7 +9577,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="90" t="s">
         <v>538</v>
       </c>
@@ -9075,7 +9587,7 @@
       <c r="C20" s="90" t="s">
         <v>539</v>
       </c>
-      <c r="F20" s="174"/>
+      <c r="F20" s="175"/>
       <c r="G20" s="90" t="s">
         <v>216</v>
       </c>
@@ -9086,7 +9598,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="90" t="s">
         <v>543</v>
       </c>
@@ -9099,7 +9611,7 @@
       <c r="D21" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F21" s="174"/>
+      <c r="F21" s="175"/>
       <c r="G21" s="90" t="s">
         <v>210</v>
       </c>
@@ -9110,7 +9622,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="90" t="s">
         <v>544</v>
       </c>
@@ -9123,7 +9635,7 @@
       <c r="D22" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F22" s="174"/>
+      <c r="F22" s="175"/>
       <c r="G22" s="90" t="s">
         <v>217</v>
       </c>
@@ -9134,7 +9646,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="90" t="s">
         <v>545</v>
       </c>
@@ -9147,7 +9659,7 @@
       <c r="D23" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F23" s="174"/>
+      <c r="F23" s="175"/>
       <c r="G23" s="90" t="s">
         <v>582</v>
       </c>
@@ -9158,8 +9670,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="182" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="189" t="s">
         <v>522</v>
       </c>
       <c r="B24" s="90" t="s">
@@ -9168,7 +9680,7 @@
       <c r="C24" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F24" s="174"/>
+      <c r="F24" s="175"/>
       <c r="G24" s="90" t="s">
         <v>556</v>
       </c>
@@ -9179,15 +9691,15 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="189"/>
       <c r="B25" s="90" t="s">
         <v>507</v>
       </c>
       <c r="C25" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F25" s="174"/>
+      <c r="F25" s="175"/>
       <c r="G25" s="90" t="s">
         <v>583</v>
       </c>
@@ -9198,15 +9710,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="182"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="189"/>
       <c r="B26" s="90" t="s">
         <v>605</v>
       </c>
       <c r="C26" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F26" s="174"/>
+      <c r="F26" s="175"/>
       <c r="G26" s="90" t="s">
         <v>584</v>
       </c>
@@ -9217,8 +9729,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="182" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="189" t="s">
         <v>523</v>
       </c>
       <c r="B27" s="90" t="s">
@@ -9227,7 +9739,7 @@
       <c r="C27" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="F27" s="174"/>
+      <c r="F27" s="175"/>
       <c r="G27" s="90" t="s">
         <v>585</v>
       </c>
@@ -9238,8 +9750,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="182"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="189"/>
       <c r="B28" s="90" t="s">
         <v>508</v>
       </c>
@@ -9256,8 +9768,8 @@
         <v>702</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="189"/>
       <c r="B29" s="90" t="s">
         <v>509</v>
       </c>
@@ -9274,7 +9786,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="90" t="s">
         <v>541</v>
       </c>
@@ -9284,20 +9796,20 @@
       <c r="C30" s="90" t="s">
         <v>539</v>
       </c>
-      <c r="F30" s="174" t="s">
+      <c r="F30" s="175" t="s">
+        <v>835</v>
+      </c>
+      <c r="G30" s="90" t="s">
         <v>836</v>
       </c>
-      <c r="G30" s="90" t="s">
-        <v>837</v>
-      </c>
       <c r="H30" s="90" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I30" s="90" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="90" t="s">
         <v>580</v>
       </c>
@@ -9310,18 +9822,18 @@
       <c r="D31" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F31" s="174"/>
+      <c r="F31" s="175"/>
       <c r="G31" s="90" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I31" s="90" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="90" t="s">
         <v>552</v>
       </c>
@@ -9334,15 +9846,15 @@
       <c r="D32" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="F32" s="174"/>
+      <c r="F32" s="175"/>
       <c r="G32" s="90" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I32" s="90" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -9359,16 +9871,16 @@
         <v>669</v>
       </c>
       <c r="F33" s="34" t="s">
+        <v>867</v>
+      </c>
+      <c r="G33" s="109" t="s">
+        <v>868</v>
+      </c>
+      <c r="H33" s="90" t="s">
         <v>869</v>
       </c>
-      <c r="G33" s="109" t="s">
+      <c r="I33" s="109" t="s">
         <v>870</v>
-      </c>
-      <c r="H33" s="90" t="s">
-        <v>871</v>
-      </c>
-      <c r="I33" s="109" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -9381,20 +9893,20 @@
       <c r="C34" s="90" t="s">
         <v>644</v>
       </c>
-      <c r="F34" s="174" t="s">
-        <v>1106</v>
+      <c r="F34" s="175" t="s">
+        <v>1100</v>
       </c>
       <c r="G34" s="109" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="H34" s="130" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="I34" s="109" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="J34" s="130" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -9407,18 +9919,18 @@
       <c r="C35" s="90" t="s">
         <v>644</v>
       </c>
-      <c r="F35" s="174"/>
+      <c r="F35" s="175"/>
       <c r="G35" s="90" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H35" s="90" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I35" s="90" t="s">
         <v>1107</v>
       </c>
-      <c r="H35" s="90" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I35" s="90" t="s">
-        <v>1113</v>
-      </c>
       <c r="J35" s="130" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -9431,18 +9943,18 @@
       <c r="C36" s="90" t="s">
         <v>644</v>
       </c>
-      <c r="F36" s="174"/>
+      <c r="F36" s="175"/>
       <c r="G36" s="130" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="H36" s="130" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="I36" s="130" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="J36" s="130" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="K36" s="91"/>
       <c r="L36" s="91"/>
@@ -9459,18 +9971,18 @@
         <v>772</v>
       </c>
       <c r="D37" s="91"/>
-      <c r="F37" s="174"/>
+      <c r="F37" s="175"/>
       <c r="G37" s="90" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H37" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I37" s="90" t="s">
         <v>1108</v>
       </c>
-      <c r="H37" s="90" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I37" s="90" t="s">
-        <v>1114</v>
-      </c>
       <c r="J37" s="130" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="K37" s="91"/>
       <c r="L37" s="91"/>
@@ -9487,18 +9999,18 @@
         <v>772</v>
       </c>
       <c r="D38" s="91"/>
-      <c r="F38" s="174"/>
+      <c r="F38" s="175"/>
       <c r="G38" s="130" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="H38" s="130" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="I38" s="130" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="J38" s="130" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="K38" s="91"/>
       <c r="L38" s="91"/>
@@ -9515,18 +10027,18 @@
         <v>779</v>
       </c>
       <c r="D39" s="91"/>
-      <c r="F39" s="174"/>
+      <c r="F39" s="175"/>
       <c r="G39" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H39" s="91" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I39" s="91" t="s">
         <v>1109</v>
       </c>
-      <c r="H39" s="91" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I39" s="91" t="s">
-        <v>1115</v>
-      </c>
       <c r="J39" s="130" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="K39" s="91"/>
       <c r="L39" s="91"/>
@@ -9789,12 +10301,12 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="166" t="s">
+      <c r="A66" s="179" t="s">
         <v>670</v>
       </c>
-      <c r="B66" s="166"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="166"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="179"/>
       <c r="J66" s="91"/>
       <c r="K66" s="91"/>
       <c r="L66" s="91"/>
@@ -10008,7 +10520,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="90" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B82" s="90" t="s">
         <v>761</v>
@@ -10022,7 +10534,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="90" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B83" s="90" t="s">
         <v>723</v>
@@ -10100,60 +10612,60 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="90" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B89" s="90" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C89" s="90" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="98" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B90" s="90" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C90" s="98" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="98" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B91" s="90" t="s">
+        <v>926</v>
+      </c>
+      <c r="C91" s="98" t="s">
         <v>928</v>
-      </c>
-      <c r="C91" s="98" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="98" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B92" s="90" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C92" s="98" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="F15:F27"/>
+    <mergeCell ref="F30:F32"/>
     <mergeCell ref="J4:N7"/>
     <mergeCell ref="F34:F39"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:F14"/>
-    <mergeCell ref="F15:F27"/>
-    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10161,12 +10673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10191,7 +10703,7 @@
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="107"/>
       <c r="B2" s="134" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="135" t="s">
         <v>607</v>
@@ -10210,8 +10722,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="190" t="s">
-        <v>1072</v>
+      <c r="B3" s="191" t="s">
+        <v>1067</v>
       </c>
       <c r="C3" s="119" t="s">
         <v>609</v>
@@ -10219,7 +10731,7 @@
       <c r="D3" s="119" t="s">
         <v>614</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="138" t="s">
         <v>611</v>
       </c>
       <c r="F3" s="119"/>
@@ -10228,14 +10740,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="191"/>
+      <c r="B4" s="192"/>
       <c r="C4" s="119" t="s">
         <v>610</v>
       </c>
       <c r="D4" s="119" t="s">
         <v>614</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="138" t="s">
         <v>612</v>
       </c>
       <c r="F4" s="119"/>
@@ -10244,7 +10756,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="191"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="121" t="s">
         <v>630</v>
       </c>
@@ -10260,7 +10772,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="191"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="121" t="s">
         <v>633</v>
       </c>
@@ -10276,7 +10788,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="191"/>
+      <c r="B7" s="192"/>
       <c r="C7" s="121" t="s">
         <v>634</v>
       </c>
@@ -10292,7 +10804,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="191"/>
+      <c r="B8" s="192"/>
       <c r="C8" s="121" t="s">
         <v>631</v>
       </c>
@@ -10308,7 +10820,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="191"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="121" t="s">
         <v>632</v>
       </c>
@@ -10324,14 +10836,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="191"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="119" t="s">
         <v>814</v>
       </c>
       <c r="D10" s="119" t="s">
         <v>614</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="E10" s="138" t="s">
         <v>816</v>
       </c>
       <c r="F10" s="119"/>
@@ -10340,29 +10852,30 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="191"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="192"/>
+      <c r="C11" s="119" t="s">
         <v>815</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="119" t="s">
         <v>614</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="138" t="s">
         <v>817</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>737</v>
+      <c r="F11" s="119"/>
+      <c r="G11" s="120" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="191"/>
+      <c r="B12" s="192"/>
       <c r="C12" s="119" t="s">
         <v>693</v>
       </c>
       <c r="D12" s="119" t="s">
         <v>694</v>
       </c>
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="138" t="s">
         <v>697</v>
       </c>
       <c r="F12" s="119" t="s">
@@ -10373,14 +10886,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="191"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="119" t="s">
         <v>695</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>694</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="138" t="s">
         <v>698</v>
       </c>
       <c r="F13" s="119" t="s">
@@ -10391,15 +10904,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="191"/>
+      <c r="B14" s="192"/>
       <c r="C14" s="119" t="s">
+        <v>847</v>
+      </c>
+      <c r="D14" s="119" t="s">
         <v>848</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="E14" s="138" t="s">
         <v>849</v>
-      </c>
-      <c r="E14" s="139" t="s">
-        <v>850</v>
       </c>
       <c r="F14" s="119" t="s">
         <v>696</v>
@@ -10409,7 +10922,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="191"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="137" t="s">
         <v>731</v>
       </c>
@@ -10427,7 +10940,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="191"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="123" t="s">
         <v>732</v>
       </c>
@@ -10445,7 +10958,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="191"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="123" t="s">
         <v>735</v>
       </c>
@@ -10463,7 +10976,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="191"/>
+      <c r="B18" s="192"/>
       <c r="C18" s="137" t="s">
         <v>734</v>
       </c>
@@ -10481,7 +10994,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="191"/>
+      <c r="B19" s="192"/>
       <c r="C19" s="123" t="s">
         <v>733</v>
       </c>
@@ -10499,14 +11012,14 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="191"/>
+      <c r="B20" s="192"/>
       <c r="C20" s="125" t="s">
         <v>805</v>
       </c>
       <c r="D20" s="125" t="s">
         <v>806</v>
       </c>
-      <c r="E20" s="139" t="s">
+      <c r="E20" s="138" t="s">
         <v>807</v>
       </c>
       <c r="F20" s="125" t="s">
@@ -10517,7 +11030,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="191"/>
+      <c r="B21" s="192"/>
       <c r="C21" s="19" t="s">
         <v>808</v>
       </c>
@@ -10535,14 +11048,14 @@
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="191"/>
+      <c r="B22" s="192"/>
       <c r="C22" s="119" t="s">
         <v>755</v>
       </c>
       <c r="D22" s="119" t="s">
         <v>756</v>
       </c>
-      <c r="E22" s="139" t="s">
+      <c r="E22" s="138" t="s">
         <v>780</v>
       </c>
       <c r="F22" s="119"/>
@@ -10563,15 +11076,15 @@
       <c r="S22" s="33"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="191"/>
+      <c r="B23" s="192"/>
       <c r="C23" s="119" t="s">
+        <v>899</v>
+      </c>
+      <c r="D23" s="119" t="s">
+        <v>900</v>
+      </c>
+      <c r="E23" s="138" t="s">
         <v>901</v>
-      </c>
-      <c r="D23" s="119" t="s">
-        <v>902</v>
-      </c>
-      <c r="E23" s="139" t="s">
-        <v>903</v>
       </c>
       <c r="F23" s="119"/>
       <c r="G23" s="120" t="s">
@@ -10579,7 +11092,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="191"/>
+      <c r="B24" s="192"/>
       <c r="C24" s="19" t="s">
         <v>757</v>
       </c>
@@ -10594,30 +11107,30 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="191"/>
+      <c r="B25" s="192"/>
       <c r="C25" s="19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="191"/>
+      <c r="B26" s="192"/>
       <c r="C26" s="119" t="s">
         <v>791</v>
       </c>
       <c r="D26" s="119" t="s">
         <v>756</v>
       </c>
-      <c r="E26" s="139" t="s">
-        <v>1006</v>
+      <c r="E26" s="138" t="s">
+        <v>1003</v>
       </c>
       <c r="F26" s="119"/>
       <c r="G26" s="120" t="s">
@@ -10625,18 +11138,18 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="191"/>
+      <c r="B27" s="192"/>
       <c r="C27" s="127" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D27" s="119" t="s">
+        <v>858</v>
+      </c>
+      <c r="E27" s="139" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F27" s="119" t="s">
         <v>859</v>
-      </c>
-      <c r="E27" s="140" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F27" s="119" t="s">
-        <v>860</v>
       </c>
       <c r="G27" s="120" t="s">
         <v>738</v>
@@ -10655,18 +11168,18 @@
       <c r="S27" s="108"/>
     </row>
     <row r="28" spans="2:19" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="191"/>
+      <c r="B28" s="192"/>
       <c r="C28" s="127" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D28" s="119" t="s">
-        <v>859</v>
-      </c>
-      <c r="E28" s="140" t="s">
-        <v>1008</v>
+        <v>858</v>
+      </c>
+      <c r="E28" s="139" t="s">
+        <v>1005</v>
       </c>
       <c r="F28" s="119" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G28" s="120" t="s">
         <v>738</v>
@@ -10685,173 +11198,176 @@
       <c r="S28" s="118"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="191"/>
+      <c r="B29" s="192"/>
       <c r="C29" s="119" t="s">
+        <v>908</v>
+      </c>
+      <c r="D29" s="119" t="s">
+        <v>858</v>
+      </c>
+      <c r="E29" s="138" t="s">
         <v>910</v>
       </c>
-      <c r="D29" s="119" t="s">
-        <v>859</v>
-      </c>
-      <c r="E29" s="139" t="s">
-        <v>912</v>
-      </c>
       <c r="F29" s="119" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G29" s="120" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="191"/>
+      <c r="B30" s="192"/>
       <c r="C30" s="119" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="D30" s="119" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E30" s="139" t="s">
-        <v>1132</v>
+        <v>1125</v>
+      </c>
+      <c r="E30" s="138" t="s">
+        <v>1126</v>
       </c>
       <c r="F30" s="119" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G30" s="120" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="191"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="129"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="119" t="s">
+        <v>929</v>
+      </c>
+      <c r="D31" s="119" t="s">
+        <v>900</v>
+      </c>
+      <c r="E31" s="138" t="s">
+        <v>930</v>
+      </c>
+      <c r="F31" s="119"/>
+      <c r="G31" s="120" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="191"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="129"/>
+      <c r="B32" s="192"/>
+      <c r="C32" s="119" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D32" s="119" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E32" s="138" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F32" s="119" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G32" s="120" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="191"/>
+      <c r="B33" s="192"/>
       <c r="C33" s="119" t="s">
-        <v>931</v>
+        <v>1051</v>
       </c>
       <c r="D33" s="119" t="s">
-        <v>902</v>
-      </c>
-      <c r="E33" s="139" t="s">
-        <v>932</v>
+        <v>1053</v>
+      </c>
+      <c r="E33" s="138" t="s">
+        <v>1218</v>
       </c>
       <c r="F33" s="119"/>
       <c r="G33" s="120" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="191"/>
+    <row r="34" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B34" s="192"/>
       <c r="C34" s="119" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
       <c r="D34" s="119" t="s">
-        <v>1017</v>
+        <v>1125</v>
       </c>
       <c r="E34" s="139" t="s">
-        <v>1016</v>
+        <v>1152</v>
       </c>
       <c r="F34" s="119" t="s">
-        <v>1018</v>
+        <v>859</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>738</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="191"/>
-      <c r="C35" s="19" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>1056</v>
-      </c>
+      <c r="B35" s="192"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="128"/>
-      <c r="G35" s="129" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B36" s="191"/>
-      <c r="C36" s="119" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D36" s="119" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E36" s="140" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F36" s="119" t="s">
-        <v>860</v>
-      </c>
-      <c r="G36" s="120" t="s">
-        <v>1179</v>
-      </c>
+      <c r="G35" s="129"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="192"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="129"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="191"/>
+      <c r="B37" s="193"/>
       <c r="E37" s="17"/>
       <c r="F37" s="128"/>
       <c r="G37" s="129"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="191"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="129"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="192"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="129"/>
-    </row>
-    <row r="40" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B40" s="138" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C40" s="119" t="s">
+    <row r="38" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="194" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C38" s="119" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D38" s="119" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E38" s="139" t="s">
         <v>1070</v>
       </c>
-      <c r="D40" s="119" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E40" s="140" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F40" s="119" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G40" s="120" t="s">
-        <v>1083</v>
+      <c r="F38" s="119" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G38" s="120" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="B39" s="195"/>
+      <c r="C39" s="119" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D39" s="119" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E39" s="139" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F39" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="G39" s="120" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:B39"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -10874,21 +11390,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="186" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="E1" s="180" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="E1" s="186" t="s">
         <v>444</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="I1" s="180" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="I1" s="186" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -11804,25 +12320,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
       <c r="O39" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="147"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="153"/>
       <c r="O40" s="10" t="s">
         <v>95</v>
       </c>
@@ -11947,10 +12463,10 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="148" t="s">
+      <c r="B48" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="148"/>
+      <c r="C48" s="154"/>
       <c r="D48" s="33"/>
       <c r="O48" t="s">
         <v>103</v>
@@ -12068,13 +12584,13 @@
   <sheetData>
     <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="160"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
@@ -12094,7 +12610,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="167" t="s">
         <v>169</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -12109,8 +12625,8 @@
       <c r="F4" s="53"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="162"/>
-      <c r="C5" s="164" t="s">
+      <c r="B5" s="168"/>
+      <c r="C5" s="170" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="42" t="s">
@@ -12120,8 +12636,8 @@
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="163"/>
-      <c r="C6" s="165"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="171"/>
       <c r="D6" s="42" t="s">
         <v>156</v>
       </c>
@@ -12155,19 +12671,19 @@
       <c r="F8" s="48"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="160" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="150" t="s">
+      <c r="C10" s="161"/>
+      <c r="D10" s="156" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="150"/>
-      <c r="F10" s="151"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="157"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="163"/>
       <c r="D11" s="38" t="s">
         <v>170</v>
       </c>
@@ -12179,7 +12695,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="158" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="46" t="s">
@@ -12196,7 +12712,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="152"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="46" t="s">
         <v>172</v>
       </c>
@@ -12214,7 +12730,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="153"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="47" t="s">
         <v>171</v>
       </c>
@@ -12510,28 +13026,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="182" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="169"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="184"/>
       <c r="K1" s="67"/>
-      <c r="L1" s="166" t="s">
+      <c r="L1" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="166"/>
+      <c r="M1" s="179"/>
       <c r="N1" s="67"/>
-      <c r="O1" s="166" t="s">
+      <c r="O1" s="179" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="166"/>
+      <c r="P1" s="179"/>
       <c r="Q1" s="35"/>
       <c r="R1" s="68"/>
       <c r="S1" s="68"/>
@@ -12585,12 +13101,12 @@
       <c r="P2" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" s="166" t="s">
+      <c r="Q2" s="179" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="172"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
       <c r="U2" s="60"/>
       <c r="V2" s="59" t="s">
         <v>229</v>
@@ -12630,10 +13146,10 @@
       <c r="M3" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="177" t="s">
+      <c r="O3" s="176" t="s">
         <v>256</v>
       </c>
-      <c r="P3" s="178" t="s">
+      <c r="P3" s="177" t="s">
         <v>221</v>
       </c>
       <c r="Q3" s="36" t="s">
@@ -12665,8 +13181,8 @@
       <c r="M4" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="O4" s="177"/>
-      <c r="P4" s="178"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="177"/>
       <c r="Q4" s="36" t="s">
         <v>272</v>
       </c>
@@ -12705,8 +13221,8 @@
       <c r="M5" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="O5" s="177"/>
-      <c r="P5" s="178"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="177"/>
       <c r="Q5" s="36" t="s">
         <v>286</v>
       </c>
@@ -12736,10 +13252,10 @@
       <c r="M6" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="O6" s="170" t="s">
+      <c r="O6" s="178" t="s">
         <v>257</v>
       </c>
-      <c r="P6" s="171" t="s">
+      <c r="P6" s="173" t="s">
         <v>264</v>
       </c>
       <c r="Q6" s="71" t="s">
@@ -12768,8 +13284,8 @@
       <c r="I7" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="173"/>
       <c r="Q7" s="71" t="s">
         <v>272</v>
       </c>
@@ -12787,10 +13303,10 @@
       <c r="I8" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="170" t="s">
+      <c r="O8" s="178" t="s">
         <v>258</v>
       </c>
-      <c r="P8" s="171" t="s">
+      <c r="P8" s="173" t="s">
         <v>263</v>
       </c>
       <c r="Q8" s="71" t="s">
@@ -12825,8 +13341,8 @@
       <c r="I9" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="170"/>
-      <c r="P9" s="171"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="173"/>
       <c r="Q9" s="71" t="s">
         <v>272</v>
       </c>
@@ -12842,10 +13358,10 @@
       <c r="I10" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="O10" s="173" t="s">
+      <c r="O10" s="181" t="s">
         <v>267</v>
       </c>
-      <c r="P10" s="174" t="s">
+      <c r="P10" s="175" t="s">
         <v>241</v>
       </c>
       <c r="Q10" s="36" t="s">
@@ -12877,8 +13393,8 @@
       <c r="I11" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O11" s="173"/>
-      <c r="P11" s="174"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="175"/>
       <c r="Q11" s="36" t="s">
         <v>272</v>
       </c>
@@ -12930,10 +13446,10 @@
       <c r="I13" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="O13" s="176" t="s">
+      <c r="O13" s="174" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="174" t="s">
+      <c r="P13" s="175" t="s">
         <v>262</v>
       </c>
       <c r="Q13" s="36" t="s">
@@ -12956,8 +13472,8 @@
       <c r="I14" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="O14" s="176"/>
-      <c r="P14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="175"/>
       <c r="Q14" s="36" t="s">
         <v>271</v>
       </c>
@@ -12993,8 +13509,8 @@
       <c r="I15" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="O15" s="176"/>
-      <c r="P15" s="174"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="175"/>
       <c r="Q15" s="36" t="s">
         <v>281</v>
       </c>
@@ -13024,10 +13540,10 @@
       <c r="I16" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="O16" s="170" t="s">
+      <c r="O16" s="178" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="171" t="s">
+      <c r="P16" s="173" t="s">
         <v>241</v>
       </c>
       <c r="Q16" s="71" t="s">
@@ -13053,8 +13569,8 @@
       <c r="I17" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="O17" s="170"/>
-      <c r="P17" s="171"/>
+      <c r="O17" s="178"/>
+      <c r="P17" s="173"/>
       <c r="Q17" s="71" t="s">
         <v>272</v>
       </c>
@@ -13090,10 +13606,10 @@
       <c r="I18" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="O18" s="175" t="s">
+      <c r="O18" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="P18" s="171" t="s">
+      <c r="P18" s="173" t="s">
         <v>262</v>
       </c>
       <c r="Q18" s="71" t="s">
@@ -13119,8 +13635,8 @@
       <c r="I19" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="O19" s="175"/>
-      <c r="P19" s="171"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="173"/>
       <c r="Q19" s="71" t="s">
         <v>272</v>
       </c>
@@ -13477,6 +13993,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="O13:O15"/>
@@ -13485,16 +14011,6 @@
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13507,11 +14023,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13526,14 +14041,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="116" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="179" t="s">
-        <v>979</v>
-      </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="B1" s="185" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -13577,19 +14092,23 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="104" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="108" t="s">
-        <v>1176</v>
-      </c>
+        <v>1150</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D9" s="108"/>
     </row>
     <row r="10" spans="1:13" s="86" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
@@ -13652,7 +14171,7 @@
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C14" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -13660,7 +14179,7 @@
     <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -13742,17 +14261,19 @@
     </row>
     <row r="25" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="110" t="s">
+        <v>978</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>980</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="110" t="s">
-        <v>981</v>
-      </c>
-      <c r="E26" s="57"/>
+        <v>979</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="27" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
@@ -13850,10 +14371,10 @@
     </row>
     <row r="44" spans="4:6" ht="66" x14ac:dyDescent="0.3">
       <c r="E44" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F44" s="106" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.3">
@@ -14009,21 +14530,21 @@
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="101"/>
       <c r="C68" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E68"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="101"/>
       <c r="C69" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E69"/>
     </row>
     <row r="70" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B70" s="101"/>
       <c r="D70" s="57" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E70"/>
     </row>
@@ -14031,16 +14552,16 @@
       <c r="B71" s="101"/>
       <c r="D71" s="57"/>
       <c r="E71" s="110" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="101"/>
       <c r="C72" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D72" s="57"/>
       <c r="E72"/>
@@ -14048,7 +14569,7 @@
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="101"/>
       <c r="D73" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E73"/>
     </row>
@@ -14056,7 +14577,7 @@
       <c r="B74" s="101"/>
       <c r="D74"/>
       <c r="E74" s="57" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -14064,10 +14585,10 @@
       <c r="D75"/>
       <c r="E75" s="57"/>
       <c r="F75" s="111" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
@@ -14076,14 +14597,14 @@
       <c r="E76" s="57"/>
       <c r="F76" s="115"/>
       <c r="G76" s="110" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="101"/>
       <c r="D77"/>
       <c r="F77" s="108" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -14091,24 +14612,24 @@
       <c r="D78"/>
       <c r="F78" s="57"/>
       <c r="G78" s="106" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="101"/>
       <c r="D79" s="57"/>
       <c r="E79" s="11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="101"/>
       <c r="D80" s="57"/>
       <c r="F80" s="111" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
@@ -14116,7 +14637,7 @@
       <c r="D81" s="57"/>
       <c r="F81" s="115"/>
       <c r="G81" s="110" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
@@ -14124,21 +14645,21 @@
       <c r="D82" s="57"/>
       <c r="F82" s="115"/>
       <c r="G82" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="101"/>
       <c r="D83" s="57"/>
       <c r="F83" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B84" s="101"/>
       <c r="D84" s="57"/>
       <c r="G84" s="106" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
@@ -14150,7 +14671,7 @@
       <c r="B86" s="101"/>
       <c r="D86" s="57"/>
       <c r="E86" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G86" s="106"/>
     </row>
@@ -14158,7 +14679,7 @@
       <c r="B87" s="101"/>
       <c r="D87" s="57"/>
       <c r="F87" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G87" s="106"/>
     </row>
@@ -14170,31 +14691,31 @@
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="101"/>
       <c r="C89" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E89"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="101"/>
       <c r="D90" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E90"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="101"/>
       <c r="C91" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E91"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="101"/>
       <c r="D92" s="110" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
@@ -14210,524 +14731,508 @@
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="101"/>
       <c r="C95" t="s">
+        <v>895</v>
+      </c>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="101"/>
+      <c r="D96" s="11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="101"/>
+      <c r="E97" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="101"/>
+      <c r="D98" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="101"/>
+      <c r="E99" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="102"/>
+      <c r="C100" t="s">
         <v>897</v>
       </c>
-      <c r="E95"/>
-    </row>
-    <row r="96" spans="2:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="B96" s="101"/>
-      <c r="D96" s="111" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="102"/>
-      <c r="C97" t="s">
-        <v>899</v>
-      </c>
-      <c r="E97"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="102"/>
-      <c r="D98" s="110" t="s">
-        <v>900</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="102"/>
-      <c r="E99"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="87" t="s">
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="102"/>
+      <c r="D101" s="110" t="s">
+        <v>898</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="102"/>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="87" t="s">
         <v>782</v>
       </c>
-      <c r="C100" s="96"/>
-      <c r="E100"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="101"/>
-      <c r="C101" t="s">
-        <v>874</v>
-      </c>
-      <c r="E101"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="101"/>
-      <c r="D102" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="E102"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="101"/>
-      <c r="D103" s="11" t="s">
-        <v>876</v>
-      </c>
+      <c r="C103" s="96"/>
       <c r="E103"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="101"/>
-      <c r="D104" s="11" t="s">
-        <v>877</v>
+      <c r="C104" t="s">
+        <v>872</v>
       </c>
       <c r="E104"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="101"/>
       <c r="D105" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E105"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="101"/>
       <c r="D106" s="11" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E106"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="102"/>
-      <c r="C107" s="96" t="s">
-        <v>907</v>
+      <c r="B107" s="101"/>
+      <c r="D107" s="11" t="s">
+        <v>875</v>
       </c>
       <c r="E107"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="102"/>
-      <c r="C108" s="96"/>
-      <c r="D108" s="87" t="s">
-        <v>908</v>
+      <c r="B108" s="101"/>
+      <c r="D108" s="11" t="s">
+        <v>876</v>
       </c>
       <c r="E108"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="87" t="s">
-        <v>908</v>
-      </c>
-      <c r="C109" s="96"/>
+      <c r="B109" s="101"/>
+      <c r="D109" s="11" t="s">
+        <v>878</v>
+      </c>
       <c r="E109"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="102"/>
       <c r="C110" s="96" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="E110"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="102"/>
-      <c r="C111" s="96" t="s">
-        <v>909</v>
+      <c r="C111" s="96"/>
+      <c r="D111" s="87" t="s">
+        <v>906</v>
       </c>
       <c r="E111"/>
     </row>
-    <row r="112" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B112" s="102"/>
-      <c r="C112" s="113" t="s">
-        <v>913</v>
-      </c>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="87" t="s">
+        <v>906</v>
+      </c>
+      <c r="C112" s="96"/>
       <c r="E112"/>
     </row>
-    <row r="113" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="102"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="57" t="s">
-        <v>914</v>
+      <c r="C113" s="96" t="s">
+        <v>938</v>
       </c>
       <c r="E113"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B114" s="87" t="s">
-        <v>983</v>
-      </c>
-      <c r="C114" s="96"/>
+      <c r="B114" s="102"/>
+      <c r="C114" s="96" t="s">
+        <v>907</v>
+      </c>
       <c r="E114"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B115" s="3"/>
-      <c r="C115" s="96" t="s">
-        <v>1164</v>
+    <row r="115" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B115" s="102"/>
+      <c r="C115" s="113" t="s">
+        <v>911</v>
       </c>
       <c r="E115"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B116" s="3"/>
-      <c r="C116" s="96"/>
-      <c r="D116" s="11" t="s">
-        <v>985</v>
+    <row r="116" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B116" s="102"/>
+      <c r="C116" s="113"/>
+      <c r="D116" s="57" t="s">
+        <v>912</v>
       </c>
       <c r="E116"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="3"/>
+      <c r="B117" s="87" t="s">
+        <v>981</v>
+      </c>
       <c r="C117" s="96"/>
-      <c r="D117" s="11" t="s">
-        <v>986</v>
-      </c>
       <c r="E117"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3"/>
-      <c r="C118" s="96"/>
-      <c r="E118" t="s">
-        <v>999</v>
-      </c>
+      <c r="C118" s="96" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E118"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3"/>
       <c r="C119" s="96"/>
-      <c r="E119" t="s">
-        <v>1167</v>
-      </c>
+      <c r="D119" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="E119"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3"/>
       <c r="C120" s="96"/>
-      <c r="F120" t="s">
-        <v>1000</v>
-      </c>
+      <c r="D120" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="E120"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
       <c r="C121" s="96"/>
-      <c r="G121" s="87" t="s">
-        <v>1001</v>
+      <c r="E121" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
       <c r="C122" s="96"/>
-      <c r="E122"/>
-      <c r="F122" s="87" t="s">
-        <v>1165</v>
+      <c r="E122" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
       <c r="C123" s="96"/>
-      <c r="E123" t="s">
-        <v>222</v>
-      </c>
-      <c r="F123" s="102"/>
+      <c r="F123" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3"/>
       <c r="C124" s="96"/>
-      <c r="E124"/>
-      <c r="F124" s="87" t="s">
-        <v>1166</v>
+      <c r="G124" s="87" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
       <c r="C125" s="96"/>
-      <c r="D125" s="117" t="s">
-        <v>995</v>
-      </c>
-      <c r="E125" t="s">
-        <v>997</v>
+      <c r="E125"/>
+      <c r="F125" s="87" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
       <c r="C126" s="96"/>
-      <c r="D126" s="117" t="s">
-        <v>996</v>
-      </c>
       <c r="E126" t="s">
-        <v>997</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F126" s="102"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
       <c r="C127" s="96"/>
-      <c r="D127" s="110" t="s">
-        <v>987</v>
-      </c>
-      <c r="E127" t="s">
-        <v>997</v>
+      <c r="E127"/>
+      <c r="F127" s="87" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
       <c r="C128" s="96"/>
-      <c r="D128" s="110" t="s">
-        <v>988</v>
+      <c r="D128" s="117" t="s">
+        <v>993</v>
       </c>
       <c r="E128" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="3"/>
       <c r="C129" s="96"/>
-      <c r="D129" s="110" t="s">
-        <v>989</v>
+      <c r="D129" s="117" t="s">
+        <v>994</v>
       </c>
       <c r="E129" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="3"/>
       <c r="C130" s="96"/>
       <c r="D130" s="110" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E130" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
       <c r="C131" s="96"/>
-      <c r="D131" s="11" t="s">
-        <v>991</v>
-      </c>
-      <c r="E131"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D131" s="110" t="s">
+        <v>986</v>
+      </c>
+      <c r="E131" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" s="3"/>
       <c r="C132" s="96"/>
       <c r="D132" s="110" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E132" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" s="3"/>
       <c r="C133" s="96"/>
       <c r="D133" s="110" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="E133" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134" s="3"/>
       <c r="C134" s="96"/>
-      <c r="D134" s="96" t="s">
-        <v>994</v>
+      <c r="D134" s="11" t="s">
+        <v>989</v>
       </c>
       <c r="E134"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="87" t="s">
-        <v>1001</v>
-      </c>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C135" s="96"/>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="102"/>
-      <c r="C136" s="96" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="102"/>
+      <c r="D135" s="110" t="s">
+        <v>990</v>
+      </c>
+      <c r="E135" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C136" s="96"/>
+      <c r="D136" s="110" t="s">
+        <v>991</v>
+      </c>
+      <c r="E136" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C137" s="96"/>
-      <c r="D137" s="3" t="s">
-        <v>1005</v>
+      <c r="D137" s="96" t="s">
+        <v>992</v>
       </c>
       <c r="E137"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="102"/>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138" s="87" t="s">
+        <v>999</v>
+      </c>
       <c r="C138" s="96"/>
-      <c r="E138" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="102"/>
-      <c r="C139" s="96"/>
-      <c r="E139" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C139" s="96" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="102"/>
       <c r="C140" s="96"/>
+      <c r="D140" s="87" t="s">
+        <v>1002</v>
+      </c>
       <c r="E140"/>
-      <c r="F140" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="B141" s="102"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141" s="87" t="s">
+        <v>1002</v>
+      </c>
       <c r="C141" s="96"/>
-      <c r="E141" s="193" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D141" s="96"/>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="102"/>
-      <c r="C142" s="96"/>
-      <c r="E142"/>
-      <c r="F142" s="87" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="87" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C143" s="96"/>
-      <c r="E143"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D142"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143" s="102"/>
+      <c r="C143" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D143"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="102"/>
-      <c r="C144" s="96"/>
-      <c r="E144" t="s">
-        <v>1004</v>
-      </c>
+      <c r="C144" s="145" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D144"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="3"/>
-      <c r="C145" s="96"/>
-      <c r="E145"/>
-      <c r="F145" s="87" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="B146" s="3"/>
-      <c r="C146" s="96"/>
-      <c r="E146" s="188" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F146" s="102"/>
+      <c r="B145" s="102"/>
+      <c r="D145" s="87" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B146" s="102"/>
+      <c r="C146" s="106" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D146"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="3"/>
-      <c r="C147" s="185" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E147"/>
-      <c r="F147" s="102"/>
-    </row>
-    <row r="148" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="D147" s="87" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
-      <c r="C148" s="96"/>
-      <c r="D148" s="186" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E148"/>
-      <c r="F148" s="102"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="87" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C149" s="96"/>
-      <c r="E149"/>
-      <c r="F149" s="102"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C148" s="146" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D148" s="102"/>
+    </row>
+    <row r="149" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B149" s="3"/>
+      <c r="C149" s="147"/>
+      <c r="D149" s="148" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B150" s="3"/>
-      <c r="C150" s="96" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E150"/>
-      <c r="F150" s="102"/>
+      <c r="C150" s="147"/>
+      <c r="D150" s="148" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="3"/>
+      <c r="B151" s="87" t="s">
+        <v>1155</v>
+      </c>
       <c r="C151" s="96"/>
-      <c r="D151" s="11" t="s">
-        <v>1015</v>
-      </c>
       <c r="E151"/>
-      <c r="F151" s="102"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B152" s="3"/>
-      <c r="C152" s="96"/>
-      <c r="D152" s="11" t="s">
-        <v>1174</v>
+      <c r="B152" s="102"/>
+      <c r="C152" s="96" t="s">
+        <v>1156</v>
       </c>
       <c r="E152"/>
-      <c r="F152" s="102"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="3"/>
+    </row>
+    <row r="153" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B153" s="11"/>
       <c r="C153" s="96"/>
+      <c r="D153" s="57" t="s">
+        <v>1167</v>
+      </c>
       <c r="E153"/>
-      <c r="F153" s="102"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="3"/>
-      <c r="C154" s="96"/>
-      <c r="D154" s="110" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F154" s="102"/>
-    </row>
-    <row r="155" spans="2:6" ht="346.5" x14ac:dyDescent="0.3">
-      <c r="B155" s="3"/>
-      <c r="C155" s="189" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D155" s="187" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E155" s="102"/>
-      <c r="F155" s="102"/>
+      <c r="B154" s="102"/>
+      <c r="C154" s="96" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B155" s="102"/>
+      <c r="C155" s="96" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E155"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="87" t="s">
-        <v>1165</v>
+        <v>1008</v>
       </c>
       <c r="C156" s="96"/>
       <c r="E156"/>
+      <c r="F156" s="102"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="3"/>
       <c r="C157" s="96" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D157" s="102"/>
-      <c r="E157" s="102"/>
+        <v>1009</v>
+      </c>
+      <c r="E157"/>
       <c r="F157" s="102"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
       <c r="C158" s="96"/>
-      <c r="D158" s="96" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E158" s="102"/>
+      <c r="D158" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E158"/>
       <c r="F158" s="102"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="3"/>
       <c r="C159" s="96"/>
-      <c r="D159" s="96" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E159" s="102"/>
+      <c r="D159" s="105" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E159"/>
       <c r="F159" s="102"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="3"/>
-      <c r="D160" s="96"/>
-      <c r="E160" s="102"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="110" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>1011</v>
+      </c>
       <c r="F160" s="102"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="3"/>
-      <c r="C161" s="96" t="s">
-        <v>1002</v>
+      <c r="C161" s="96"/>
+      <c r="D161" s="96" t="s">
+        <v>1164</v>
       </c>
       <c r="E161" s="102"/>
       <c r="F161" s="102"/>
@@ -14735,36 +15240,34 @@
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="3"/>
       <c r="C162" s="96"/>
-      <c r="D162" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E162" s="102"/>
+      <c r="D162" s="96"/>
+      <c r="E162" s="144" t="s">
+        <v>1165</v>
+      </c>
       <c r="F162" s="102"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="3"/>
       <c r="C163" s="96"/>
       <c r="D163" s="96"/>
-      <c r="E163" s="96" t="s">
-        <v>1060</v>
+      <c r="E163" s="144" t="s">
+        <v>1166</v>
       </c>
       <c r="F163" s="102"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="3"/>
+      <c r="B164" s="87" t="s">
+        <v>1145</v>
+      </c>
       <c r="C164" s="96"/>
-      <c r="D164" s="96"/>
-      <c r="E164" s="102"/>
-      <c r="F164" s="87" t="s">
-        <v>1011</v>
-      </c>
+      <c r="E164"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="3"/>
       <c r="C165" s="96" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D165" s="96"/>
+        <v>1054</v>
+      </c>
+      <c r="D165" s="102"/>
       <c r="E165" s="102"/>
       <c r="F165" s="102"/>
     </row>
@@ -14772,398 +15275,598 @@
       <c r="B166" s="3"/>
       <c r="C166" s="96"/>
       <c r="D166" s="96" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="E166" s="102"/>
       <c r="F166" s="102"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
-      <c r="C167" s="113" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D167" s="96"/>
+      <c r="C167" s="96"/>
+      <c r="D167" s="96" t="s">
+        <v>1055</v>
+      </c>
       <c r="E167" s="102"/>
       <c r="F167" s="102"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="3"/>
-      <c r="C168" s="113"/>
-      <c r="D168" s="87" t="s">
-        <v>1087</v>
-      </c>
+      <c r="D168" s="96"/>
       <c r="E168" s="102"/>
       <c r="F168" s="102"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="3"/>
-      <c r="C169" s="96"/>
-      <c r="D169" s="96" t="s">
-        <v>1064</v>
+      <c r="C169" s="96" t="s">
+        <v>1000</v>
       </c>
       <c r="E169" s="102"/>
       <c r="F169" s="102"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="3"/>
-      <c r="C170" s="96" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E170"/>
+      <c r="C170" s="96"/>
+      <c r="D170" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E170" s="102"/>
+      <c r="F170" s="102"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="3"/>
-      <c r="C171" s="96" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E171"/>
-    </row>
-    <row r="172" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C171" s="96"/>
+      <c r="D171" s="96"/>
+      <c r="E171" s="96" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F171" s="102"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="3"/>
-      <c r="C172" s="141" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E172"/>
+      <c r="C172" s="96"/>
+      <c r="D172" s="96"/>
+      <c r="E172" s="102"/>
+      <c r="F172" s="87" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="3"/>
-      <c r="C173" s="142" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E173"/>
+      <c r="C173" s="96" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D173" s="96"/>
+      <c r="E173" s="102"/>
+      <c r="F173" s="102"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="3"/>
-      <c r="C174" s="96" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E174"/>
+      <c r="C174" s="96"/>
+      <c r="D174" s="96" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E174" s="102"/>
+      <c r="F174" s="102"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="3"/>
-      <c r="C175" s="96"/>
-      <c r="D175" s="87" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E175"/>
+      <c r="C175" s="113" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D175" s="96"/>
+      <c r="E175" s="102"/>
+      <c r="F175" s="102"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B176" s="87" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C176" s="96"/>
-      <c r="D176" s="102"/>
-      <c r="E176"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B176" s="3"/>
+      <c r="C176" s="113"/>
+      <c r="D176" s="87" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E176" s="102"/>
+      <c r="F176" s="102"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
-      <c r="C177" s="96" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D177" s="102"/>
-      <c r="E177"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C177" s="96"/>
+      <c r="D177" s="96" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E177" s="102"/>
+      <c r="F177" s="102"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="3"/>
-      <c r="C178" s="96"/>
-      <c r="D178" s="102" t="s">
-        <v>1095</v>
+      <c r="C178" s="96" t="s">
+        <v>1062</v>
       </c>
       <c r="E178"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
-      <c r="C179" s="96"/>
-      <c r="D179" s="102"/>
-      <c r="E179" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C179" s="96" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B180" s="3"/>
-      <c r="C180" s="96" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D180" s="102"/>
+      <c r="C180" s="141" t="s">
+        <v>1093</v>
+      </c>
       <c r="E180"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="3"/>
-      <c r="C181" s="96"/>
-      <c r="D181" s="102" t="s">
-        <v>1089</v>
+      <c r="C181" s="142" t="s">
+        <v>1094</v>
       </c>
       <c r="E181"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="3"/>
-      <c r="C182" s="96"/>
-      <c r="D182" s="102" t="s">
-        <v>1090</v>
+      <c r="C182" s="96" t="s">
+        <v>1063</v>
       </c>
       <c r="E182"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="3"/>
       <c r="C183" s="96"/>
-      <c r="D183" s="102" t="s">
-        <v>1091</v>
+      <c r="D183" s="87" t="s">
+        <v>1213</v>
       </c>
       <c r="E183"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B184" s="3"/>
-      <c r="C184" s="96" t="s">
-        <v>1092</v>
-      </c>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B184" s="87" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C184" s="96"/>
       <c r="D184" s="102"/>
       <c r="E184"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="3"/>
-      <c r="C185" s="96"/>
-      <c r="D185" s="110" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E185" s="14" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C185" s="96" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D185" s="102"/>
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="3"/>
       <c r="C186" s="96"/>
-      <c r="D186" s="102"/>
+      <c r="D186" s="102" t="s">
+        <v>1090</v>
+      </c>
       <c r="E186"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B187" s="87" t="s">
-        <v>1069</v>
-      </c>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B187" s="3"/>
       <c r="C187" s="96"/>
-      <c r="D187" s="3"/>
-      <c r="E187"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D187" s="102"/>
+      <c r="E187" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
       <c r="C188" s="96" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D188" s="3"/>
+        <v>1083</v>
+      </c>
+      <c r="D188" s="102"/>
       <c r="E188"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="3"/>
-      <c r="C189" s="96" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D189" s="3"/>
+      <c r="C189" s="96"/>
+      <c r="D189" s="102" t="s">
+        <v>1084</v>
+      </c>
       <c r="E189"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="3"/>
       <c r="C190" s="96"/>
-      <c r="D190" s="87" t="s">
-        <v>1105</v>
+      <c r="D190" s="102" t="s">
+        <v>1085</v>
       </c>
       <c r="E190"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B191" s="87" t="s">
-        <v>1105</v>
-      </c>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B191" s="3"/>
       <c r="C191" s="96"/>
-      <c r="D191" s="3"/>
+      <c r="D191" s="102" t="s">
+        <v>1086</v>
+      </c>
       <c r="E191"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B192" s="101"/>
-      <c r="C192" t="s">
-        <v>874</v>
-      </c>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B192" s="3"/>
+      <c r="C192" s="96" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D192" s="102"/>
       <c r="E192"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="101"/>
-      <c r="D193" s="11" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E193"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="101"/>
-      <c r="D194" s="11" t="s">
-        <v>1127</v>
-      </c>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="3"/>
+      <c r="C193" s="96"/>
+      <c r="D193" s="110" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="3"/>
+      <c r="C194" s="96"/>
+      <c r="D194" s="102"/>
       <c r="E194"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="102"/>
-      <c r="C195" s="96" t="s">
-        <v>907</v>
-      </c>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B195" s="87" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C195" s="96"/>
+      <c r="D195" s="3"/>
       <c r="E195"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196" s="102"/>
       <c r="C196" s="96"/>
-      <c r="D196" s="87" t="s">
-        <v>1125</v>
-      </c>
+      <c r="D196" s="3"/>
       <c r="E196"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B197" s="87" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C197" s="96"/>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B197" s="3"/>
+      <c r="C197" s="96" t="s">
+        <v>1252</v>
+      </c>
       <c r="D197" s="3"/>
       <c r="E197"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B198" s="102"/>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B198" s="3"/>
       <c r="C198" s="96" t="s">
-        <v>940</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="D198" s="3"/>
       <c r="E198"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B199" s="102"/>
-      <c r="C199" s="96" t="s">
-        <v>1128</v>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B199" s="3"/>
+      <c r="C199" s="96"/>
+      <c r="D199" s="87" t="s">
+        <v>1099</v>
       </c>
       <c r="E199"/>
     </row>
-    <row r="200" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B200" s="102"/>
-      <c r="C200" s="113" t="s">
-        <v>1129</v>
-      </c>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B200" s="87" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C200" s="96"/>
+      <c r="D200" s="3"/>
       <c r="E200"/>
     </row>
-    <row r="201" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B201" s="102"/>
-      <c r="C201" s="113"/>
-      <c r="D201" s="57" t="s">
-        <v>914</v>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B201" s="101"/>
+      <c r="C201" t="s">
+        <v>872</v>
       </c>
       <c r="E201"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="15"/>
-      <c r="B202" s="87" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C202" s="113"/>
-      <c r="D202" s="3"/>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B202" s="101"/>
+      <c r="D202" s="11" t="s">
+        <v>1120</v>
+      </c>
       <c r="E202"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="15"/>
-      <c r="B203" s="102"/>
-      <c r="C203" s="113" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D203" s="3"/>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B203" s="101"/>
+      <c r="D203" s="11" t="s">
+        <v>1121</v>
+      </c>
       <c r="E203"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="15"/>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B204" s="102"/>
-      <c r="C204" s="96"/>
-      <c r="D204" s="11" t="s">
-        <v>1169</v>
+      <c r="C204" s="96" t="s">
+        <v>905</v>
       </c>
       <c r="E204"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="15"/>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205" s="102"/>
       <c r="C205" s="96"/>
-      <c r="D205" s="3"/>
-      <c r="E205" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="15"/>
-      <c r="B206" s="102"/>
+      <c r="D205" s="87" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B206" s="87" t="s">
+        <v>1119</v>
+      </c>
       <c r="C206" s="96"/>
       <c r="D206" s="3"/>
-      <c r="E206" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="15"/>
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207" s="102"/>
       <c r="C207" s="96" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D207" s="3"/>
+        <v>938</v>
+      </c>
       <c r="E207"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="15"/>
+    <row r="208" spans="2:5" ht="66" x14ac:dyDescent="0.3">
       <c r="B208" s="102"/>
-      <c r="D208" s="3"/>
+      <c r="C208" s="96"/>
+      <c r="D208" s="143" t="s">
+        <v>1253</v>
+      </c>
       <c r="E208"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="15"/>
       <c r="B209" s="102"/>
-      <c r="C209" s="96"/>
-      <c r="D209" s="3"/>
+      <c r="C209" s="96" t="s">
+        <v>1122</v>
+      </c>
       <c r="E209"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="15"/>
+    <row r="210" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B210" s="102"/>
-      <c r="C210" s="96"/>
-      <c r="D210" s="3"/>
+      <c r="C210" s="113" t="s">
+        <v>1123</v>
+      </c>
       <c r="E210"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="15"/>
+    <row r="211" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B211" s="102"/>
-      <c r="C211" s="96"/>
-      <c r="D211" s="3"/>
+      <c r="C211" s="113"/>
+      <c r="D211" s="57" t="s">
+        <v>912</v>
+      </c>
       <c r="E211"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="15"/>
-      <c r="B212" s="102"/>
-      <c r="C212" s="96"/>
+      <c r="B212" s="87" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C212" s="113"/>
       <c r="D212" s="3"/>
       <c r="E212"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="15"/>
       <c r="B213" s="102"/>
-      <c r="C213" s="96"/>
+      <c r="C213" s="113" t="s">
+        <v>1148</v>
+      </c>
       <c r="D213" s="3"/>
       <c r="E213"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B214" s="3"/>
-      <c r="C214" s="96"/>
+      <c r="A214" s="15"/>
+      <c r="B214" s="102"/>
+      <c r="C214" s="96" t="s">
+        <v>1198</v>
+      </c>
       <c r="D214" s="3"/>
       <c r="E214"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B215" s="87" t="s">
-        <v>984</v>
-      </c>
+      <c r="A215" s="15"/>
+      <c r="B215" s="102"/>
+      <c r="C215" s="113" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="96"/>
+      <c r="A216" s="15"/>
+      <c r="B216" s="102"/>
+      <c r="C216" s="96"/>
+      <c r="D216" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E216"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B217" s="11"/>
+      <c r="A217" s="15"/>
+      <c r="B217" s="102"/>
+      <c r="C217" s="113" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B218" s="87" t="s">
+      <c r="A218" s="15"/>
+      <c r="B218" s="102"/>
+      <c r="C218" s="96"/>
+      <c r="D218" s="87" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="15"/>
+      <c r="B219" s="102"/>
+      <c r="C219" s="113" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D219" s="102"/>
+      <c r="E219"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="15"/>
+      <c r="B220" s="102"/>
+      <c r="C220" s="113" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D220" s="102"/>
+      <c r="E220"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="15"/>
+      <c r="B221" s="102"/>
+      <c r="C221" s="113"/>
+      <c r="D221" s="87" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E221"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="15"/>
+      <c r="B222" s="102"/>
+      <c r="C222" s="113" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D222" s="102"/>
+      <c r="E222"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="15"/>
+      <c r="B223" s="87" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C223" s="96"/>
+      <c r="D223" s="3"/>
+      <c r="E223"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="15"/>
+      <c r="B224" s="102"/>
+      <c r="C224" s="96" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D224" s="3"/>
+      <c r="E224"/>
+    </row>
+    <row r="225" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A225" s="15"/>
+      <c r="B225" s="102"/>
+      <c r="C225" s="113" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D225" s="3"/>
+      <c r="E225"/>
+    </row>
+    <row r="226" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A226" s="15"/>
+      <c r="B226" s="102"/>
+      <c r="C226" s="113" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="15"/>
+      <c r="B227" s="102"/>
+      <c r="C227" s="96"/>
+      <c r="D227" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E227"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="15"/>
+      <c r="B228" s="102"/>
+      <c r="C228" s="96" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E228"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="15"/>
+      <c r="B229" s="102"/>
+      <c r="C229" s="96" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E229"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="15"/>
+      <c r="B230" s="102"/>
+      <c r="C230" s="96" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E230"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="15"/>
+      <c r="B231" s="87" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C231" s="96"/>
+      <c r="D231" s="3"/>
+      <c r="E231"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="15"/>
+      <c r="B232" s="102"/>
+      <c r="C232" s="96" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="15"/>
+      <c r="B233" s="102"/>
+      <c r="C233" s="96" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="15"/>
+      <c r="B234" s="102"/>
+      <c r="C234" s="96" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D234" s="3"/>
+      <c r="E234"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="15"/>
+      <c r="B235" s="102"/>
+      <c r="C235" s="96"/>
+      <c r="D235" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E235"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B236" s="3"/>
+      <c r="C236" s="96"/>
+      <c r="D236" s="3"/>
+      <c r="E236"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B237" s="87" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="96"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B239" s="11"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B240" s="87" t="s">
         <v>501</v>
       </c>
     </row>
@@ -15184,8 +15887,8 @@
   </sheetPr>
   <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15199,40 +15902,40 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="186" t="s">
         <v>802</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83" t="s">
@@ -15247,7 +15950,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -15261,40 +15964,40 @@
         <v>801</v>
       </c>
       <c r="E12" s="96" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="96" t="s">
+        <v>939</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>940</v>
+      </c>
+      <c r="C13" s="96" t="s">
         <v>941</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="E13" s="96" t="s">
         <v>942</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>943</v>
-      </c>
-      <c r="E13" s="96" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="96" t="s">
+        <v>971</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>972</v>
+      </c>
+      <c r="C14" s="96" t="s">
         <v>973</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="E14" s="96" t="s">
         <v>974</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>975</v>
-      </c>
-      <c r="E14" s="96" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="B15" t="s">
         <v>450</v>
@@ -15303,21 +16006,21 @@
         <v>451</v>
       </c>
       <c r="E15" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B16" t="s">
         <v>800</v>
       </c>
       <c r="C16" t="s">
+        <v>832</v>
+      </c>
+      <c r="E16" t="s">
         <v>833</v>
-      </c>
-      <c r="E16" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -15336,16 +16039,16 @@
     </row>
     <row r="18" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B18" t="s">
         <v>864</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>865</v>
       </c>
-      <c r="C18" t="s">
-        <v>866</v>
-      </c>
       <c r="E18" s="106" t="s">
-        <v>867</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -15364,30 +16067,30 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B20" t="s">
         <v>427</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B21" t="s">
         <v>427</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -15418,7 +16121,7 @@
         <v>803</v>
       </c>
       <c r="E23" t="s">
-        <v>826</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -15452,7 +16155,7 @@
         <v>804</v>
       </c>
       <c r="E25" t="s">
-        <v>827</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -15469,55 +16172,55 @@
         <v>804</v>
       </c>
       <c r="E26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B27" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C27" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D27" t="s">
         <v>804</v>
       </c>
       <c r="E27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B28" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C28" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D28" t="s">
         <v>804</v>
       </c>
       <c r="E28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C29" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -15528,10 +16231,10 @@
         <v>427</v>
       </c>
       <c r="C30" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E30" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -15545,7 +16248,7 @@
         <v>487</v>
       </c>
       <c r="E31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -15559,7 +16262,7 @@
         <v>429</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -15601,7 +16304,7 @@
         <v>804</v>
       </c>
       <c r="E35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -15618,7 +16321,7 @@
         <v>804</v>
       </c>
       <c r="E36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -15649,90 +16352,93 @@
         <v>803</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>418</v>
+        <v>948</v>
       </c>
       <c r="B39" t="s">
-        <v>427</v>
+        <v>947</v>
       </c>
       <c r="C39" t="s">
-        <v>461</v>
-      </c>
-      <c r="E39" s="106" t="s">
-        <v>971</v>
+        <v>960</v>
+      </c>
+      <c r="D39" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" t="s">
+        <v>427</v>
+      </c>
+      <c r="C40" t="s">
+        <v>461</v>
+      </c>
+      <c r="E40" s="106" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>459</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>450</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>460</v>
       </c>
-      <c r="E40" s="106" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>419</v>
-      </c>
-      <c r="B41" t="s">
-        <v>427</v>
-      </c>
-      <c r="C41" t="s">
-        <v>494</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1161</v>
+      <c r="E41" s="106" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="B42" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="C42" t="s">
-        <v>464</v>
+        <v>494</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="B43" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="C43" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s">
         <v>430</v>
       </c>
       <c r="C44" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="C45" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -15748,7 +16454,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B47" t="s">
         <v>427</v>
@@ -15786,7 +16492,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="89" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
